--- a/data/nzd0255/nzd0255.xlsx
+++ b/data/nzd0255/nzd0255.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y372"/>
+  <dimension ref="A1:Y375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28900,6 +28900,249 @@
         </is>
       </c>
     </row>
+    <row r="373">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-16 21:53:52+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>258.5866666666666</v>
+      </c>
+      <c r="C373" t="n">
+        <v>253.6966666666666</v>
+      </c>
+      <c r="D373" t="n">
+        <v>255.17</v>
+      </c>
+      <c r="E373" t="n">
+        <v>272.0471428571428</v>
+      </c>
+      <c r="F373" t="n">
+        <v>295.4271428571428</v>
+      </c>
+      <c r="G373" t="n">
+        <v>298.5871428571429</v>
+      </c>
+      <c r="H373" t="n">
+        <v>299.1771428571428</v>
+      </c>
+      <c r="I373" t="n">
+        <v>293.6866666666667</v>
+      </c>
+      <c r="J373" t="n">
+        <v>292.31</v>
+      </c>
+      <c r="K373" t="n">
+        <v>300.9211111111111</v>
+      </c>
+      <c r="L373" t="n">
+        <v>320.0871428571429</v>
+      </c>
+      <c r="M373" t="n">
+        <v>336.7971428571428</v>
+      </c>
+      <c r="N373" t="n">
+        <v>335.2572727272727</v>
+      </c>
+      <c r="O373" t="n">
+        <v>331.4233333333333</v>
+      </c>
+      <c r="P373" t="n">
+        <v>342.83</v>
+      </c>
+      <c r="Q373" t="n">
+        <v>343.54</v>
+      </c>
+      <c r="R373" t="n">
+        <v>340.35</v>
+      </c>
+      <c r="S373" t="n">
+        <v>333.5333333333333</v>
+      </c>
+      <c r="T373" t="n">
+        <v>327.8133333333333</v>
+      </c>
+      <c r="U373" t="n">
+        <v>329.7069230769231</v>
+      </c>
+      <c r="V373" t="n">
+        <v>333.2733333333333</v>
+      </c>
+      <c r="W373" t="n">
+        <v>331.6733333333333</v>
+      </c>
+      <c r="X373" t="n">
+        <v>330.28</v>
+      </c>
+      <c r="Y373" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-09 21:53:42+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>277.0966666666667</v>
+      </c>
+      <c r="C374" t="n">
+        <v>264.9966666666667</v>
+      </c>
+      <c r="D374" t="n">
+        <v>244.26</v>
+      </c>
+      <c r="E374" t="n">
+        <v>272.7557142857143</v>
+      </c>
+      <c r="F374" t="n">
+        <v>297.1857142857143</v>
+      </c>
+      <c r="G374" t="n">
+        <v>293.6357142857143</v>
+      </c>
+      <c r="H374" t="n">
+        <v>301.6457142857143</v>
+      </c>
+      <c r="I374" t="n">
+        <v>304.6166666666667</v>
+      </c>
+      <c r="J374" t="n">
+        <v>287.64</v>
+      </c>
+      <c r="K374" t="n">
+        <v>296.8477777777778</v>
+      </c>
+      <c r="L374" t="n">
+        <v>316.8757142857143</v>
+      </c>
+      <c r="M374" t="n">
+        <v>331.8657142857143</v>
+      </c>
+      <c r="N374" t="n">
+        <v>330.03</v>
+      </c>
+      <c r="O374" t="n">
+        <v>333.1333333333333</v>
+      </c>
+      <c r="P374" t="n">
+        <v>332.46</v>
+      </c>
+      <c r="Q374" t="n">
+        <v>333.21</v>
+      </c>
+      <c r="R374" t="n">
+        <v>335.04</v>
+      </c>
+      <c r="S374" t="n">
+        <v>333.5433333333333</v>
+      </c>
+      <c r="T374" t="n">
+        <v>322.1933333333333</v>
+      </c>
+      <c r="U374" t="n">
+        <v>328.1984615384616</v>
+      </c>
+      <c r="V374" t="n">
+        <v>331.9933333333333</v>
+      </c>
+      <c r="W374" t="n">
+        <v>327.3433333333333</v>
+      </c>
+      <c r="X374" t="n">
+        <v>326.11</v>
+      </c>
+      <c r="Y374" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:53:31+00:00</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>272.8066666666667</v>
+      </c>
+      <c r="C375" t="n">
+        <v>271.7666666666667</v>
+      </c>
+      <c r="D375" t="n">
+        <v>258.49</v>
+      </c>
+      <c r="E375" t="n">
+        <v>279.2528571428572</v>
+      </c>
+      <c r="F375" t="n">
+        <v>299.6328571428572</v>
+      </c>
+      <c r="G375" t="n">
+        <v>291.1828571428572</v>
+      </c>
+      <c r="H375" t="n">
+        <v>289.7528571428572</v>
+      </c>
+      <c r="I375" t="n">
+        <v>290.9766666666667</v>
+      </c>
+      <c r="J375" t="n">
+        <v>297.33</v>
+      </c>
+      <c r="K375" t="n">
+        <v>299.8444444444444</v>
+      </c>
+      <c r="L375" t="n">
+        <v>316.1628571428571</v>
+      </c>
+      <c r="M375" t="n">
+        <v>327.3728571428572</v>
+      </c>
+      <c r="N375" t="n">
+        <v>326.5954545454546</v>
+      </c>
+      <c r="O375" t="n">
+        <v>334.9033333333333</v>
+      </c>
+      <c r="P375" t="n">
+        <v>333.8200000000001</v>
+      </c>
+      <c r="Q375" t="n">
+        <v>338.18</v>
+      </c>
+      <c r="R375" t="n">
+        <v>336.08</v>
+      </c>
+      <c r="S375" t="n">
+        <v>332.4633333333333</v>
+      </c>
+      <c r="T375" t="n">
+        <v>325.3533333333333</v>
+      </c>
+      <c r="U375" t="n">
+        <v>329.04</v>
+      </c>
+      <c r="V375" t="n">
+        <v>333.7933333333333</v>
+      </c>
+      <c r="W375" t="n">
+        <v>329.1833333333333</v>
+      </c>
+      <c r="X375" t="n">
+        <v>326.47</v>
+      </c>
+      <c r="Y375" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28911,7 +29154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B373"/>
+  <dimension ref="A1:B376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32649,6 +32892,36 @@
       </c>
       <c r="B373" t="n">
         <v>-0.45</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2025-01-16 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2025-02-09 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>-0.52</v>
       </c>
     </row>
   </sheetData>
@@ -32817,28 +33090,28 @@
         <v>0.0307</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05961482552433408</v>
+        <v>0.08656559219975078</v>
       </c>
       <c r="J2" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K2" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001183195202503873</v>
+        <v>0.002508877764292983</v>
       </c>
       <c r="M2" t="n">
-        <v>9.769319331822576</v>
+        <v>9.794445103309792</v>
       </c>
       <c r="N2" t="n">
-        <v>153.687622111453</v>
+        <v>154.5892277107911</v>
       </c>
       <c r="O2" t="n">
-        <v>12.39708119322661</v>
+        <v>12.43339164149473</v>
       </c>
       <c r="P2" t="n">
-        <v>253.8787110090095</v>
+        <v>253.6169913883338</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -32894,28 +33167,28 @@
         <v>0.0305</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1501998785468379</v>
+        <v>0.1798136419880854</v>
       </c>
       <c r="J3" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K3" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007158186866614624</v>
+        <v>0.01028344055932462</v>
       </c>
       <c r="M3" t="n">
-        <v>9.996835722797758</v>
+        <v>10.01488351311055</v>
       </c>
       <c r="N3" t="n">
-        <v>159.6536703496674</v>
+        <v>160.7775163642217</v>
       </c>
       <c r="O3" t="n">
-        <v>12.63541334304768</v>
+        <v>12.67980742614894</v>
       </c>
       <c r="P3" t="n">
-        <v>244.3022974062754</v>
+        <v>244.0115552693105</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -32971,28 +33244,28 @@
         <v>0.0271</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3318483315199767</v>
+        <v>0.3400159910846203</v>
       </c>
       <c r="J4" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K4" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02849020101769861</v>
+        <v>0.03043576524411284</v>
       </c>
       <c r="M4" t="n">
-        <v>10.73477850612559</v>
+        <v>10.69865422713034</v>
       </c>
       <c r="N4" t="n">
-        <v>190.5273302397291</v>
+        <v>189.2974670342909</v>
       </c>
       <c r="O4" t="n">
-        <v>13.80316377645825</v>
+        <v>13.75854160273867</v>
       </c>
       <c r="P4" t="n">
-        <v>239.9768328538125</v>
+        <v>239.8969071860863</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -33048,28 +33321,28 @@
         <v>0.0376</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3910873838201487</v>
+        <v>0.3973022518574058</v>
       </c>
       <c r="J5" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K5" t="n">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08094516041108024</v>
+        <v>0.08486045496739392</v>
       </c>
       <c r="M5" t="n">
-        <v>7.328540195678738</v>
+        <v>7.291353770696274</v>
       </c>
       <c r="N5" t="n">
-        <v>87.49172555233406</v>
+        <v>86.90152127163269</v>
       </c>
       <c r="O5" t="n">
-        <v>9.353701168646241</v>
+        <v>9.32209854440687</v>
       </c>
       <c r="P5" t="n">
-        <v>261.4991750617924</v>
+        <v>261.4384653086023</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -33125,28 +33398,28 @@
         <v>0.0357</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2934837590956276</v>
+        <v>0.3120451806508964</v>
       </c>
       <c r="J6" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K6" t="n">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03950084211347915</v>
+        <v>0.04501644696363671</v>
       </c>
       <c r="M6" t="n">
-        <v>8.134855107610495</v>
+        <v>8.138140535888665</v>
       </c>
       <c r="N6" t="n">
-        <v>107.2051788720802</v>
+        <v>107.1070235222153</v>
       </c>
       <c r="O6" t="n">
-        <v>10.35399337801991</v>
+        <v>10.3492523170621</v>
       </c>
       <c r="P6" t="n">
-        <v>280.13401609971</v>
+        <v>279.9545775395635</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -33202,28 +33475,28 @@
         <v>0.0377</v>
       </c>
       <c r="I7" t="n">
-        <v>0.119613801776008</v>
+        <v>0.1380259291488353</v>
       </c>
       <c r="J7" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K7" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00704463112556708</v>
+        <v>0.009482973378646786</v>
       </c>
       <c r="M7" t="n">
-        <v>7.98676028630025</v>
+        <v>7.994546381947151</v>
       </c>
       <c r="N7" t="n">
-        <v>103.1459345018141</v>
+        <v>103.1200056569702</v>
       </c>
       <c r="O7" t="n">
-        <v>10.15607869710619</v>
+        <v>10.15480209836559</v>
       </c>
       <c r="P7" t="n">
-        <v>281.747967641066</v>
+        <v>281.5704857696086</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -33279,28 +33552,28 @@
         <v>0.0367</v>
       </c>
       <c r="I8" t="n">
-        <v>0.008328692645652287</v>
+        <v>0.02578874292292277</v>
       </c>
       <c r="J8" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K8" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L8" t="n">
-        <v>3.902828832913485e-05</v>
+        <v>0.0003784241819237977</v>
       </c>
       <c r="M8" t="n">
-        <v>7.579484492179616</v>
+        <v>7.588626523282497</v>
       </c>
       <c r="N8" t="n">
-        <v>92.29968859688559</v>
+        <v>92.42894701629686</v>
       </c>
       <c r="O8" t="n">
-        <v>9.607272692959516</v>
+        <v>9.613997452480257</v>
       </c>
       <c r="P8" t="n">
-        <v>287.538011341613</v>
+        <v>287.3707759413018</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -33356,28 +33629,28 @@
         <v>0.0322</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1014781757920468</v>
+        <v>-0.09178718858269942</v>
       </c>
       <c r="J9" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K9" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004551763619246474</v>
+        <v>0.003793559026250781</v>
       </c>
       <c r="M9" t="n">
-        <v>8.694994662233611</v>
+        <v>8.663549778023611</v>
       </c>
       <c r="N9" t="n">
-        <v>116.2514897276391</v>
+        <v>115.7346914274916</v>
       </c>
       <c r="O9" t="n">
-        <v>10.78199841066762</v>
+        <v>10.75800592245104</v>
       </c>
       <c r="P9" t="n">
-        <v>294.0254915702312</v>
+        <v>293.932558095942</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -33433,28 +33706,28 @@
         <v>0.054</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04566061685397498</v>
+        <v>-0.03923786168556498</v>
       </c>
       <c r="J10" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K10" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001555192364668723</v>
+        <v>0.001170441501107011</v>
       </c>
       <c r="M10" t="n">
-        <v>6.544726545469811</v>
+        <v>6.524949761003199</v>
       </c>
       <c r="N10" t="n">
-        <v>67.68195235269772</v>
+        <v>67.31181717455472</v>
       </c>
       <c r="O10" t="n">
-        <v>8.226904177921226</v>
+        <v>8.20437792733579</v>
       </c>
       <c r="P10" t="n">
-        <v>290.2902503689453</v>
+        <v>290.2274413632182</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -33510,28 +33783,28 @@
         <v>0.0484</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.08761352388062305</v>
+        <v>-0.08058058608298924</v>
       </c>
       <c r="J11" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K11" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005329983671181981</v>
+        <v>0.004601686916858472</v>
       </c>
       <c r="M11" t="n">
-        <v>6.735844195129832</v>
+        <v>6.708253380231771</v>
       </c>
       <c r="N11" t="n">
-        <v>74.32704064898618</v>
+        <v>73.80487376741651</v>
       </c>
       <c r="O11" t="n">
-        <v>8.621313162679233</v>
+        <v>8.590976298850819</v>
       </c>
       <c r="P11" t="n">
-        <v>297.746300118955</v>
+        <v>297.6784707668145</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -33587,28 +33860,28 @@
         <v>0.0361</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1353947701717148</v>
+        <v>-0.1348608096344718</v>
       </c>
       <c r="J12" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K12" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01272721200940397</v>
+        <v>0.01289925940913239</v>
       </c>
       <c r="M12" t="n">
-        <v>6.871930711550679</v>
+        <v>6.823889152289772</v>
       </c>
       <c r="N12" t="n">
-        <v>72.87905123764303</v>
+        <v>72.25301589551039</v>
       </c>
       <c r="O12" t="n">
-        <v>8.536922820176075</v>
+        <v>8.500177403766958</v>
       </c>
       <c r="P12" t="n">
-        <v>320.8781051407727</v>
+        <v>320.8729833076711</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -33664,28 +33937,28 @@
         <v>0.0407</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1776181849643599</v>
+        <v>-0.1761864731916585</v>
       </c>
       <c r="J13" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K13" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02114222774913566</v>
+        <v>0.02122049526085845</v>
       </c>
       <c r="M13" t="n">
-        <v>6.813195439881842</v>
+        <v>6.781084040305458</v>
       </c>
       <c r="N13" t="n">
-        <v>74.04323103418159</v>
+        <v>73.50590700580344</v>
       </c>
       <c r="O13" t="n">
-        <v>8.60483765298228</v>
+        <v>8.573558596394115</v>
       </c>
       <c r="P13" t="n">
-        <v>335.794439694522</v>
+        <v>335.7804655660213</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -33741,28 +34014,28 @@
         <v>0.0579</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1998074196588945</v>
+        <v>-0.1962980469980623</v>
       </c>
       <c r="J14" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K14" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03447645781313835</v>
+        <v>0.03395938697004808</v>
       </c>
       <c r="M14" t="n">
-        <v>5.835585845716421</v>
+        <v>5.813766427448543</v>
       </c>
       <c r="N14" t="n">
-        <v>56.18515303484847</v>
+        <v>55.81850415196152</v>
       </c>
       <c r="O14" t="n">
-        <v>7.495675622307069</v>
+        <v>7.471178230504311</v>
       </c>
       <c r="P14" t="n">
-        <v>333.9326972517875</v>
+        <v>333.898345015008</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -33818,28 +34091,28 @@
         <v>0.0636</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1804155118800747</v>
+        <v>-0.1722976550846362</v>
       </c>
       <c r="J15" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K15" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02658538525206688</v>
+        <v>0.02476478310482044</v>
       </c>
       <c r="M15" t="n">
-        <v>6.005894898025868</v>
+        <v>5.990628549201436</v>
       </c>
       <c r="N15" t="n">
-        <v>60.73324936264893</v>
+        <v>60.36578180117129</v>
       </c>
       <c r="O15" t="n">
-        <v>7.79315400609079</v>
+        <v>7.76954192994486</v>
       </c>
       <c r="P15" t="n">
-        <v>333.5474197858904</v>
+        <v>333.4688288508825</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -33895,28 +34168,28 @@
         <v>0.0533</v>
       </c>
       <c r="I16" t="n">
-        <v>0.007126238423858495</v>
+        <v>0.006132441450651836</v>
       </c>
       <c r="J16" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K16" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L16" t="n">
-        <v>4.362362253096386e-05</v>
+        <v>3.290456444204892e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>6.048621300072754</v>
+        <v>6.034078819931961</v>
       </c>
       <c r="N16" t="n">
-        <v>59.65666075426365</v>
+        <v>59.31426195716609</v>
       </c>
       <c r="O16" t="n">
-        <v>7.723772443195337</v>
+        <v>7.701575290625035</v>
       </c>
       <c r="P16" t="n">
-        <v>336.6917095513102</v>
+        <v>336.701536623633</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -33972,28 +34245,28 @@
         <v>0.0561</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05032363974424673</v>
+        <v>0.04743901598876431</v>
       </c>
       <c r="J17" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K17" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002194047928535614</v>
+        <v>0.001986130045467438</v>
       </c>
       <c r="M17" t="n">
-        <v>5.860814341779051</v>
+        <v>5.843498849726678</v>
       </c>
       <c r="N17" t="n">
-        <v>58.0665167831301</v>
+        <v>57.73483498040072</v>
       </c>
       <c r="O17" t="n">
-        <v>7.620138895264974</v>
+        <v>7.598344226237761</v>
       </c>
       <c r="P17" t="n">
-        <v>338.541997441491</v>
+        <v>338.5704469293279</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -34049,28 +34322,28 @@
         <v>0.0538</v>
       </c>
       <c r="I18" t="n">
-        <v>0.06261416412136045</v>
+        <v>0.05754011640817558</v>
       </c>
       <c r="J18" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K18" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L18" t="n">
-        <v>0.003154650844271911</v>
+        <v>0.002717642127152975</v>
       </c>
       <c r="M18" t="n">
-        <v>6.117884134372011</v>
+        <v>6.088572560669945</v>
       </c>
       <c r="N18" t="n">
-        <v>62.78373611779252</v>
+        <v>62.34657086126833</v>
       </c>
       <c r="O18" t="n">
-        <v>7.923618877621041</v>
+        <v>7.895984477015411</v>
       </c>
       <c r="P18" t="n">
-        <v>338.2593939946769</v>
+        <v>338.3091462547145</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -34126,28 +34399,28 @@
         <v>0.0653</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0835543073469132</v>
+        <v>0.08196906803070611</v>
       </c>
       <c r="J19" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K19" t="n">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005254766554735224</v>
+        <v>0.005173521939713877</v>
       </c>
       <c r="M19" t="n">
-        <v>6.301890891697036</v>
+        <v>6.250050623616231</v>
       </c>
       <c r="N19" t="n">
-        <v>68.82311318285127</v>
+        <v>68.19203912304982</v>
       </c>
       <c r="O19" t="n">
-        <v>8.295969695150246</v>
+        <v>8.257847123981518</v>
       </c>
       <c r="P19" t="n">
-        <v>331.8471970546507</v>
+        <v>331.8623731754412</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -34203,28 +34476,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0139705934035219</v>
+        <v>0.005661587504833697</v>
       </c>
       <c r="J20" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K20" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L20" t="n">
-        <v>0.000168428076150029</v>
+        <v>2.818554068206858e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>5.914531972872639</v>
+        <v>5.899476332413798</v>
       </c>
       <c r="N20" t="n">
-        <v>58.99129504013804</v>
+        <v>58.68438861036147</v>
       </c>
       <c r="O20" t="n">
-        <v>7.68057908234386</v>
+        <v>7.66057364760378</v>
       </c>
       <c r="P20" t="n">
-        <v>329.1083248872225</v>
+        <v>329.1881435086652</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -34280,28 +34553,28 @@
         <v>0.07190000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>0.05282041911950661</v>
+        <v>0.0495506697579446</v>
       </c>
       <c r="J21" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K21" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L21" t="n">
-        <v>0.002650284698134331</v>
+        <v>0.002382732181258396</v>
       </c>
       <c r="M21" t="n">
-        <v>5.694679036070085</v>
+        <v>5.659062057337893</v>
       </c>
       <c r="N21" t="n">
-        <v>54.04111822319244</v>
+        <v>53.59027858675387</v>
       </c>
       <c r="O21" t="n">
-        <v>7.351266436689153</v>
+        <v>7.320538135052222</v>
       </c>
       <c r="P21" t="n">
-        <v>329.3528016891074</v>
+        <v>329.3844458281384</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -34357,28 +34630,28 @@
         <v>0.0636</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1190606889032522</v>
+        <v>0.1204473833834496</v>
       </c>
       <c r="J22" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K22" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01118955984648007</v>
+        <v>0.01169765948460944</v>
       </c>
       <c r="M22" t="n">
-        <v>6.241799227131222</v>
+        <v>6.193541877537425</v>
       </c>
       <c r="N22" t="n">
-        <v>65.06816182371401</v>
+        <v>64.49513402259012</v>
       </c>
       <c r="O22" t="n">
-        <v>8.066483857525162</v>
+        <v>8.030886253869502</v>
       </c>
       <c r="P22" t="n">
-        <v>329.258042178991</v>
+        <v>329.244737415888</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -34434,28 +34707,28 @@
         <v>0.0649</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02598937555324422</v>
+        <v>0.02766109166726516</v>
       </c>
       <c r="J23" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K23" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0005143572733284918</v>
+        <v>0.0005949778846234821</v>
       </c>
       <c r="M23" t="n">
-        <v>6.24994329782238</v>
+        <v>6.209199530956425</v>
       </c>
       <c r="N23" t="n">
-        <v>67.26313854970853</v>
+        <v>66.70083488242085</v>
       </c>
       <c r="O23" t="n">
-        <v>8.20141076582002</v>
+        <v>8.167057908599697</v>
       </c>
       <c r="P23" t="n">
-        <v>327.8524334697568</v>
+        <v>327.8362131327135</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -34511,28 +34784,28 @@
         <v>0.0515</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03220879744136089</v>
+        <v>0.02889762392907047</v>
       </c>
       <c r="J24" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K24" t="n">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0008739194401879979</v>
+        <v>0.0007183043957503799</v>
       </c>
       <c r="M24" t="n">
-        <v>6.002501584521381</v>
+        <v>5.968941384506714</v>
       </c>
       <c r="N24" t="n">
-        <v>60.01002223000294</v>
+        <v>59.53888482570349</v>
       </c>
       <c r="O24" t="n">
-        <v>7.746613597566548</v>
+        <v>7.716144427478239</v>
       </c>
       <c r="P24" t="n">
-        <v>328.5255888466695</v>
+        <v>328.558025371834</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -34569,7 +34842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y372"/>
+  <dimension ref="A1:Y375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78393,6 +78666,387 @@
         </is>
       </c>
     </row>
+    <row r="373">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-16 21:53:52+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>-38.33351868338987,178.32545361902208</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>-38.33417104596492,178.3251041175189</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>-38.334840176386415,178.32482403789854</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>-38.33558443532661,178.32469839934706</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>-38.33642028737636,178.32471992774504</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>-38.33720415758335,178.324812083132</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>-38.33790681661908,178.32487571399076</t>
+        </is>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>-38.33863075492567,178.3248720246317</t>
+        </is>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>-38.33935488431167,178.32496661368256</t>
+        </is>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>-38.34004544603001,178.32519396177773</t>
+        </is>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>-38.34071662916306,178.3255393217075</t>
+        </is>
+      </c>
+      <c r="M373" t="inlineStr">
+        <is>
+          <t>-38.34138569817663,178.3258840524111</t>
+        </is>
+      </c>
+      <c r="N373" t="inlineStr">
+        <is>
+          <t>-38.3420816603702,178.32604645509184</t>
+        </is>
+      </c>
+      <c r="O373" t="inlineStr">
+        <is>
+          <t>-38.342782556719555,178.3261835195956</t>
+        </is>
+      </c>
+      <c r="P373" t="inlineStr">
+        <is>
+          <t>-38.34345198500406,178.32650826474435</t>
+        </is>
+      </c>
+      <c r="Q373" t="inlineStr">
+        <is>
+          <t>-38.344123673415865,178.32680574921528</t>
+        </is>
+      </c>
+      <c r="R373" t="inlineStr">
+        <is>
+          <t>-38.344801227563416,178.32705973439394</t>
+        </is>
+      </c>
+      <c r="S373" t="inlineStr">
+        <is>
+          <t>-38.34549002471867,178.32727490127618</t>
+        </is>
+      </c>
+      <c r="T373" t="inlineStr">
+        <is>
+          <t>-38.34617488869145,178.32749832614599</t>
+        </is>
+      </c>
+      <c r="U373" t="inlineStr">
+        <is>
+          <t>-38.34683790126954,178.3277963293764</t>
+        </is>
+      </c>
+      <c r="V373" t="inlineStr">
+        <is>
+          <t>-38.347506676400386,178.32811668317407</t>
+        </is>
+      </c>
+      <c r="W373" t="inlineStr">
+        <is>
+          <t>-38.348170567728495,178.32846606117636</t>
+        </is>
+      </c>
+      <c r="X373" t="inlineStr">
+        <is>
+          <t>-38.34881579732133,178.328840068982</t>
+        </is>
+      </c>
+      <c r="Y373" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-09 21:53:42+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>-38.333567475999786,178.3256555563683</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>-38.33420083316843,178.32522739744496</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>-38.33481141698117,178.3247050117619</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>-38.33558601332524,178.32470623324812</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>-38.336421069234454,178.32473997174858</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>-38.337208653452585,178.32475586657046</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>-38.33790457513416,178.32490374143757</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>-38.33861812366173,178.32499572474512</t>
+        </is>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>-38.339361961244755,178.32491408106154</t>
+        </is>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>-38.34005207712801,178.32514824396202</t>
+        </is>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>-38.34072229881969,178.32550338512058</t>
+        </is>
+      </c>
+      <c r="M374" t="inlineStr">
+        <is>
+          <t>-38.34139562115379,178.32582920025038</t>
+        </is>
+      </c>
+      <c r="N374" t="inlineStr">
+        <is>
+          <t>-38.34209274962332,178.32598848301325</t>
+        </is>
+      </c>
+      <c r="O374" t="inlineStr">
+        <is>
+          <t>-38.34277877598171,178.32620243593027</t>
+        </is>
+      </c>
+      <c r="P374" t="inlineStr">
+        <is>
+          <t>-38.343480538489274,178.3263956024752</t>
+        </is>
+      </c>
+      <c r="Q374" t="inlineStr">
+        <is>
+          <t>-38.344156714528005,178.32669556980693</t>
+        </is>
+      </c>
+      <c r="R374" t="inlineStr">
+        <is>
+          <t>-38.34481821202349,178.3270030976742</t>
+        </is>
+      </c>
+      <c r="S374" t="inlineStr">
+        <is>
+          <t>-38.34548999287806,178.3272750080077</t>
+        </is>
+      </c>
+      <c r="T374" t="inlineStr">
+        <is>
+          <t>-38.34619250918099,178.32743821187884</t>
+        </is>
+      </c>
+      <c r="U374" t="inlineStr">
+        <is>
+          <t>-38.346842579134275,178.32778016973822</t>
+        </is>
+      </c>
+      <c r="V374" t="inlineStr">
+        <is>
+          <t>-38.347511166188795,178.32810323216268</t>
+        </is>
+      </c>
+      <c r="W374" t="inlineStr">
+        <is>
+          <t>-38.34818804513155,178.32842190339923</t>
+        </is>
+      </c>
+      <c r="X374" t="inlineStr">
+        <is>
+          <t>-38.348833165028694,178.32879789158372</t>
+        </is>
+      </c>
+      <c r="Y374" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:53:31+00:00</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>-38.33355616753476,178.32560875401265</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>-38.33421867906421,178.32530125634534</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>-38.33484892807731,178.32486025851728</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>-38.33560048252893,178.32477806507993</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>-38.33642215722456,178.3247678640135</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>-38.3372108806232,178.32472801779684</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>-38.33791537389402,178.3247687133504</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>-38.3386338867197,178.32484135423775</t>
+        </is>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>-38.33934727696189,178.32502308342345</t>
+        </is>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>-38.34004719876874,178.32518187760977</t>
+        </is>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>-38.34072355734078,178.32549540809256</t>
+        </is>
+      </c>
+      <c r="M375" t="inlineStr">
+        <is>
+          <t>-38.34140466161989,178.32577922629343</t>
+        </is>
+      </c>
+      <c r="N375" t="inlineStr">
+        <is>
+          <t>-38.34210003572976,178.3259503928257</t>
+        </is>
+      </c>
+      <c r="O375" t="inlineStr">
+        <is>
+          <t>-38.342774862583305,178.32622201599352</t>
+        </is>
+      </c>
+      <c r="P375" t="inlineStr">
+        <is>
+          <t>-38.343476793775736,178.32641037786047</t>
+        </is>
+      </c>
+      <c r="Q375" t="inlineStr">
+        <is>
+          <t>-38.34414081770299,178.326748579662</t>
+        </is>
+      </c>
+      <c r="R375" t="inlineStr">
+        <is>
+          <t>-38.34481488550225,178.3270141903674</t>
+        </is>
+      </c>
+      <c r="S375" t="inlineStr">
+        <is>
+          <t>-38.345493431663165,178.32726348100704</t>
+        </is>
+      </c>
+      <c r="T375" t="inlineStr">
+        <is>
+          <t>-38.34618260157832,178.3274720127875</t>
+        </is>
+      </c>
+      <c r="U375" t="inlineStr">
+        <is>
+          <t>-38.34683996945375,178.3277891848554</t>
+        </is>
+      </c>
+      <c r="V375" t="inlineStr">
+        <is>
+          <t>-38.347504852423434,178.32812214764695</t>
+        </is>
+      </c>
+      <c r="W375" t="inlineStr">
+        <is>
+          <t>-38.34818061824619,178.32844066790778</t>
+        </is>
+      </c>
+      <c r="X375" t="inlineStr">
+        <is>
+          <t>-38.348831665658814,178.3288015327988</t>
+        </is>
+      </c>
+      <c r="Y375" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0255/nzd0255.xlsx
+++ b/data/nzd0255/nzd0255.xlsx
@@ -32935,7 +32935,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33026,35 +33026,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -33113,27 +33118,28 @@
       <c r="P2" t="n">
         <v>253.6169913883338</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (178.32263255744382 -38.33283700680274, 178.33260858276267 -38.335247223644245)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>178.3226325574438</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-38.33283700680274</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>178.3326085827627</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-38.33524722364425</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>178.3276205701032</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-38.3340421152235</v>
       </c>
     </row>
@@ -33190,27 +33196,28 @@
       <c r="P3" t="n">
         <v>244.0115552693105</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (178.32233637898366 -38.333502256235526, 178.33231246230824 -38.33591247721526)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>178.3223363789837</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-38.33350225623553</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>178.3323124623082</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-38.33591247721526</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>178.3273244206459</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-38.3347073667254</v>
       </c>
     </row>
@@ -33267,27 +33274,28 @@
       <c r="P4" t="n">
         <v>239.8969071860863</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (178.32204020052313 -38.33416749956057, 178.3320163418544 -38.336577724679)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>178.3220402005231</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-38.33416749956057</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>178.3320163418544</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-38.336577724679</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>178.3270282711888</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-38.33537261211978</v>
       </c>
     </row>
@@ -33344,27 +33352,28 @@
       <c r="P5" t="n">
         <v>261.4384653086023</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (178.32169069196232 -38.33497854175262, 178.33180072678394 -38.33701482185135)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>178.3216906919623</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-38.33497854175262</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>178.3318007267839</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-38.33701482185135</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>178.3267457093731</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-38.33599668180199</v>
       </c>
     </row>
@@ -33421,27 +33430,28 @@
       <c r="P6" t="n">
         <v>279.9545775395635</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (178.32135268214745 -38.33628889159473, 178.33177629111623 -38.336695320681784)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>178.3213526821474</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-38.33628889159473</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>178.3317762911162</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-38.33669532068178</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>178.3265644866318</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-38.33649210613825</v>
       </c>
     </row>
@@ -33498,27 +33508,28 @@
       <c r="P7" t="n">
         <v>281.5704857696086</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (178.32142202472144 -38.337475225483566, 178.3318050060217 -38.33664469115242)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>178.3214220247214</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-38.33747522548357</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>178.3318050060217</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-38.33664469115242</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>178.3266135153716</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-38.33705995831799</v>
       </c>
     </row>
@@ -33575,27 +33586,28 @@
       <c r="P8" t="n">
         <v>287.3707759413018</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (178.32147892452502 -38.33817842320246, 178.33186197023568 -38.33734788257959)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>178.321478924525</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-38.33817842320246</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>178.3318619702357</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-38.33734788257959</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>178.3266704473804</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-38.33776315289103</v>
       </c>
     </row>
@@ -33652,27 +33664,28 @@
       <c r="P9" t="n">
         <v>293.932558095942</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (178.32154820831335 -38.33897010622285, 178.33189800100294 -38.337913106175776)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>178.3215482083133</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-38.33897010622285</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>178.3318980010029</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-38.33791310617578</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>178.3267231046581</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-38.33844160619931</v>
       </c>
     </row>
@@ -33729,27 +33742,28 @@
       <c r="P10" t="n">
         <v>290.2274413632182</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (178.3216784065956 -38.33979780764943, 178.33196532130998 -38.33841183273953)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>178.3216784065956</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-38.33979780764943</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>178.33196532131</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-38.33841183273953</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>178.3268218639528</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-38.33910482019448</v>
       </c>
     </row>
@@ -33806,27 +33820,28 @@
       <c r="P11" t="n">
         <v>297.6784707668145</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (178.3218164896117 -38.340535277659775, 178.33208020517975 -38.33904642230688)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>178.3218164896117</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-38.34053527765978</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>178.3320802051798</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-38.33904642230688</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>178.3269483473957</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-38.33979084998333</v>
       </c>
     </row>
@@ -33883,27 +33898,28 @@
       <c r="P12" t="n">
         <v>320.8729833076711</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (178.32195744289223 -38.3412816785496, 178.3321904490502 -38.33966708931062)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>178.3219574428922</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-38.3412816785496</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>178.3321904490502</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-38.33966708931062</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>178.3270739459712</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-38.34047438393011</v>
       </c>
     </row>
@@ -33960,27 +33976,28 @@
       <c r="P13" t="n">
         <v>335.7804655660213</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (178.32213782480176 -38.34206334162868, 178.33230915542876 -38.34022317772139)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>178.3221378248018</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-38.34206334162868</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>178.3323091554288</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-38.34022317772139</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>178.3272234901153</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-38.34114325967504</v>
       </c>
     </row>
@@ -34037,27 +34054,28 @@
       <c r="P14" t="n">
         <v>333.898345015008</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (178.32232830538481 -38.34279282688239, 178.3324696532057 -38.34085279646425)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>178.3223283053848</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-38.34279282688239</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>178.3324696532057</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-38.34085279646425</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>178.3273989792953</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-38.34182281167332</v>
       </c>
     </row>
@@ -34114,27 +34132,28 @@
       <c r="P15" t="n">
         <v>333.4688288508825</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (178.32251721004178 -38.34351526448596, 178.3326327375207 -38.3414933790554)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>178.3225172100418</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-38.34351526448596</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>178.3326327375207</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-38.3414933790554</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>178.3275749737812</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-38.34250432177068</v>
       </c>
     </row>
@@ -34191,27 +34210,28 @@
       <c r="P16" t="n">
         <v>336.701536623633</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (178.322783620861 -38.34439590287038, 178.33271766425682 -38.34187805720819)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>178.322783620861</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-38.34439590287038</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>178.3327176642568</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-38.34187805720819</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>178.3277506425589</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-38.34313698003929</v>
       </c>
     </row>
@@ -34268,27 +34288,28 @@
       <c r="P17" t="n">
         <v>338.5704469293279</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (178.32314150437745 -38.34522245432722, 178.33289376265998 -38.34229776935683)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>178.3231415043774</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-38.34522245432722</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>178.33289376266</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-38.34229776935683</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>178.3280176335187</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-38.34376011184203</v>
       </c>
     </row>
@@ -34345,27 +34366,28 @@
       <c r="P18" t="n">
         <v>338.3091462547145</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (178.32342948531564 -38.34588981251247, 178.33318179010473 -38.342965116658384)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>178.3234294853156</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-38.34588981251247</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>178.3331817901047</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-38.34296511665838</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>178.3283056377102</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-38.34442746458542</v>
       </c>
     </row>
@@ -34422,27 +34444,28 @@
       <c r="P19" t="n">
         <v>331.8623731754412</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (178.3237149928866 -38.346551964526604, 178.33347377004623 -38.34364054517649)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>178.3237149928866</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-38.3465519645266</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>178.3334737700462</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-38.34364054517649</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>178.3285943814664</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-38.34509625485155</v>
       </c>
     </row>
@@ -34499,27 +34522,28 @@
       <c r="P20" t="n">
         <v>329.1881435086652</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (178.3239918203125 -38.3472026395669, 178.33377195220814 -38.34433577370206)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>178.3239918203125</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-38.3472026395669</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>178.3337719522081</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-38.34433577370206</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>178.3288818862603</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-38.34576920663449</v>
       </c>
     </row>
@@ -34576,27 +34600,28 @@
       <c r="P21" t="n">
         <v>329.3844458281384</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (178.3242642355591 -38.34786030018988, 178.33405916418818 -38.345024738614384)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>178.3242642355591</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-38.34786030018988</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>178.3340591641882</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-38.34502473861438</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>178.3291616998736</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-38.34644251940213</v>
       </c>
     </row>
@@ -34653,27 +34678,28 @@
       <c r="P22" t="n">
         <v>329.244737415888</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (178.32461438473345 -38.34867563331331, 178.3342222600003 -38.34546849658111)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>178.3246143847335</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-38.34867563331331</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>178.3342222600003</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-38.34546849658111</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>178.3294183223669</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-38.34707206494721</v>
       </c>
     </row>
@@ -34730,27 +34756,28 @@
       <c r="P23" t="n">
         <v>327.8362131327135</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (178.32508355702728 -38.34950927395093, 178.33440686386385 -38.34581901013846)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>178.3250835570273</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-38.34950927395093</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>178.3344068638638</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-38.34581901013846</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>178.3297452104456</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-38.34766414204469</v>
       </c>
     </row>
@@ -34807,27 +34834,28 @@
       <c r="P24" t="n">
         <v>328.558025371834</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (178.3254993904655 -38.35019134360072, 178.3347460534308 -38.34638362127596)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>178.3254993904655</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-38.35019134360072</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>178.3347460534308</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-38.34638362127596</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>178.3301227219482</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-38.34828748243834</v>
       </c>
     </row>

--- a/data/nzd0255/nzd0255.xlsx
+++ b/data/nzd0255/nzd0255.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y375"/>
+  <dimension ref="A1:Y378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29143,6 +29143,243 @@
         </is>
       </c>
     </row>
+    <row r="376">
+      <c r="A376" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:54:08+00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>250.4533333333333</v>
+      </c>
+      <c r="C376" t="n">
+        <v>236.0633333333333</v>
+      </c>
+      <c r="D376" t="n">
+        <v>221.92</v>
+      </c>
+      <c r="E376" t="n">
+        <v>260.1985714285714</v>
+      </c>
+      <c r="F376" t="n">
+        <v>280.2985714285714</v>
+      </c>
+      <c r="G376" t="n">
+        <v>273.7785714285715</v>
+      </c>
+      <c r="H376" t="n">
+        <v>274.5085714285714</v>
+      </c>
+      <c r="I376" t="n">
+        <v>279.3333333333333</v>
+      </c>
+      <c r="J376" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="K376" t="n">
+        <v>283.1855555555555</v>
+      </c>
+      <c r="L376" t="n">
+        <v>307.4285714285714</v>
+      </c>
+      <c r="M376" t="n">
+        <v>324.5685714285714</v>
+      </c>
+      <c r="N376" t="n">
+        <v>315.3309090909091</v>
+      </c>
+      <c r="O376" t="n">
+        <v>315.1866666666667</v>
+      </c>
+      <c r="P376" t="n">
+        <v>322.36</v>
+      </c>
+      <c r="Q376" t="n">
+        <v>323.95</v>
+      </c>
+      <c r="R376" t="n">
+        <v>316.23</v>
+      </c>
+      <c r="S376" t="n">
+        <v>313.9266666666667</v>
+      </c>
+      <c r="T376" t="n">
+        <v>313.1066666666667</v>
+      </c>
+      <c r="U376" t="n">
+        <v>312.5746153846154</v>
+      </c>
+      <c r="V376" t="n">
+        <v>312.1566666666667</v>
+      </c>
+      <c r="W376" t="n">
+        <v>310.6766666666667</v>
+      </c>
+      <c r="X376" t="n">
+        <v>316.39</v>
+      </c>
+      <c r="Y376" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:53:28+00:00</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr"/>
+      <c r="C377" t="inlineStr"/>
+      <c r="D377" t="inlineStr"/>
+      <c r="E377" t="n">
+        <v>265.17</v>
+      </c>
+      <c r="F377" t="n">
+        <v>285.77</v>
+      </c>
+      <c r="G377" t="n">
+        <v>290.21</v>
+      </c>
+      <c r="H377" t="n">
+        <v>290.1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>290.75</v>
+      </c>
+      <c r="J377" t="n">
+        <v>292.89</v>
+      </c>
+      <c r="K377" t="n">
+        <v>304.4133333333333</v>
+      </c>
+      <c r="L377" t="n">
+        <v>318.41</v>
+      </c>
+      <c r="M377" t="n">
+        <v>332.78</v>
+      </c>
+      <c r="N377" t="n">
+        <v>331.8618181818182</v>
+      </c>
+      <c r="O377" t="n">
+        <v>331.67</v>
+      </c>
+      <c r="P377" t="n">
+        <v>335.96</v>
+      </c>
+      <c r="Q377" t="n">
+        <v>337.66</v>
+      </c>
+      <c r="R377" t="n">
+        <v>340.93</v>
+      </c>
+      <c r="S377" t="n">
+        <v>328.15</v>
+      </c>
+      <c r="T377" t="n">
+        <v>324.76</v>
+      </c>
+      <c r="U377" t="n">
+        <v>329.4192307692308</v>
+      </c>
+      <c r="V377" t="n">
+        <v>331.3</v>
+      </c>
+      <c r="W377" t="n">
+        <v>330.54</v>
+      </c>
+      <c r="X377" t="n">
+        <v>330.57</v>
+      </c>
+      <c r="Y377" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:53:56+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>259.1033333333333</v>
+      </c>
+      <c r="C378" t="n">
+        <v>259.5833333333333</v>
+      </c>
+      <c r="D378" t="n">
+        <v>250.62</v>
+      </c>
+      <c r="E378" t="n">
+        <v>269.46</v>
+      </c>
+      <c r="F378" t="n">
+        <v>292.4</v>
+      </c>
+      <c r="G378" t="n">
+        <v>289.96</v>
+      </c>
+      <c r="H378" t="n">
+        <v>287.46</v>
+      </c>
+      <c r="I378" t="n">
+        <v>301.2133333333333</v>
+      </c>
+      <c r="J378" t="n">
+        <v>296.74</v>
+      </c>
+      <c r="K378" t="n">
+        <v>301.0222222222222</v>
+      </c>
+      <c r="L378" t="n">
+        <v>320.68</v>
+      </c>
+      <c r="M378" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="N378" t="n">
+        <v>331.430909090909</v>
+      </c>
+      <c r="O378" t="n">
+        <v>332.0666666666667</v>
+      </c>
+      <c r="P378" t="n">
+        <v>340.79</v>
+      </c>
+      <c r="Q378" t="n">
+        <v>343.12</v>
+      </c>
+      <c r="R378" t="n">
+        <v>341.25</v>
+      </c>
+      <c r="S378" t="n">
+        <v>331.0166666666667</v>
+      </c>
+      <c r="T378" t="n">
+        <v>331.2466666666667</v>
+      </c>
+      <c r="U378" t="n">
+        <v>327.9576923076923</v>
+      </c>
+      <c r="V378" t="n">
+        <v>325.9266666666667</v>
+      </c>
+      <c r="W378" t="n">
+        <v>324.9266666666667</v>
+      </c>
+      <c r="X378" t="n">
+        <v>323.14</v>
+      </c>
+      <c r="Y378" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29154,7 +29391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B376"/>
+  <dimension ref="A1:B379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32922,6 +33159,36 @@
       </c>
       <c r="B376" t="n">
         <v>-0.52</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
@@ -33095,28 +33362,28 @@
         <v>0.0307</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08656559219975078</v>
+        <v>0.08524950343133367</v>
       </c>
       <c r="J2" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K2" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002508877764292983</v>
+        <v>0.002466324870525116</v>
       </c>
       <c r="M2" t="n">
-        <v>9.794445103309792</v>
+        <v>9.762745193523607</v>
       </c>
       <c r="N2" t="n">
-        <v>154.5892277107911</v>
+        <v>153.796235450444</v>
       </c>
       <c r="O2" t="n">
-        <v>12.43339164149473</v>
+        <v>12.40146102080089</v>
       </c>
       <c r="P2" t="n">
-        <v>253.6169913883338</v>
+        <v>253.6297626442075</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33173,28 +33440,28 @@
         <v>0.0305</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1798136419880854</v>
+        <v>0.1788382328296194</v>
       </c>
       <c r="J3" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K3" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01028344055932462</v>
+        <v>0.01026429495418335</v>
       </c>
       <c r="M3" t="n">
-        <v>10.01488351311055</v>
+        <v>10.02622561833118</v>
       </c>
       <c r="N3" t="n">
-        <v>160.7775163642217</v>
+        <v>160.6460377710883</v>
       </c>
       <c r="O3" t="n">
-        <v>12.67980742614894</v>
+        <v>12.67462179992319</v>
       </c>
       <c r="P3" t="n">
-        <v>244.0115552693105</v>
+        <v>244.0210220097133</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33251,28 +33518,28 @@
         <v>0.0271</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3400159910846203</v>
+        <v>0.3242544871572742</v>
       </c>
       <c r="J4" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K4" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03043576524411284</v>
+        <v>0.02784361295908377</v>
       </c>
       <c r="M4" t="n">
-        <v>10.69865422713034</v>
+        <v>10.72527070973543</v>
       </c>
       <c r="N4" t="n">
-        <v>189.2974670342909</v>
+        <v>190.2851953561615</v>
       </c>
       <c r="O4" t="n">
-        <v>13.75854160273867</v>
+        <v>13.79438999579762</v>
       </c>
       <c r="P4" t="n">
-        <v>239.8969071860863</v>
+        <v>240.0515482615952</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33329,28 +33596,28 @@
         <v>0.0376</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3973022518574058</v>
+        <v>0.3847243381508043</v>
       </c>
       <c r="J5" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K5" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08486045496739392</v>
+        <v>0.08116265227878205</v>
       </c>
       <c r="M5" t="n">
-        <v>7.291353770696274</v>
+        <v>7.286074722258569</v>
       </c>
       <c r="N5" t="n">
-        <v>86.90152127163269</v>
+        <v>86.64431058859709</v>
       </c>
       <c r="O5" t="n">
-        <v>9.32209854440687</v>
+        <v>9.308292571067859</v>
       </c>
       <c r="P5" t="n">
-        <v>261.4384653086023</v>
+        <v>261.5615650061665</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33407,28 +33674,28 @@
         <v>0.0357</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3120451806508964</v>
+        <v>0.3087455089569878</v>
       </c>
       <c r="J6" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K6" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04501644696363671</v>
+        <v>0.04491772622408863</v>
       </c>
       <c r="M6" t="n">
-        <v>8.138140535888665</v>
+        <v>8.110173291812547</v>
       </c>
       <c r="N6" t="n">
-        <v>107.1070235222153</v>
+        <v>106.4170543508728</v>
       </c>
       <c r="O6" t="n">
-        <v>10.3492523170621</v>
+        <v>10.31586420765962</v>
       </c>
       <c r="P6" t="n">
-        <v>279.9545775395635</v>
+        <v>279.9865255522539</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33485,28 +33752,28 @@
         <v>0.0377</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1380259291488353</v>
+        <v>0.137196607582161</v>
       </c>
       <c r="J7" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K7" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009482973378646786</v>
+        <v>0.009523782132535352</v>
       </c>
       <c r="M7" t="n">
-        <v>7.994546381947151</v>
+        <v>7.987039355734463</v>
       </c>
       <c r="N7" t="n">
-        <v>103.1200056569702</v>
+        <v>102.7386813825537</v>
       </c>
       <c r="O7" t="n">
-        <v>10.15480209836559</v>
+        <v>10.13600914475484</v>
       </c>
       <c r="P7" t="n">
-        <v>281.5704857696086</v>
+        <v>281.578425467457</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33563,28 +33830,28 @@
         <v>0.0367</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02578874292292277</v>
+        <v>0.01827718110000312</v>
       </c>
       <c r="J8" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K8" t="n">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003784241819237977</v>
+        <v>0.0001930891842636395</v>
       </c>
       <c r="M8" t="n">
-        <v>7.588626523282497</v>
+        <v>7.570614376404966</v>
       </c>
       <c r="N8" t="n">
-        <v>92.42894701629686</v>
+        <v>92.1580900422984</v>
       </c>
       <c r="O8" t="n">
-        <v>9.613997452480257</v>
+        <v>9.59990052252097</v>
       </c>
       <c r="P8" t="n">
-        <v>287.3707759413018</v>
+        <v>287.4429953215141</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33641,28 +33908,28 @@
         <v>0.0322</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.09178718858269942</v>
+        <v>-0.09394527627487506</v>
       </c>
       <c r="J9" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K9" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003793559026250781</v>
+        <v>0.004035346792944261</v>
       </c>
       <c r="M9" t="n">
-        <v>8.663549778023611</v>
+        <v>8.653878762835145</v>
       </c>
       <c r="N9" t="n">
-        <v>115.7346914274916</v>
+        <v>115.4259205352254</v>
       </c>
       <c r="O9" t="n">
-        <v>10.75800592245104</v>
+        <v>10.74364558868289</v>
       </c>
       <c r="P9" t="n">
-        <v>293.932558095942</v>
+        <v>293.9532138732396</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33719,28 +33986,28 @@
         <v>0.054</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.03923786168556498</v>
+        <v>-0.04574743314699953</v>
       </c>
       <c r="J10" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K10" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001170441501107011</v>
+        <v>0.001587667991089892</v>
       </c>
       <c r="M10" t="n">
-        <v>6.524949761003199</v>
+        <v>6.56365283999131</v>
       </c>
       <c r="N10" t="n">
-        <v>67.31181717455472</v>
+        <v>68.2859794374848</v>
       </c>
       <c r="O10" t="n">
-        <v>8.20437792733579</v>
+        <v>8.263533108633666</v>
       </c>
       <c r="P10" t="n">
-        <v>290.2274413632182</v>
+        <v>290.2911234154307</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33797,28 +34064,28 @@
         <v>0.0484</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.08058058608298924</v>
+        <v>-0.07945522455856686</v>
       </c>
       <c r="J11" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K11" t="n">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004601686916858472</v>
+        <v>0.004522319183688173</v>
       </c>
       <c r="M11" t="n">
-        <v>6.708253380231771</v>
+        <v>6.727491618001797</v>
       </c>
       <c r="N11" t="n">
-        <v>73.80487376741651</v>
+        <v>73.92284171059084</v>
       </c>
       <c r="O11" t="n">
-        <v>8.590976298850819</v>
+        <v>8.597839362920828</v>
       </c>
       <c r="P11" t="n">
-        <v>297.6784707668145</v>
+        <v>297.6674647367749</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33875,28 +34142,28 @@
         <v>0.0361</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1348608096344718</v>
+        <v>-0.1384455633213872</v>
       </c>
       <c r="J12" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K12" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01289925940913239</v>
+        <v>0.01381167824996943</v>
       </c>
       <c r="M12" t="n">
-        <v>6.823889152289772</v>
+        <v>6.804358900068562</v>
       </c>
       <c r="N12" t="n">
-        <v>72.25301589551039</v>
+        <v>71.94067640747468</v>
       </c>
       <c r="O12" t="n">
-        <v>8.500177403766958</v>
+        <v>8.481784977672724</v>
       </c>
       <c r="P12" t="n">
-        <v>320.8729833076711</v>
+        <v>320.9078338063961</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33953,28 +34220,28 @@
         <v>0.0407</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1761864731916585</v>
+        <v>-0.1783163524936917</v>
       </c>
       <c r="J13" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K13" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02122049526085845</v>
+        <v>0.02213909986727314</v>
       </c>
       <c r="M13" t="n">
-        <v>6.781084040305458</v>
+        <v>6.750547349108261</v>
       </c>
       <c r="N13" t="n">
-        <v>73.50590700580344</v>
+        <v>72.9922199796078</v>
       </c>
       <c r="O13" t="n">
-        <v>8.573558596394115</v>
+        <v>8.543548441930191</v>
       </c>
       <c r="P13" t="n">
-        <v>335.7804655660213</v>
+        <v>335.8015017158814</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34031,28 +34298,28 @@
         <v>0.0579</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1962980469980623</v>
+        <v>-0.2014218597585707</v>
       </c>
       <c r="J14" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K14" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03395938697004808</v>
+        <v>0.03607734458399936</v>
       </c>
       <c r="M14" t="n">
-        <v>5.813766427448543</v>
+        <v>5.817013596946292</v>
       </c>
       <c r="N14" t="n">
-        <v>55.81850415196152</v>
+        <v>55.91099411471811</v>
       </c>
       <c r="O14" t="n">
-        <v>7.471178230504311</v>
+        <v>7.477365452799408</v>
       </c>
       <c r="P14" t="n">
-        <v>333.898345015008</v>
+        <v>333.9487955180797</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34109,28 +34376,28 @@
         <v>0.0636</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1722976550846362</v>
+        <v>-0.1774584681652799</v>
       </c>
       <c r="J15" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K15" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02476478310482044</v>
+        <v>0.02652625746462511</v>
       </c>
       <c r="M15" t="n">
-        <v>5.990628549201436</v>
+        <v>5.994773693813099</v>
       </c>
       <c r="N15" t="n">
-        <v>60.36578180117129</v>
+        <v>60.44365007879269</v>
       </c>
       <c r="O15" t="n">
-        <v>7.76954192994486</v>
+        <v>7.774551439073041</v>
       </c>
       <c r="P15" t="n">
-        <v>333.4688288508825</v>
+        <v>333.5188622365214</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34187,28 +34454,28 @@
         <v>0.0533</v>
       </c>
       <c r="I16" t="n">
-        <v>0.006132441450651836</v>
+        <v>-0.0009985996670166836</v>
       </c>
       <c r="J16" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K16" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L16" t="n">
-        <v>3.290456444204892e-05</v>
+        <v>8.812032411542603e-07</v>
       </c>
       <c r="M16" t="n">
-        <v>6.034078819931961</v>
+        <v>6.034161509656943</v>
       </c>
       <c r="N16" t="n">
-        <v>59.31426195716609</v>
+        <v>59.45400171764451</v>
       </c>
       <c r="O16" t="n">
-        <v>7.701575290625035</v>
+        <v>7.710642107998821</v>
       </c>
       <c r="P16" t="n">
-        <v>336.701536623633</v>
+        <v>336.7711907464557</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34265,28 +34532,28 @@
         <v>0.0561</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04743901598876431</v>
+        <v>0.03844009992528041</v>
       </c>
       <c r="J17" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K17" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001986130045467438</v>
+        <v>0.001314982017673327</v>
       </c>
       <c r="M17" t="n">
-        <v>5.843498849726678</v>
+        <v>5.851822126577614</v>
       </c>
       <c r="N17" t="n">
-        <v>57.73483498040072</v>
+        <v>57.9972983903266</v>
       </c>
       <c r="O17" t="n">
-        <v>7.598344226237761</v>
+        <v>7.61559573443382</v>
       </c>
       <c r="P17" t="n">
-        <v>338.5704469293279</v>
+        <v>338.6591555952005</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34343,28 +34610,28 @@
         <v>0.0538</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05754011640817558</v>
+        <v>0.04476197846055382</v>
       </c>
       <c r="J18" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K18" t="n">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L18" t="n">
-        <v>0.002717642127152975</v>
+        <v>0.001638838453069891</v>
       </c>
       <c r="M18" t="n">
-        <v>6.088572560669945</v>
+        <v>6.106642636734258</v>
       </c>
       <c r="N18" t="n">
-        <v>62.34657086126833</v>
+        <v>63.39777079981607</v>
       </c>
       <c r="O18" t="n">
-        <v>7.895984477015411</v>
+        <v>7.962271711001582</v>
       </c>
       <c r="P18" t="n">
-        <v>338.3091462547145</v>
+        <v>338.4346301651213</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34421,28 +34688,28 @@
         <v>0.0653</v>
       </c>
       <c r="I19" t="n">
-        <v>0.08196906803070611</v>
+        <v>0.06341379184935524</v>
       </c>
       <c r="J19" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K19" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005173521939713877</v>
+        <v>0.003111038340255834</v>
       </c>
       <c r="M19" t="n">
-        <v>6.250050623616231</v>
+        <v>6.273851713060237</v>
       </c>
       <c r="N19" t="n">
-        <v>68.19203912304982</v>
+        <v>68.89951733353799</v>
       </c>
       <c r="O19" t="n">
-        <v>8.257847123981518</v>
+        <v>8.300573313545154</v>
       </c>
       <c r="P19" t="n">
-        <v>331.8623731754412</v>
+        <v>332.040458040836</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34499,28 +34766,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>0.005661587504833697</v>
+        <v>-0.006081143995433464</v>
       </c>
       <c r="J20" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K20" t="n">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L20" t="n">
-        <v>2.818554068206858e-05</v>
+        <v>3.277063040252326e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>5.899476332413798</v>
+        <v>5.911321768258491</v>
       </c>
       <c r="N20" t="n">
-        <v>58.68438861036147</v>
+        <v>58.99463694830781</v>
       </c>
       <c r="O20" t="n">
-        <v>7.66057364760378</v>
+        <v>7.680796635005239</v>
       </c>
       <c r="P20" t="n">
-        <v>329.1881435086652</v>
+        <v>329.3012286018084</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34577,28 +34844,28 @@
         <v>0.07190000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0495506697579446</v>
+        <v>0.03591917599183559</v>
       </c>
       <c r="J21" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K21" t="n">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L21" t="n">
-        <v>0.002382732181258396</v>
+        <v>0.001257348390863999</v>
       </c>
       <c r="M21" t="n">
-        <v>5.659062057337893</v>
+        <v>5.671830547386969</v>
       </c>
       <c r="N21" t="n">
-        <v>53.59027858675387</v>
+        <v>54.08896787280714</v>
       </c>
       <c r="O21" t="n">
-        <v>7.320538135052222</v>
+        <v>7.35452023403343</v>
       </c>
       <c r="P21" t="n">
-        <v>329.3844458281384</v>
+        <v>329.5167670022086</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34655,28 +34922,28 @@
         <v>0.0636</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1204473833834496</v>
+        <v>0.1032537117338867</v>
       </c>
       <c r="J22" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K22" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01169765948460944</v>
+        <v>0.008633383620333612</v>
       </c>
       <c r="M22" t="n">
-        <v>6.193541877537425</v>
+        <v>6.226348033965158</v>
       </c>
       <c r="N22" t="n">
-        <v>64.49513402259012</v>
+        <v>65.2283295894868</v>
       </c>
       <c r="O22" t="n">
-        <v>8.030886253869502</v>
+        <v>8.076405734575673</v>
       </c>
       <c r="P22" t="n">
-        <v>329.244737415888</v>
+        <v>329.4102444652819</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34733,28 +35000,28 @@
         <v>0.0649</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02766109166726516</v>
+        <v>0.01559562684687906</v>
       </c>
       <c r="J23" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K23" t="n">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0005949778846234821</v>
+        <v>0.0001904275401209965</v>
       </c>
       <c r="M23" t="n">
-        <v>6.209199530956425</v>
+        <v>6.223931891539863</v>
       </c>
       <c r="N23" t="n">
-        <v>66.70083488242085</v>
+        <v>67.08935943393051</v>
       </c>
       <c r="O23" t="n">
-        <v>8.167057908599697</v>
+        <v>8.190809449250454</v>
       </c>
       <c r="P23" t="n">
-        <v>327.8362131327135</v>
+        <v>327.9539826441891</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -34811,28 +35078,28 @@
         <v>0.0515</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02889762392907047</v>
+        <v>0.01782004478344443</v>
       </c>
       <c r="J24" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K24" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0007183043957503799</v>
+        <v>0.0002763605449950246</v>
       </c>
       <c r="M24" t="n">
-        <v>5.968941384506714</v>
+        <v>5.970827974084838</v>
       </c>
       <c r="N24" t="n">
-        <v>59.53888482570349</v>
+        <v>59.6098640429537</v>
       </c>
       <c r="O24" t="n">
-        <v>7.716144427478239</v>
+        <v>7.720742454126656</v>
       </c>
       <c r="P24" t="n">
-        <v>328.558025371834</v>
+        <v>328.6667365989031</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -34870,7 +35137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y375"/>
+  <dimension ref="A1:Y378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79075,6 +79342,375 @@
         </is>
       </c>
     </row>
+    <row r="376">
+      <c r="A376" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:54:08+00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>-38.33349724369652,178.32536488739746</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>-38.33412456359343,178.32491174282416</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>-38.33475252701928,178.3244612866373</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>-38.33555804830815,178.32456740266463</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>-38.33641356109363,178.32454749395473</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>-38.337226683359305,178.3245304163228</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>-38.33792921553954,178.32459563401957</t>
+        </is>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>-38.338647342173196,178.3247095809054</t>
+        </is>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>-38.339392178127326,178.3246897767481</t>
+        </is>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>-38.340074318131116,178.324994903389</t>
+        </is>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>-38.34073897733405,178.32539766948943</t>
+        </is>
+      </c>
+      <c r="M376" t="inlineStr">
+        <is>
+          <t>-38.34141030435508,178.325748034274</t>
+        </is>
+      </c>
+      <c r="N376" t="inlineStr">
+        <is>
+          <t>-38.34212393245547,178.325825465416</t>
+        </is>
+      </c>
+      <c r="O376" t="inlineStr">
+        <is>
+          <t>-38.342818455158664,178.32600390648588</t>
+        </is>
+      </c>
+      <c r="P376" t="inlineStr">
+        <is>
+          <t>-38.34350834843906,178.326285873457</t>
+        </is>
+      </c>
+      <c r="Q376" t="inlineStr">
+        <is>
+          <t>-38.34418633309992,178.32659680288566</t>
+        </is>
+      </c>
+      <c r="R376" t="inlineStr">
+        <is>
+          <t>-38.34487837710831,178.32680246905807</t>
+        </is>
+      </c>
+      <c r="S376" t="inlineStr">
+        <is>
+          <t>-38.345552453361954,178.3270656362179</t>
+        </is>
+      </c>
+      <c r="T376" t="inlineStr">
+        <is>
+          <t>-38.346220998713235,178.3273410163819</t>
+        </is>
+      </c>
+      <c r="U376" t="inlineStr">
+        <is>
+          <t>-38.346891029858476,178.3276127966229</t>
+        </is>
+      </c>
+      <c r="V376" t="inlineStr">
+        <is>
+          <t>-38.34758074603395,178.32789477628202</t>
+        </is>
+      </c>
+      <c r="W376" t="inlineStr">
+        <is>
+          <t>-38.34825531751875,178.32825193483723</t>
+        </is>
+      </c>
+      <c r="X376" t="inlineStr">
+        <is>
+          <t>-38.34887364797641,178.32869957871554</t>
+        </is>
+      </c>
+      <c r="Y376" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:53:28+00:00</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr"/>
+      <c r="C377" t="inlineStr"/>
+      <c r="D377" t="inlineStr"/>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>-38.33556911980319,178.32462236629792</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>-38.336415993763815,178.32460985669448</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>-38.3372117639663,178.32471697235948</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>-38.33791505868915,178.3247726547116</t>
+        </is>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>-38.3386341486652,178.32483878894018</t>
+        </is>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>-38.339354005376194,178.32497313807568</t>
+        </is>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>-38.34003976092595,178.32523315737635</t>
+        </is>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>-38.340719590097166,178.32552055411358</t>
+        </is>
+      </c>
+      <c r="M377" t="inlineStr">
+        <is>
+          <t>-38.34139378143799,178.32583936982962</t>
+        </is>
+      </c>
+      <c r="N377" t="inlineStr">
+        <is>
+          <t>-38.342088863566445,178.3260087984484</t>
+        </is>
+      </c>
+      <c r="O377" t="inlineStr">
+        <is>
+          <t>-38.342782011350145,178.3261862482678</t>
+        </is>
+      </c>
+      <c r="P377" t="inlineStr">
+        <is>
+          <t>-38.343470901355296,178.32643362736027</t>
+        </is>
+      </c>
+      <c r="Q377" t="inlineStr">
+        <is>
+          <t>-38.34414248095335,178.32674303336043</t>
+        </is>
+      </c>
+      <c r="R377" t="inlineStr">
+        <is>
+          <t>-38.344799372385445,178.32706592070053</t>
+        </is>
+      </c>
+      <c r="S377" t="inlineStr">
+        <is>
+          <t>-38.34550716556594,178.32721744414673</t>
+        </is>
+      </c>
+      <c r="T377" t="inlineStr">
+        <is>
+          <t>-38.34618446186729,178.32746566620415</t>
+        </is>
+      </c>
+      <c r="U377" t="inlineStr">
+        <is>
+          <t>-38.34683879342749,178.32779324742623</t>
+        </is>
+      </c>
+      <c r="V377" t="inlineStr">
+        <is>
+          <t>-38.34751359815692,178.32809594619738</t>
+        </is>
+      </c>
+      <c r="W377" t="inlineStr">
+        <is>
+          <t>-38.34817514226193,178.32845450333082</t>
+        </is>
+      </c>
+      <c r="X377" t="inlineStr">
+        <is>
+          <t>-38.34881458949464,178.32884300218157</t>
+        </is>
+      </c>
+      <c r="Y377" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:53:56+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>-38.3335200453352,178.3254592556637</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>-38.334186563445655,178.32516833943995</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>-38.33482818233292,178.3247743982074</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>-38.33557867371806,178.32466979613412</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>-38.336418941505244,178.3246854247041</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>-38.337211990963254,178.32471413395774</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>-38.33791745579945,178.32474268090164</t>
+        </is>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>-38.338622056740576,178.32495720757666</t>
+        </is>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>-38.339348171054176,178.32501644654232</t>
+        </is>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>-38.340045281428075,178.325195096617</t>
+        </is>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>-38.34071558249485,178.32554595590761</t>
+        </is>
+      </c>
+      <c r="M378" t="inlineStr">
+        <is>
+          <t>-38.34139313753725,178.32584292918222</t>
+        </is>
+      </c>
+      <c r="N378" t="inlineStr">
+        <is>
+          <t>-38.342089777706185,178.32600401953238</t>
+        </is>
+      </c>
+      <c r="O378" t="inlineStr">
+        <is>
+          <t>-38.34278113433704,178.32619063626757</t>
+        </is>
+      </c>
+      <c r="P378" t="inlineStr">
+        <is>
+          <t>-38.343457602091206,178.32648610168292</t>
+        </is>
+      </c>
+      <c r="Q378" t="inlineStr">
+        <is>
+          <t>-38.344125016812434,178.32680126951257</t>
+        </is>
+      </c>
+      <c r="R378" t="inlineStr">
+        <is>
+          <t>-38.34479834883883,178.32706933383506</t>
+        </is>
+      </c>
+      <c r="S378" t="inlineStr">
+        <is>
+          <t>-38.345498037935386,178.32724804051662</t>
+        </is>
+      </c>
+      <c r="T378" t="inlineStr">
+        <is>
+          <t>-38.346164124084,178.32753505074166</t>
+        </is>
+      </c>
+      <c r="U378" t="inlineStr">
+        <is>
+          <t>-38.34684332577952,178.32777759045868</t>
+        </is>
+      </c>
+      <c r="V378" t="inlineStr">
+        <is>
+          <t>-38.34753244589565,178.32803947994844</t>
+        </is>
+      </c>
+      <c r="W378" t="inlineStr">
+        <is>
+          <t>-38.34819779964165,178.32839725797868</t>
+        </is>
+      </c>
+      <c r="X378" t="inlineStr">
+        <is>
+          <t>-38.34884553482624,178.3287678515531</t>
+        </is>
+      </c>
+      <c r="Y378" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0255/nzd0255.xlsx
+++ b/data/nzd0255/nzd0255.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y378"/>
+  <dimension ref="A1:Y379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29380,6 +29380,87 @@
         </is>
       </c>
     </row>
+    <row r="379">
+      <c r="A379" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:05+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>271.4166666666667</v>
+      </c>
+      <c r="C379" t="n">
+        <v>265.9766666666667</v>
+      </c>
+      <c r="D379" t="n">
+        <v>274.02</v>
+      </c>
+      <c r="E379" t="n">
+        <v>287.1642857142857</v>
+      </c>
+      <c r="F379" t="n">
+        <v>300.9342857142857</v>
+      </c>
+      <c r="G379" t="n">
+        <v>292.1542857142857</v>
+      </c>
+      <c r="H379" t="n">
+        <v>297.5842857142857</v>
+      </c>
+      <c r="I379" t="n">
+        <v>310.2666666666667</v>
+      </c>
+      <c r="J379" t="n">
+        <v>300.52</v>
+      </c>
+      <c r="K379" t="n">
+        <v>307.1811111111111</v>
+      </c>
+      <c r="L379" t="n">
+        <v>331.2642857142857</v>
+      </c>
+      <c r="M379" t="n">
+        <v>335.5542857142857</v>
+      </c>
+      <c r="N379" t="n">
+        <v>339.8645454545455</v>
+      </c>
+      <c r="O379" t="n">
+        <v>333.8033333333333</v>
+      </c>
+      <c r="P379" t="n">
+        <v>341.41</v>
+      </c>
+      <c r="Q379" t="n">
+        <v>345.13</v>
+      </c>
+      <c r="R379" t="n">
+        <v>346.66</v>
+      </c>
+      <c r="S379" t="n">
+        <v>343.2533333333333</v>
+      </c>
+      <c r="T379" t="n">
+        <v>337.6833333333333</v>
+      </c>
+      <c r="U379" t="n">
+        <v>340.9076923076923</v>
+      </c>
+      <c r="V379" t="n">
+        <v>344.5333333333333</v>
+      </c>
+      <c r="W379" t="n">
+        <v>338.7333333333333</v>
+      </c>
+      <c r="X379" t="n">
+        <v>332.87</v>
+      </c>
+      <c r="Y379" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29391,7 +29472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B379"/>
+  <dimension ref="A1:B380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33189,6 +33270,16 @@
       </c>
       <c r="B379" t="n">
         <v>0.28</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>0.41</v>
       </c>
     </row>
   </sheetData>
@@ -33362,28 +33453,28 @@
         <v>0.0307</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08524950343133367</v>
+        <v>0.09510374947219964</v>
       </c>
       <c r="J2" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K2" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002466324870525116</v>
+        <v>0.003075621171378384</v>
       </c>
       <c r="M2" t="n">
-        <v>9.762745193523607</v>
+        <v>9.776146543053231</v>
       </c>
       <c r="N2" t="n">
-        <v>153.796235450444</v>
+        <v>154.0507059948641</v>
       </c>
       <c r="O2" t="n">
-        <v>12.40146102080089</v>
+        <v>12.41171648060268</v>
       </c>
       <c r="P2" t="n">
-        <v>253.6297626442075</v>
+        <v>253.5330536124887</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33440,28 +33531,28 @@
         <v>0.0305</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1788382328296194</v>
+        <v>0.1899017026049686</v>
       </c>
       <c r="J3" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K3" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01026429495418335</v>
+        <v>0.01157716887359894</v>
       </c>
       <c r="M3" t="n">
-        <v>10.02622561833118</v>
+        <v>10.03742693239322</v>
       </c>
       <c r="N3" t="n">
-        <v>160.6460377710883</v>
+        <v>161.0554981927233</v>
       </c>
       <c r="O3" t="n">
-        <v>12.67462179992319</v>
+        <v>12.69076428717842</v>
       </c>
       <c r="P3" t="n">
-        <v>244.0210220097133</v>
+        <v>243.9112455684576</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33518,28 +33609,28 @@
         <v>0.0271</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3242544871572742</v>
+        <v>0.3407445813107142</v>
       </c>
       <c r="J4" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K4" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02784361295908377</v>
+        <v>0.03057457034460764</v>
       </c>
       <c r="M4" t="n">
-        <v>10.72527070973543</v>
+        <v>10.76377500430051</v>
       </c>
       <c r="N4" t="n">
-        <v>190.2851953561615</v>
+        <v>191.6507985778515</v>
       </c>
       <c r="O4" t="n">
-        <v>13.79438999579762</v>
+        <v>13.84380000497882</v>
       </c>
       <c r="P4" t="n">
-        <v>240.0515482615952</v>
+        <v>239.8883902409266</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33596,28 +33687,28 @@
         <v>0.0376</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3847243381508043</v>
+        <v>0.3946484367140564</v>
       </c>
       <c r="J5" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K5" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08116265227878205</v>
+        <v>0.08497181149890898</v>
       </c>
       <c r="M5" t="n">
-        <v>7.286074722258569</v>
+        <v>7.309882310330376</v>
       </c>
       <c r="N5" t="n">
-        <v>86.64431058859709</v>
+        <v>87.09905625429178</v>
       </c>
       <c r="O5" t="n">
-        <v>9.308292571067859</v>
+        <v>9.332687515088661</v>
       </c>
       <c r="P5" t="n">
-        <v>261.5615650061665</v>
+        <v>261.4636901127616</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33674,28 +33765,28 @@
         <v>0.0357</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3087455089569878</v>
+        <v>0.3168143956284537</v>
       </c>
       <c r="J6" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K6" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04491772622408863</v>
+        <v>0.04730013445337167</v>
       </c>
       <c r="M6" t="n">
-        <v>8.110173291812547</v>
+        <v>8.121462396040675</v>
       </c>
       <c r="N6" t="n">
-        <v>106.4170543508728</v>
+        <v>106.5917078046089</v>
       </c>
       <c r="O6" t="n">
-        <v>10.31586420765962</v>
+        <v>10.32432602180931</v>
       </c>
       <c r="P6" t="n">
-        <v>279.9865255522539</v>
+        <v>279.9076542008282</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33752,28 +33843,28 @@
         <v>0.0377</v>
       </c>
       <c r="I7" t="n">
-        <v>0.137196607582161</v>
+        <v>0.1415974179121103</v>
       </c>
       <c r="J7" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K7" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009523782132535352</v>
+        <v>0.01019655921024898</v>
       </c>
       <c r="M7" t="n">
-        <v>7.987039355734463</v>
+        <v>7.982408017160015</v>
       </c>
       <c r="N7" t="n">
-        <v>102.7386813825537</v>
+        <v>102.5835144773523</v>
       </c>
       <c r="O7" t="n">
-        <v>10.13600914475484</v>
+        <v>10.12835201191943</v>
       </c>
       <c r="P7" t="n">
-        <v>281.578425467457</v>
+        <v>281.5354950057554</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33830,28 +33921,28 @@
         <v>0.0367</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01827718110000312</v>
+        <v>0.02436275182948159</v>
       </c>
       <c r="J8" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K8" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001930891842636395</v>
+        <v>0.000344480814324033</v>
       </c>
       <c r="M8" t="n">
-        <v>7.570614376404966</v>
+        <v>7.575283447617246</v>
       </c>
       <c r="N8" t="n">
-        <v>92.1580900422984</v>
+        <v>92.15929286071983</v>
       </c>
       <c r="O8" t="n">
-        <v>9.59990052252097</v>
+        <v>9.599963169758508</v>
       </c>
       <c r="P8" t="n">
-        <v>287.4429953215141</v>
+        <v>287.3839825533615</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33908,28 +33999,28 @@
         <v>0.0322</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.09394527627487506</v>
+        <v>-0.08202030816047907</v>
       </c>
       <c r="J9" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K9" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004035346792944261</v>
+        <v>0.003073946216284318</v>
       </c>
       <c r="M9" t="n">
-        <v>8.653878762835145</v>
+        <v>8.682828311489065</v>
       </c>
       <c r="N9" t="n">
-        <v>115.4259205352254</v>
+        <v>116.1143312747056</v>
       </c>
       <c r="O9" t="n">
-        <v>10.74364558868289</v>
+        <v>10.7756360032578</v>
       </c>
       <c r="P9" t="n">
-        <v>293.9532138732396</v>
+        <v>293.837519131045</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33986,28 +34077,28 @@
         <v>0.054</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04574743314699953</v>
+        <v>-0.03848490696870185</v>
       </c>
       <c r="J10" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K10" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001587667991089892</v>
+        <v>0.001125994755401982</v>
       </c>
       <c r="M10" t="n">
-        <v>6.56365283999131</v>
+        <v>6.577621751029826</v>
       </c>
       <c r="N10" t="n">
-        <v>68.2859794374848</v>
+        <v>68.46405126163648</v>
       </c>
       <c r="O10" t="n">
-        <v>8.263533108633666</v>
+        <v>8.274300650909204</v>
       </c>
       <c r="P10" t="n">
-        <v>290.2911234154307</v>
+        <v>290.2193632314191</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34064,28 +34155,28 @@
         <v>0.0484</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.07945522455856686</v>
+        <v>-0.07222832494666041</v>
       </c>
       <c r="J11" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K11" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004522319183688173</v>
+        <v>0.00374672654947017</v>
       </c>
       <c r="M11" t="n">
-        <v>6.727491618001797</v>
+        <v>6.740878382403015</v>
       </c>
       <c r="N11" t="n">
-        <v>73.92284171059084</v>
+        <v>74.09567569668268</v>
       </c>
       <c r="O11" t="n">
-        <v>8.597839362920828</v>
+        <v>8.607884507629192</v>
       </c>
       <c r="P11" t="n">
-        <v>297.6674647367749</v>
+        <v>297.5969198292831</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34142,28 +34233,28 @@
         <v>0.0361</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1384455633213872</v>
+        <v>-0.129663079264359</v>
       </c>
       <c r="J12" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K12" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01381167824996943</v>
+        <v>0.012127143507349</v>
       </c>
       <c r="M12" t="n">
-        <v>6.804358900068562</v>
+        <v>6.827670962747982</v>
       </c>
       <c r="N12" t="n">
-        <v>71.94067640747468</v>
+        <v>72.29473899822084</v>
       </c>
       <c r="O12" t="n">
-        <v>8.481784977672724</v>
+        <v>8.502631298499356</v>
       </c>
       <c r="P12" t="n">
-        <v>320.9078338063961</v>
+        <v>320.8216215217235</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34220,28 +34311,28 @@
         <v>0.0407</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1783163524936917</v>
+        <v>-0.1755287442098143</v>
       </c>
       <c r="J13" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K13" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02213909986727314</v>
+        <v>0.02160166711578049</v>
       </c>
       <c r="M13" t="n">
-        <v>6.750547349108261</v>
+        <v>6.742446677056119</v>
       </c>
       <c r="N13" t="n">
-        <v>72.9922199796078</v>
+        <v>72.82877454854361</v>
       </c>
       <c r="O13" t="n">
-        <v>8.543548441930191</v>
+        <v>8.533977651045474</v>
       </c>
       <c r="P13" t="n">
-        <v>335.8015017158814</v>
+        <v>335.7736940054129</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34298,28 +34389,28 @@
         <v>0.0579</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2014218597585707</v>
+        <v>-0.1942341198869401</v>
       </c>
       <c r="J14" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K14" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03607734458399936</v>
+        <v>0.03365936918820789</v>
       </c>
       <c r="M14" t="n">
-        <v>5.817013596946292</v>
+        <v>5.834853471630661</v>
       </c>
       <c r="N14" t="n">
-        <v>55.91099411471811</v>
+        <v>56.10866273837773</v>
       </c>
       <c r="O14" t="n">
-        <v>7.477365452799408</v>
+        <v>7.490571589563625</v>
       </c>
       <c r="P14" t="n">
-        <v>333.9487955180797</v>
+        <v>333.8773691367948</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34376,28 +34467,28 @@
         <v>0.0636</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1774584681652799</v>
+        <v>-0.1743896814756491</v>
       </c>
       <c r="J15" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K15" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02652625746462511</v>
+        <v>0.02579297630901867</v>
       </c>
       <c r="M15" t="n">
-        <v>5.994773693813099</v>
+        <v>5.99140799769581</v>
       </c>
       <c r="N15" t="n">
-        <v>60.44365007879269</v>
+        <v>60.33557555528921</v>
       </c>
       <c r="O15" t="n">
-        <v>7.774551439073041</v>
+        <v>7.767597798244268</v>
       </c>
       <c r="P15" t="n">
-        <v>333.5188622365214</v>
+        <v>333.4888341931203</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34454,28 +34545,28 @@
         <v>0.0533</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.0009985996670166836</v>
+        <v>0.001928244676861055</v>
       </c>
       <c r="J16" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K16" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L16" t="n">
-        <v>8.812032411542603e-07</v>
+        <v>3.305438633027791e-06</v>
       </c>
       <c r="M16" t="n">
-        <v>6.034161509656943</v>
+        <v>6.031426786602734</v>
       </c>
       <c r="N16" t="n">
-        <v>59.45400171764451</v>
+        <v>59.34216296895703</v>
       </c>
       <c r="O16" t="n">
-        <v>7.710642107998821</v>
+        <v>7.703386461093396</v>
       </c>
       <c r="P16" t="n">
-        <v>336.7711907464557</v>
+        <v>336.7423417945562</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34532,28 +34623,28 @@
         <v>0.0561</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03844009992528041</v>
+        <v>0.04184042698196718</v>
       </c>
       <c r="J17" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K17" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001314982017673327</v>
+        <v>0.001566144200831898</v>
       </c>
       <c r="M17" t="n">
-        <v>5.851822126577614</v>
+        <v>5.851409930836539</v>
       </c>
       <c r="N17" t="n">
-        <v>57.9972983903266</v>
+        <v>57.9160817943</v>
       </c>
       <c r="O17" t="n">
-        <v>7.61559573443382</v>
+        <v>7.610261611423092</v>
       </c>
       <c r="P17" t="n">
-        <v>338.6591555952005</v>
+        <v>338.6253471809818</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34610,28 +34701,28 @@
         <v>0.0538</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04476197846055382</v>
+        <v>0.04911334499117009</v>
       </c>
       <c r="J18" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K18" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001638838453069891</v>
+        <v>0.001981606710179329</v>
       </c>
       <c r="M18" t="n">
-        <v>6.106642636734258</v>
+        <v>6.110639408543381</v>
       </c>
       <c r="N18" t="n">
-        <v>63.39777079981607</v>
+        <v>63.35811014310372</v>
       </c>
       <c r="O18" t="n">
-        <v>7.962271711001582</v>
+        <v>7.959780784864852</v>
       </c>
       <c r="P18" t="n">
-        <v>338.4346301651213</v>
+        <v>338.3915336145761</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34688,28 +34779,28 @@
         <v>0.0653</v>
       </c>
       <c r="I19" t="n">
-        <v>0.06341379184935524</v>
+        <v>0.06962477584450606</v>
       </c>
       <c r="J19" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K19" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L19" t="n">
-        <v>0.003111038340255834</v>
+        <v>0.003760620624199351</v>
       </c>
       <c r="M19" t="n">
-        <v>6.273851713060237</v>
+        <v>6.284995569268554</v>
       </c>
       <c r="N19" t="n">
-        <v>68.89951733353799</v>
+        <v>68.96643583713944</v>
       </c>
       <c r="O19" t="n">
-        <v>8.300573313545154</v>
+        <v>8.304603291978458</v>
       </c>
       <c r="P19" t="n">
-        <v>332.040458040836</v>
+        <v>331.9803608159254</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34766,28 +34857,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.006081143995433464</v>
+        <v>-0.0007344345086418808</v>
       </c>
       <c r="J20" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K20" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L20" t="n">
-        <v>3.277063040252326e-05</v>
+        <v>4.798046026044389e-07</v>
       </c>
       <c r="M20" t="n">
-        <v>5.911321768258491</v>
+        <v>5.919708923573025</v>
       </c>
       <c r="N20" t="n">
-        <v>58.99463694830781</v>
+        <v>59.03230556408704</v>
       </c>
       <c r="O20" t="n">
-        <v>7.680796635005239</v>
+        <v>7.683248373187413</v>
       </c>
       <c r="P20" t="n">
-        <v>329.3012286018084</v>
+        <v>329.2493196067357</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34844,28 +34935,28 @@
         <v>0.07190000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03591917599183559</v>
+        <v>0.04244608135384835</v>
       </c>
       <c r="J21" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K21" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001257348390863999</v>
+        <v>0.001757103150221706</v>
       </c>
       <c r="M21" t="n">
-        <v>5.671830547386969</v>
+        <v>5.686245302639352</v>
       </c>
       <c r="N21" t="n">
-        <v>54.08896787280714</v>
+        <v>54.24783829984706</v>
       </c>
       <c r="O21" t="n">
-        <v>7.35452023403343</v>
+        <v>7.365313184097949</v>
       </c>
       <c r="P21" t="n">
-        <v>329.5167670022086</v>
+        <v>329.4528909088225</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34922,28 +35013,28 @@
         <v>0.0636</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1032537117338867</v>
+        <v>0.1110650513459622</v>
       </c>
       <c r="J22" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K22" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L22" t="n">
-        <v>0.008633383620333612</v>
+        <v>0.009977768096692929</v>
       </c>
       <c r="M22" t="n">
-        <v>6.226348033965158</v>
+        <v>6.241517921393315</v>
       </c>
       <c r="N22" t="n">
-        <v>65.2283295894868</v>
+        <v>65.4893607869233</v>
       </c>
       <c r="O22" t="n">
-        <v>8.076405734575673</v>
+        <v>8.09254970864704</v>
       </c>
       <c r="P22" t="n">
-        <v>329.4102444652819</v>
+        <v>329.334446551581</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35000,28 +35091,28 @@
         <v>0.0649</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01559562684687906</v>
+        <v>0.02206561274983425</v>
       </c>
       <c r="J23" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K23" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0001904275401209965</v>
+        <v>0.0003820490058997761</v>
       </c>
       <c r="M23" t="n">
-        <v>6.223931891539863</v>
+        <v>6.23539695653026</v>
       </c>
       <c r="N23" t="n">
-        <v>67.08935943393051</v>
+        <v>67.20494103512641</v>
       </c>
       <c r="O23" t="n">
-        <v>8.190809449250454</v>
+        <v>8.197861979511877</v>
       </c>
       <c r="P23" t="n">
-        <v>327.9539826441891</v>
+        <v>327.8903103765761</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35078,28 +35169,28 @@
         <v>0.0515</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01782004478344443</v>
+        <v>0.02016570663479</v>
       </c>
       <c r="J24" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K24" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0002763605449950246</v>
+        <v>0.0003561570922544499</v>
       </c>
       <c r="M24" t="n">
-        <v>5.970827974084838</v>
+        <v>5.965303063234964</v>
       </c>
       <c r="N24" t="n">
-        <v>59.6098640429537</v>
+        <v>59.47730506269202</v>
       </c>
       <c r="O24" t="n">
-        <v>7.720742454126656</v>
+        <v>7.712153075678154</v>
       </c>
       <c r="P24" t="n">
-        <v>328.6667365989031</v>
+        <v>328.6435392015771</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -35137,7 +35228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y378"/>
+  <dimension ref="A1:Y379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79711,6 +79802,133 @@
         </is>
       </c>
     </row>
+    <row r="379">
+      <c r="A379" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:05+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>-38.3335525034824,178.32559358961575</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>-38.33420341647694,178.32523808898253</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>-38.33488986579873,178.32502968819892</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>-38.33561810129883,178.3248655331607</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>-38.33642273583185,178.32478269755316</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>-38.33720999857622,178.32473904701442</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>-38.33790826294411,178.32485762914962</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>-38.33861159418416,178.32505966851375</t>
+        </is>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>-38.33934244279559,178.3250589675737</t>
+        </is>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>-38.34003525515992,178.32526422203398</t>
+        </is>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>-38.34069689625359,178.32566439632294</t>
+        </is>
+      </c>
+      <c r="M379" t="inlineStr">
+        <is>
+          <t>-38.34138819904517,178.32587022814286</t>
+        </is>
+      </c>
+      <c r="N379" t="inlineStr">
+        <is>
+          <t>-38.34207188637612,178.32609755116047</t>
+        </is>
+      </c>
+      <c r="O379" t="inlineStr">
+        <is>
+          <t>-38.34277729463918,178.3262098475929</t>
+        </is>
+      </c>
+      <c r="P379" t="inlineStr">
+        <is>
+          <t>-38.343455894937705,178.32649283751573</t>
+        </is>
+      </c>
+      <c r="Q379" t="inlineStr">
+        <is>
+          <t>-38.344118587698816,178.32682270808823</t>
+        </is>
+      </c>
+      <c r="R379" t="inlineStr">
+        <is>
+          <t>-38.34478104448999,178.32712703712446</t>
+        </is>
+      </c>
+      <c r="S379" t="inlineStr">
+        <is>
+          <t>-38.345459075605035,178.32737864422762</t>
+        </is>
+      </c>
+      <c r="T379" t="inlineStr">
+        <is>
+          <t>-38.346143943028736,178.32760390041219</t>
+        </is>
+      </c>
+      <c r="U379" t="inlineStr">
+        <is>
+          <t>-38.34680316668668,178.3279163193561</t>
+        </is>
+      </c>
+      <c r="V379" t="inlineStr">
+        <is>
+          <t>-38.347467180231234,178.3282350099617</t>
+        </is>
+      </c>
+      <c r="W379" t="inlineStr">
+        <is>
+          <t>-38.34814207105257,178.3285380597202</t>
+        </is>
+      </c>
+      <c r="X379" t="inlineStr">
+        <is>
+          <t>-38.348805010177195,178.32886626548475</t>
+        </is>
+      </c>
+      <c r="Y379" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0255/nzd0255.xlsx
+++ b/data/nzd0255/nzd0255.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y379"/>
+  <dimension ref="A1:Y381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29461,6 +29461,168 @@
         </is>
       </c>
     </row>
+    <row r="380">
+      <c r="A380" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:08+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>262.4966666666667</v>
+      </c>
+      <c r="C380" t="n">
+        <v>254.5166666666667</v>
+      </c>
+      <c r="D380" t="n">
+        <v>268.75</v>
+      </c>
+      <c r="E380" t="n">
+        <v>278.4385714285714</v>
+      </c>
+      <c r="F380" t="n">
+        <v>297.4685714285715</v>
+      </c>
+      <c r="G380" t="n">
+        <v>293.2685714285714</v>
+      </c>
+      <c r="H380" t="n">
+        <v>289.8185714285714</v>
+      </c>
+      <c r="I380" t="n">
+        <v>298.5566666666667</v>
+      </c>
+      <c r="J380" t="n">
+        <v>293.04</v>
+      </c>
+      <c r="K380" t="n">
+        <v>300.6244444444445</v>
+      </c>
+      <c r="L380" t="n">
+        <v>319.9185714285715</v>
+      </c>
+      <c r="M380" t="n">
+        <v>333.0885714285715</v>
+      </c>
+      <c r="N380" t="n">
+        <v>323.7154545454546</v>
+      </c>
+      <c r="O380" t="n">
+        <v>322.6633333333333</v>
+      </c>
+      <c r="P380" t="n">
+        <v>334.24</v>
+      </c>
+      <c r="Q380" t="n">
+        <v>341.9</v>
+      </c>
+      <c r="R380" t="n">
+        <v>338.65</v>
+      </c>
+      <c r="S380" t="n">
+        <v>338.8833333333333</v>
+      </c>
+      <c r="T380" t="n">
+        <v>337.2933333333333</v>
+      </c>
+      <c r="U380" t="n">
+        <v>338.9107692307692</v>
+      </c>
+      <c r="V380" t="n">
+        <v>341.9333333333333</v>
+      </c>
+      <c r="W380" t="n">
+        <v>335.7233333333333</v>
+      </c>
+      <c r="X380" t="n">
+        <v>332.92</v>
+      </c>
+      <c r="Y380" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:09+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>250.28</v>
+      </c>
+      <c r="C381" t="n">
+        <v>240.19</v>
+      </c>
+      <c r="D381" t="n">
+        <v>243.57</v>
+      </c>
+      <c r="E381" t="n">
+        <v>268.3628571428572</v>
+      </c>
+      <c r="F381" t="n">
+        <v>291.0828571428572</v>
+      </c>
+      <c r="G381" t="n">
+        <v>290.3528571428571</v>
+      </c>
+      <c r="H381" t="n">
+        <v>285.9628571428572</v>
+      </c>
+      <c r="I381" t="n">
+        <v>285.44</v>
+      </c>
+      <c r="J381" t="n">
+        <v>287.42</v>
+      </c>
+      <c r="K381" t="n">
+        <v>296.38</v>
+      </c>
+      <c r="L381" t="n">
+        <v>315.4528571428572</v>
+      </c>
+      <c r="M381" t="n">
+        <v>325.4328571428572</v>
+      </c>
+      <c r="N381" t="n">
+        <v>325.5181818181818</v>
+      </c>
+      <c r="O381" t="n">
+        <v>322.73</v>
+      </c>
+      <c r="P381" t="n">
+        <v>336.34</v>
+      </c>
+      <c r="Q381" t="n">
+        <v>336.75</v>
+      </c>
+      <c r="R381" t="n">
+        <v>337.99</v>
+      </c>
+      <c r="S381" t="n">
+        <v>338.76</v>
+      </c>
+      <c r="T381" t="n">
+        <v>326.17</v>
+      </c>
+      <c r="U381" t="n">
+        <v>333.7469230769231</v>
+      </c>
+      <c r="V381" t="n">
+        <v>335.79</v>
+      </c>
+      <c r="W381" t="n">
+        <v>335.23</v>
+      </c>
+      <c r="X381" t="n">
+        <v>335.05</v>
+      </c>
+      <c r="Y381" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29472,7 +29634,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B380"/>
+  <dimension ref="A1:B382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33280,6 +33442,26 @@
       </c>
       <c r="B380" t="n">
         <v>0.41</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>-0.45</v>
       </c>
     </row>
   </sheetData>
@@ -33453,28 +33635,28 @@
         <v>0.0307</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09510374947219964</v>
+        <v>0.09559233385070913</v>
       </c>
       <c r="J2" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K2" t="n">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003075621171378384</v>
+        <v>0.003147249959299603</v>
       </c>
       <c r="M2" t="n">
-        <v>9.776146543053231</v>
+        <v>9.754636036421449</v>
       </c>
       <c r="N2" t="n">
-        <v>154.0507059948641</v>
+        <v>153.3709936417612</v>
       </c>
       <c r="O2" t="n">
-        <v>12.41171648060268</v>
+        <v>12.38430432611219</v>
       </c>
       <c r="P2" t="n">
-        <v>253.5330536124887</v>
+        <v>253.5282822458455</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33531,28 +33713,28 @@
         <v>0.0305</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1899017026049686</v>
+        <v>0.1880537216658027</v>
       </c>
       <c r="J3" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K3" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01157716887359894</v>
+        <v>0.0114936434956453</v>
       </c>
       <c r="M3" t="n">
-        <v>10.03742693239322</v>
+        <v>10.02209648429624</v>
       </c>
       <c r="N3" t="n">
-        <v>161.0554981927233</v>
+        <v>160.4168488403103</v>
       </c>
       <c r="O3" t="n">
-        <v>12.69076428717842</v>
+        <v>12.66557731966097</v>
       </c>
       <c r="P3" t="n">
-        <v>243.9112455684576</v>
+        <v>243.9296658919574</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33609,28 +33791,28 @@
         <v>0.0271</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3407445813107142</v>
+        <v>0.3501990633121242</v>
       </c>
       <c r="J4" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K4" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03057457034460764</v>
+        <v>0.03248524518411411</v>
       </c>
       <c r="M4" t="n">
-        <v>10.76377500430051</v>
+        <v>10.77201775710154</v>
       </c>
       <c r="N4" t="n">
-        <v>191.6507985778515</v>
+        <v>191.7786648731297</v>
       </c>
       <c r="O4" t="n">
-        <v>13.84380000497882</v>
+        <v>13.84841741402712</v>
       </c>
       <c r="P4" t="n">
-        <v>239.8883902409266</v>
+        <v>239.7947058292103</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33687,28 +33869,28 @@
         <v>0.0376</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3946484367140564</v>
+        <v>0.3968128121352807</v>
       </c>
       <c r="J5" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K5" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08497181149890898</v>
+        <v>0.08680488188924773</v>
       </c>
       <c r="M5" t="n">
-        <v>7.309882310330376</v>
+        <v>7.296697028802012</v>
       </c>
       <c r="N5" t="n">
-        <v>87.09905625429178</v>
+        <v>86.76071277008799</v>
       </c>
       <c r="O5" t="n">
-        <v>9.332687515088661</v>
+        <v>9.314543078975371</v>
       </c>
       <c r="P5" t="n">
-        <v>261.4636901127616</v>
+        <v>261.442324733204</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33765,28 +33947,28 @@
         <v>0.0357</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3168143956284537</v>
+        <v>0.3243787704673777</v>
       </c>
       <c r="J6" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K6" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04730013445337167</v>
+        <v>0.05001638318937296</v>
       </c>
       <c r="M6" t="n">
-        <v>8.121462396040675</v>
+        <v>8.107741433349929</v>
       </c>
       <c r="N6" t="n">
-        <v>106.5917078046089</v>
+        <v>106.2542224692464</v>
       </c>
       <c r="O6" t="n">
-        <v>10.32432602180931</v>
+        <v>10.30796888185284</v>
       </c>
       <c r="P6" t="n">
-        <v>279.9076542008282</v>
+        <v>279.833563751343</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33843,28 +34025,28 @@
         <v>0.0377</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1415974179121103</v>
+        <v>0.1497451562499844</v>
       </c>
       <c r="J7" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K7" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01019655921024898</v>
+        <v>0.01152223487185278</v>
       </c>
       <c r="M7" t="n">
-        <v>7.982408017160015</v>
+        <v>7.97108340793824</v>
       </c>
       <c r="N7" t="n">
-        <v>102.5835144773523</v>
+        <v>102.2528665872006</v>
       </c>
       <c r="O7" t="n">
-        <v>10.12835201191943</v>
+        <v>10.11201595069948</v>
       </c>
       <c r="P7" t="n">
-        <v>281.5354950057554</v>
+        <v>281.4558408289311</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33921,28 +34103,28 @@
         <v>0.0367</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02436275182948159</v>
+        <v>0.02420841576778729</v>
       </c>
       <c r="J8" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K8" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000344480814324033</v>
+        <v>0.0003449376501143409</v>
       </c>
       <c r="M8" t="n">
-        <v>7.575283447617246</v>
+        <v>7.542102978245117</v>
       </c>
       <c r="N8" t="n">
-        <v>92.15929286071983</v>
+        <v>91.63913467634183</v>
       </c>
       <c r="O8" t="n">
-        <v>9.599963169758508</v>
+        <v>9.572833158284011</v>
       </c>
       <c r="P8" t="n">
-        <v>287.3839825533615</v>
+        <v>287.3854935749845</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33999,28 +34181,28 @@
         <v>0.0322</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.08202030816047907</v>
+        <v>-0.08167758989008687</v>
       </c>
       <c r="J9" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K9" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003073946216284318</v>
+        <v>0.003085940203568227</v>
       </c>
       <c r="M9" t="n">
-        <v>8.682828311489065</v>
+        <v>8.670261288651968</v>
       </c>
       <c r="N9" t="n">
-        <v>116.1143312747056</v>
+        <v>115.6834307260227</v>
       </c>
       <c r="O9" t="n">
-        <v>10.7756360032578</v>
+        <v>10.75562321420859</v>
       </c>
       <c r="P9" t="n">
-        <v>293.837519131045</v>
+        <v>293.8342236439537</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34077,28 +34259,28 @@
         <v>0.054</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.03848490696870185</v>
+        <v>-0.03722839116765245</v>
       </c>
       <c r="J10" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K10" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001125994755401982</v>
+        <v>0.001068103933734577</v>
       </c>
       <c r="M10" t="n">
-        <v>6.577621751029826</v>
+        <v>6.555587457698347</v>
       </c>
       <c r="N10" t="n">
-        <v>68.46405126163648</v>
+        <v>68.11562641258834</v>
       </c>
       <c r="O10" t="n">
-        <v>8.274300650909204</v>
+        <v>8.253219154523181</v>
       </c>
       <c r="P10" t="n">
-        <v>290.2193632314191</v>
+        <v>290.2069356657483</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34155,28 +34337,28 @@
         <v>0.0484</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.07222832494666041</v>
+        <v>-0.06881843920347544</v>
       </c>
       <c r="J11" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K11" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00374672654947017</v>
+        <v>0.003447203813046085</v>
       </c>
       <c r="M11" t="n">
-        <v>6.740878382403015</v>
+        <v>6.716775911150104</v>
       </c>
       <c r="N11" t="n">
-        <v>74.09567569668268</v>
+        <v>73.73057649861903</v>
       </c>
       <c r="O11" t="n">
-        <v>8.607884507629192</v>
+        <v>8.586651064217005</v>
       </c>
       <c r="P11" t="n">
-        <v>297.5969198292831</v>
+        <v>297.5635686391095</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34233,28 +34415,28 @@
         <v>0.0361</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.129663079264359</v>
+        <v>-0.1294001026352263</v>
       </c>
       <c r="J12" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K12" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L12" t="n">
-        <v>0.012127143507349</v>
+        <v>0.01224412203761582</v>
       </c>
       <c r="M12" t="n">
-        <v>6.827670962747982</v>
+        <v>6.800782251119457</v>
       </c>
       <c r="N12" t="n">
-        <v>72.29473899822084</v>
+        <v>71.90019008941168</v>
       </c>
       <c r="O12" t="n">
-        <v>8.502631298499356</v>
+        <v>8.479397979185295</v>
       </c>
       <c r="P12" t="n">
-        <v>320.8216215217235</v>
+        <v>320.8190468146513</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34311,28 +34493,28 @@
         <v>0.0407</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1755287442098143</v>
+        <v>-0.1780307631509185</v>
       </c>
       <c r="J13" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K13" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02160166711578049</v>
+        <v>0.02248467910813057</v>
       </c>
       <c r="M13" t="n">
-        <v>6.742446677056119</v>
+        <v>6.725758838801757</v>
       </c>
       <c r="N13" t="n">
-        <v>72.82877454854361</v>
+        <v>72.50329106180227</v>
       </c>
       <c r="O13" t="n">
-        <v>8.533977651045474</v>
+        <v>8.514886438573463</v>
       </c>
       <c r="P13" t="n">
-        <v>335.7736940054129</v>
+        <v>335.7987331488771</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34389,28 +34571,28 @@
         <v>0.0579</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1942341198869401</v>
+        <v>-0.1996386465444677</v>
       </c>
       <c r="J14" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K14" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03365936918820789</v>
+        <v>0.03592223170540398</v>
       </c>
       <c r="M14" t="n">
-        <v>5.834853471630661</v>
+        <v>5.823368165518511</v>
       </c>
       <c r="N14" t="n">
-        <v>56.10866273837773</v>
+        <v>55.88518281171948</v>
       </c>
       <c r="O14" t="n">
-        <v>7.490571589563625</v>
+        <v>7.475639291172326</v>
       </c>
       <c r="P14" t="n">
-        <v>333.8773691367948</v>
+        <v>333.9311910348662</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34467,28 +34649,28 @@
         <v>0.0636</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1743896814756491</v>
+        <v>-0.1822095638930388</v>
       </c>
       <c r="J15" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K15" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02579297630901867</v>
+        <v>0.02838206203550542</v>
       </c>
       <c r="M15" t="n">
-        <v>5.99140799769581</v>
+        <v>5.992823479839721</v>
       </c>
       <c r="N15" t="n">
-        <v>60.33557555528921</v>
+        <v>60.21037616309582</v>
       </c>
       <c r="O15" t="n">
-        <v>7.767597798244268</v>
+        <v>7.759534532631182</v>
       </c>
       <c r="P15" t="n">
-        <v>333.4888341931203</v>
+        <v>333.5655243577366</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34545,28 +34727,28 @@
         <v>0.0533</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001928244676861055</v>
+        <v>7.257363842364591e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K16" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L16" t="n">
-        <v>3.305438633027791e-06</v>
+        <v>4.746980919456689e-09</v>
       </c>
       <c r="M16" t="n">
-        <v>6.031426786602734</v>
+        <v>6.003866623604107</v>
       </c>
       <c r="N16" t="n">
-        <v>59.34216296895703</v>
+        <v>59.01355479076959</v>
       </c>
       <c r="O16" t="n">
-        <v>7.703386461093396</v>
+        <v>7.682028038921076</v>
       </c>
       <c r="P16" t="n">
-        <v>336.7423417945562</v>
+        <v>336.7606688859757</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34623,28 +34805,28 @@
         <v>0.0561</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04184042698196718</v>
+        <v>0.04137109899697908</v>
       </c>
       <c r="J17" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K17" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001566144200831898</v>
+        <v>0.001551565586786929</v>
       </c>
       <c r="M17" t="n">
-        <v>5.851409930836539</v>
+        <v>5.832601064080686</v>
       </c>
       <c r="N17" t="n">
-        <v>57.9160817943</v>
+        <v>57.62384991428726</v>
       </c>
       <c r="O17" t="n">
-        <v>7.610261611423092</v>
+        <v>7.591037472854897</v>
       </c>
       <c r="P17" t="n">
-        <v>338.6253471809818</v>
+        <v>338.6300385294881</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34701,28 +34883,28 @@
         <v>0.0538</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04911334499117009</v>
+        <v>0.04748734258072149</v>
       </c>
       <c r="J18" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K18" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001981606710179329</v>
+        <v>0.001878158142059716</v>
       </c>
       <c r="M18" t="n">
-        <v>6.110639408543381</v>
+        <v>6.082917605700086</v>
       </c>
       <c r="N18" t="n">
-        <v>63.35811014310372</v>
+        <v>63.00875217905914</v>
       </c>
       <c r="O18" t="n">
-        <v>7.959780784864852</v>
+        <v>7.937805249504371</v>
       </c>
       <c r="P18" t="n">
-        <v>338.3915336145761</v>
+        <v>338.4076762316196</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34779,28 +34961,28 @@
         <v>0.0653</v>
       </c>
       <c r="I19" t="n">
-        <v>0.06962477584450606</v>
+        <v>0.07606062827930259</v>
       </c>
       <c r="J19" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K19" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L19" t="n">
-        <v>0.003760620624199351</v>
+        <v>0.004540905151860342</v>
       </c>
       <c r="M19" t="n">
-        <v>6.284995569268554</v>
+        <v>6.278748340108532</v>
       </c>
       <c r="N19" t="n">
-        <v>68.96643583713944</v>
+        <v>68.69860336967423</v>
       </c>
       <c r="O19" t="n">
-        <v>8.304603291978458</v>
+        <v>8.288462062993004</v>
       </c>
       <c r="P19" t="n">
-        <v>331.9803608159254</v>
+        <v>331.9179428950742</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34857,28 +35039,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.0007344345086418808</v>
+        <v>0.002343885114665039</v>
       </c>
       <c r="J20" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K20" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L20" t="n">
-        <v>4.798046026044389e-07</v>
+        <v>4.939822387917125e-06</v>
       </c>
       <c r="M20" t="n">
-        <v>5.919708923573025</v>
+        <v>5.918200835055971</v>
       </c>
       <c r="N20" t="n">
-        <v>59.03230556408704</v>
+        <v>58.9074899883443</v>
       </c>
       <c r="O20" t="n">
-        <v>7.683248373187413</v>
+        <v>7.67512149665035</v>
       </c>
       <c r="P20" t="n">
-        <v>329.2493196067357</v>
+        <v>329.2193970554827</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34935,28 +35117,28 @@
         <v>0.07190000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>0.04244608135384835</v>
+        <v>0.04954440191894038</v>
       </c>
       <c r="J21" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K21" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001757103150221706</v>
+        <v>0.002415949410781271</v>
       </c>
       <c r="M21" t="n">
-        <v>5.686245302639352</v>
+        <v>5.687035635382714</v>
       </c>
       <c r="N21" t="n">
-        <v>54.24783829984706</v>
+        <v>54.16158779990142</v>
       </c>
       <c r="O21" t="n">
-        <v>7.365313184097949</v>
+        <v>7.359455672799546</v>
       </c>
       <c r="P21" t="n">
-        <v>329.4528909088225</v>
+        <v>329.3832767617346</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35013,28 +35195,28 @@
         <v>0.0636</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1110650513459622</v>
+        <v>0.1192818279050921</v>
       </c>
       <c r="J22" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K22" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L22" t="n">
-        <v>0.009977768096692929</v>
+        <v>0.01159900925217294</v>
       </c>
       <c r="M22" t="n">
-        <v>6.241517921393315</v>
+        <v>6.239936074553809</v>
       </c>
       <c r="N22" t="n">
-        <v>65.4893607869233</v>
+        <v>65.41546140307372</v>
       </c>
       <c r="O22" t="n">
-        <v>8.09254970864704</v>
+        <v>8.087982529844741</v>
       </c>
       <c r="P22" t="n">
-        <v>329.334446551581</v>
+        <v>329.2545465081939</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35091,28 +35273,28 @@
         <v>0.0649</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02206561274983425</v>
+        <v>0.03068440576675046</v>
       </c>
       <c r="J23" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K23" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0003820490058997761</v>
+        <v>0.0007457869029658948</v>
       </c>
       <c r="M23" t="n">
-        <v>6.23539695653026</v>
+        <v>6.238744892107133</v>
       </c>
       <c r="N23" t="n">
-        <v>67.20494103512641</v>
+        <v>67.09516666882118</v>
       </c>
       <c r="O23" t="n">
-        <v>8.197861979511877</v>
+        <v>8.191163938587799</v>
       </c>
       <c r="P23" t="n">
-        <v>327.8903103765761</v>
+        <v>327.8052969110746</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35169,28 +35351,28 @@
         <v>0.0515</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02016570663479</v>
+        <v>0.02611745496098841</v>
       </c>
       <c r="J24" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K24" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0003561570922544499</v>
+        <v>0.0006043216266751195</v>
       </c>
       <c r="M24" t="n">
-        <v>5.965303063234964</v>
+        <v>5.96065480480058</v>
       </c>
       <c r="N24" t="n">
-        <v>59.47730506269202</v>
+        <v>59.27232948137211</v>
       </c>
       <c r="O24" t="n">
-        <v>7.712153075678154</v>
+        <v>7.698852478218563</v>
       </c>
       <c r="P24" t="n">
-        <v>328.6435392015771</v>
+        <v>328.5845402714051</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -35228,7 +35410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y379"/>
+  <dimension ref="A1:Y381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36182,7 +36364,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-38.34280854276445,178.32605350199688</t>
+          <t>-38.34280854276446,178.32605350199688</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -41491,7 +41673,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>-38.34548099259597,178.32730517743573</t>
+          <t>-38.34548099259596,178.32730517743573</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
@@ -43977,7 +44159,7 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>-38.34746547317109,178.32824012414176</t>
+          <t>-38.3474654731711,178.32824012414176</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
@@ -47686,7 +47868,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>-38.34004286485325,178.32521175755315</t>
+          <t>-38.34004286485326,178.32521175755315</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -48813,7 +48995,7 @@
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
         <is>
-          <t>-38.334710402177365,178.3242869481058</t>
+          <t>-38.33471040217736,178.3242869481058</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -52967,7 +53149,7 @@
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>-38.3447968455046,178.3270743468762</t>
+          <t>-38.34479684550459,178.3270743468762</t>
         </is>
       </c>
       <c r="S150" t="inlineStr">
@@ -63366,7 +63548,7 @@
       <c r="B240" t="inlineStr"/>
       <c r="C240" t="inlineStr">
         <is>
-          <t>-38.334151811617836,178.32502451291703</t>
+          <t>-38.33415181161784,178.32502451291703</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -79929,6 +80111,260 @@
         </is>
       </c>
     </row>
+    <row r="380">
+      <c r="A380" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:08+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>-38.333528990233454,178.32549627567582</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>-38.33417320751883,178.32511306349286</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>-38.33487597389022,178.32497219336886</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>-38.33559866910885,178.32476906240842</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>-38.33642119499198,178.32474319572316</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>-38.33720898681518,178.32475169817525</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>-38.337915314225626,178.3247694594517</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>-38.338625126921784,178.32492714079189</t>
+        </is>
+      </c>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>-38.33935377806525,178.32497482541874</t>
+        </is>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>-38.34004592898292,178.32519063208446</t>
+        </is>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>-38.34071692676986,178.32553743535658</t>
+        </is>
+      </c>
+      <c r="M380" t="inlineStr">
+        <is>
+          <t>-38.34139316053371,178.32584280206248</t>
+        </is>
+      </c>
+      <c r="N380" t="inlineStr">
+        <is>
+          <t>-38.342106145404344,178.32591845271438</t>
+        </is>
+      </c>
+      <c r="O380" t="inlineStr">
+        <is>
+          <t>-38.34280192466403,178.32608661482735</t>
+        </is>
+      </c>
+      <c r="P380" t="inlineStr">
+        <is>
+          <t>-38.343475637319735,178.32641494084675</t>
+        </is>
+      </c>
+      <c r="Q380" t="inlineStr">
+        <is>
+          <t>-38.34412891905873,178.32678825704173</t>
+        </is>
+      </c>
+      <c r="R380" t="inlineStr">
+        <is>
+          <t>-38.34480666515229,178.32704160211398</t>
+        </is>
+      </c>
+      <c r="S380" t="inlineStr">
+        <is>
+          <t>-38.34547298998055,178.32733200260418</t>
+        </is>
+      </c>
+      <c r="T380" t="inlineStr">
+        <is>
+          <t>-38.346145165807364,178.32759972878654</t>
+        </is>
+      </c>
+      <c r="U380" t="inlineStr">
+        <is>
+          <t>-38.346809359331424,178.3278949270169</t>
+        </is>
+      </c>
+      <c r="V380" t="inlineStr">
+        <is>
+          <t>-38.347476300138034,178.32820768762537</t>
+        </is>
+      </c>
+      <c r="W380" t="inlineStr">
+        <is>
+          <t>-38.34815422049016,178.32850736346455</t>
+        </is>
+      </c>
+      <c r="X380" t="inlineStr">
+        <is>
+          <t>-38.34880480193112,178.32886677120862</t>
+        </is>
+      </c>
+      <c r="Y380" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:09+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>-38.333496786784245,178.3253629963961</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>-38.33413544172858,178.32495676357476</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>-38.33480959809604,178.3246974839888</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>-38.33557623036113,178.324657666225</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>-38.33641835589883,178.32467041205487</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>-38.337211634253734,178.3247185943033</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>-38.33791881519631,178.32472568276572</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>-38.338640285108355,178.32477869306504</t>
+        </is>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>-38.339362294632906,178.32491160629107</t>
+        </is>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>-38.34005283863598,178.3251429937703</t>
+        </is>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>-38.34072481081717,178.3254874630363</t>
+        </is>
+      </c>
+      <c r="M381" t="inlineStr">
+        <is>
+          <t>-38.341408565255186,178.32575764770903</t>
+        </is>
+      </c>
+      <c r="N381" t="inlineStr">
+        <is>
+          <t>-38.342102321073035,178.325938445531</t>
+        </is>
+      </c>
+      <c r="O381" t="inlineStr">
+        <is>
+          <t>-38.342801777267475,178.32608735230679</t>
+        </is>
+      </c>
+      <c r="P381" t="inlineStr">
+        <is>
+          <t>-38.343469855037185,178.3264377557757</t>
+        </is>
+      </c>
+      <c r="Q381" t="inlineStr">
+        <is>
+          <t>-38.34414539164086,178.32673332733205</t>
+        </is>
+      </c>
+      <c r="R381" t="inlineStr">
+        <is>
+          <t>-38.34480877621551,178.32703456252213</t>
+        </is>
+      </c>
+      <c r="S381" t="inlineStr">
+        <is>
+          <t>-38.345473382681966,178.32733068624992</t>
+        </is>
+      </c>
+      <c r="T381" t="inlineStr">
+        <is>
+          <t>-38.34618004106771,178.32748074825273</t>
+        </is>
+      </c>
+      <c r="U381" t="inlineStr">
+        <is>
+          <t>-38.346825372883046,178.32783960851847</t>
+        </is>
+      </c>
+      <c r="V381" t="inlineStr">
+        <is>
+          <t>-38.34749784881743,178.3281431298188</t>
+        </is>
+      </c>
+      <c r="W381" t="inlineStr">
+        <is>
+          <t>-38.34815621175941,178.328502332405</t>
+        </is>
+      </c>
+      <c r="X381" t="inlineStr">
+        <is>
+          <t>-38.34879593064634,178.32888831504428</t>
+        </is>
+      </c>
+      <c r="Y381" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0255/nzd0255.xlsx
+++ b/data/nzd0255/nzd0255.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y381"/>
+  <dimension ref="A1:Y382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29623,6 +29623,71 @@
         </is>
       </c>
     </row>
+    <row r="382">
+      <c r="A382" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-25 21:53:45+00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>255.5133333333333</v>
+      </c>
+      <c r="C382" t="n">
+        <v>247.6633333333333</v>
+      </c>
+      <c r="D382" t="n">
+        <v>245.61</v>
+      </c>
+      <c r="E382" t="n">
+        <v>275.2971428571428</v>
+      </c>
+      <c r="F382" t="n">
+        <v>293.8971428571429</v>
+      </c>
+      <c r="G382" t="n">
+        <v>288.3571428571428</v>
+      </c>
+      <c r="H382" t="n">
+        <v>291.1171428571428</v>
+      </c>
+      <c r="I382" t="n">
+        <v>288.2733333333333</v>
+      </c>
+      <c r="J382" t="n">
+        <v>283.79</v>
+      </c>
+      <c r="K382" t="n">
+        <v>273.9888888888889</v>
+      </c>
+      <c r="L382" t="n">
+        <v>310.5271428571428</v>
+      </c>
+      <c r="M382" t="n">
+        <v>325.0771428571429</v>
+      </c>
+      <c r="N382" t="n">
+        <v>326.4718181818182</v>
+      </c>
+      <c r="O382" t="n">
+        <v>321.1366666666667</v>
+      </c>
+      <c r="P382" t="n">
+        <v>329.14</v>
+      </c>
+      <c r="Q382" t="inlineStr"/>
+      <c r="R382" t="inlineStr"/>
+      <c r="S382" t="inlineStr"/>
+      <c r="T382" t="inlineStr"/>
+      <c r="U382" t="inlineStr"/>
+      <c r="V382" t="inlineStr"/>
+      <c r="W382" t="inlineStr"/>
+      <c r="X382" t="inlineStr"/>
+      <c r="Y382" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29634,7 +29699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B382"/>
+  <dimension ref="A1:B383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33462,6 +33527,16 @@
       </c>
       <c r="B382" t="n">
         <v>-0.45</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2025-06-25 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>-0.32</v>
       </c>
     </row>
   </sheetData>
@@ -33635,28 +33710,28 @@
         <v>0.0307</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09559233385070913</v>
+        <v>0.09528901871866143</v>
       </c>
       <c r="J2" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K2" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003147249959299603</v>
+        <v>0.003149464978801086</v>
       </c>
       <c r="M2" t="n">
-        <v>9.754636036421449</v>
+        <v>9.727769592470015</v>
       </c>
       <c r="N2" t="n">
-        <v>153.3709936417612</v>
+        <v>152.9258380608718</v>
       </c>
       <c r="O2" t="n">
-        <v>12.38430432611219</v>
+        <v>12.36631869478026</v>
       </c>
       <c r="P2" t="n">
-        <v>253.5282822458455</v>
+        <v>253.5312725753179</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33713,28 +33788,28 @@
         <v>0.0305</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1880537216658027</v>
+        <v>0.187344460118998</v>
       </c>
       <c r="J3" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K3" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0114936434956453</v>
+        <v>0.01148746261654288</v>
       </c>
       <c r="M3" t="n">
-        <v>10.02209648429624</v>
+        <v>9.996425473558398</v>
       </c>
       <c r="N3" t="n">
-        <v>160.4168488403103</v>
+        <v>159.9460153572801</v>
       </c>
       <c r="O3" t="n">
-        <v>12.66557731966097</v>
+        <v>12.64697653027316</v>
       </c>
       <c r="P3" t="n">
-        <v>243.9296658919574</v>
+        <v>243.9367360191159</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33791,28 +33866,28 @@
         <v>0.0271</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3501990633121242</v>
+        <v>0.3481487597013423</v>
       </c>
       <c r="J4" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K4" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03248524518411411</v>
+        <v>0.03233629838971508</v>
       </c>
       <c r="M4" t="n">
-        <v>10.77201775710154</v>
+        <v>10.75029419590639</v>
       </c>
       <c r="N4" t="n">
-        <v>191.7786648731297</v>
+        <v>191.2438104414699</v>
       </c>
       <c r="O4" t="n">
-        <v>13.84841741402712</v>
+        <v>13.82909290016775</v>
       </c>
       <c r="P4" t="n">
-        <v>239.7947058292103</v>
+        <v>239.8150843474864</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33869,28 +33944,28 @@
         <v>0.0376</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3968128121352807</v>
+        <v>0.3990332856513927</v>
       </c>
       <c r="J5" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K5" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08680488188924773</v>
+        <v>0.08822780097348504</v>
       </c>
       <c r="M5" t="n">
-        <v>7.296697028802012</v>
+        <v>7.285806862267098</v>
       </c>
       <c r="N5" t="n">
-        <v>86.76071277008799</v>
+        <v>86.54789852801592</v>
       </c>
       <c r="O5" t="n">
-        <v>9.314543078975371</v>
+        <v>9.30311230331097</v>
       </c>
       <c r="P5" t="n">
-        <v>261.442324733204</v>
+        <v>261.420327346439</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33947,28 +34022,28 @@
         <v>0.0357</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3243787704673777</v>
+        <v>0.3278286751590448</v>
       </c>
       <c r="J6" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K6" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05001638318937296</v>
+        <v>0.05132830398512278</v>
       </c>
       <c r="M6" t="n">
-        <v>8.107741433349929</v>
+        <v>8.099619309431674</v>
       </c>
       <c r="N6" t="n">
-        <v>106.2542224692464</v>
+        <v>106.0414562547796</v>
       </c>
       <c r="O6" t="n">
-        <v>10.30796888185284</v>
+        <v>10.29764323788602</v>
       </c>
       <c r="P6" t="n">
-        <v>279.833563751343</v>
+        <v>279.7996875473722</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34025,28 +34100,28 @@
         <v>0.0377</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1497451562499844</v>
+        <v>0.151598122838358</v>
       </c>
       <c r="J7" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K7" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01152223487185278</v>
+        <v>0.01188515303793658</v>
       </c>
       <c r="M7" t="n">
-        <v>7.97108340793824</v>
+        <v>7.956129056250006</v>
       </c>
       <c r="N7" t="n">
-        <v>102.2528665872006</v>
+        <v>101.9858315054004</v>
       </c>
       <c r="O7" t="n">
-        <v>10.11201595069948</v>
+        <v>10.09880346899574</v>
       </c>
       <c r="P7" t="n">
-        <v>281.4558408289311</v>
+        <v>281.4376825961363</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34103,28 +34178,28 @@
         <v>0.0367</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02420841576778729</v>
+        <v>0.0261226007124732</v>
       </c>
       <c r="J8" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K8" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003449376501143409</v>
+        <v>0.0004043442069625591</v>
       </c>
       <c r="M8" t="n">
-        <v>7.542102978245117</v>
+        <v>7.528523849146806</v>
       </c>
       <c r="N8" t="n">
-        <v>91.63913467634183</v>
+        <v>91.3983880344347</v>
       </c>
       <c r="O8" t="n">
-        <v>9.572833158284011</v>
+        <v>9.560250416931279</v>
       </c>
       <c r="P8" t="n">
-        <v>287.3854935749845</v>
+        <v>287.3668447770531</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34181,28 +34256,28 @@
         <v>0.0322</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.08167758989008687</v>
+        <v>-0.08382572330081128</v>
       </c>
       <c r="J9" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K9" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003085940203568227</v>
+        <v>0.003272183517967098</v>
       </c>
       <c r="M9" t="n">
-        <v>8.670261288651968</v>
+        <v>8.654966235953982</v>
       </c>
       <c r="N9" t="n">
-        <v>115.6834307260227</v>
+        <v>115.3777667601361</v>
       </c>
       <c r="O9" t="n">
-        <v>10.75562321420859</v>
+        <v>10.74140431974033</v>
       </c>
       <c r="P9" t="n">
-        <v>293.8342236439537</v>
+        <v>293.8551607351258</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34259,28 +34334,28 @@
         <v>0.054</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.03722839116765245</v>
+        <v>-0.04062946038963464</v>
       </c>
       <c r="J10" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K10" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001068103933734577</v>
+        <v>0.001279335104746981</v>
       </c>
       <c r="M10" t="n">
-        <v>6.555587457698347</v>
+        <v>6.552292446911865</v>
       </c>
       <c r="N10" t="n">
-        <v>68.11562641258834</v>
+        <v>68.00287098268701</v>
       </c>
       <c r="O10" t="n">
-        <v>8.253219154523181</v>
+        <v>8.246385328293059</v>
       </c>
       <c r="P10" t="n">
-        <v>290.2069356657483</v>
+        <v>290.2406938757222</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34337,28 +34412,28 @@
         <v>0.0484</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.06881843920347544</v>
+        <v>-0.08216827197500325</v>
       </c>
       <c r="J11" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K11" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003447203813046085</v>
+        <v>0.004850719877028786</v>
       </c>
       <c r="M11" t="n">
-        <v>6.716775911150104</v>
+        <v>6.763291071218561</v>
       </c>
       <c r="N11" t="n">
-        <v>73.73057649861903</v>
+        <v>74.89341203149141</v>
       </c>
       <c r="O11" t="n">
-        <v>8.586651064217005</v>
+        <v>8.654097990633767</v>
       </c>
       <c r="P11" t="n">
-        <v>297.5635686391095</v>
+        <v>297.6944955609738</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34415,28 +34490,28 @@
         <v>0.0361</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1294001026352263</v>
+        <v>-0.1336900072717448</v>
       </c>
       <c r="J12" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K12" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01224412203761582</v>
+        <v>0.01312429595955011</v>
       </c>
       <c r="M12" t="n">
-        <v>6.800782251119457</v>
+        <v>6.799877628232335</v>
       </c>
       <c r="N12" t="n">
-        <v>71.90019008941168</v>
+        <v>71.82946433934357</v>
       </c>
       <c r="O12" t="n">
-        <v>8.479397979185295</v>
+        <v>8.475226506668927</v>
       </c>
       <c r="P12" t="n">
-        <v>320.8190468146513</v>
+        <v>320.8613529647199</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34493,28 +34568,28 @@
         <v>0.0407</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1780307631509185</v>
+        <v>-0.1818691541109256</v>
       </c>
       <c r="J13" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K13" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02248467910813057</v>
+        <v>0.02356790107361872</v>
       </c>
       <c r="M13" t="n">
-        <v>6.725758838801757</v>
+        <v>6.725191053762107</v>
       </c>
       <c r="N13" t="n">
-        <v>72.50329106180227</v>
+        <v>72.39728348533136</v>
       </c>
       <c r="O13" t="n">
-        <v>8.514886438573463</v>
+        <v>8.508659323614465</v>
       </c>
       <c r="P13" t="n">
-        <v>335.7987331488771</v>
+        <v>335.837200879569</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34571,28 +34646,28 @@
         <v>0.0579</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1996386465444677</v>
+        <v>-0.2010904369970845</v>
       </c>
       <c r="J14" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K14" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03592223170540398</v>
+        <v>0.03667020686477296</v>
       </c>
       <c r="M14" t="n">
-        <v>5.823368165518511</v>
+        <v>5.812304187042543</v>
       </c>
       <c r="N14" t="n">
-        <v>55.88518281171948</v>
+        <v>55.73521285939235</v>
       </c>
       <c r="O14" t="n">
-        <v>7.475639291172326</v>
+        <v>7.465601975687718</v>
       </c>
       <c r="P14" t="n">
-        <v>333.9311910348662</v>
+        <v>333.9456831941286</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34649,28 +34724,28 @@
         <v>0.0636</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1822095638930388</v>
+        <v>-0.1869807904908804</v>
       </c>
       <c r="J15" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K15" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02838206203550542</v>
+        <v>0.0299665920845108</v>
       </c>
       <c r="M15" t="n">
-        <v>5.992823479839721</v>
+        <v>5.997593810279491</v>
       </c>
       <c r="N15" t="n">
-        <v>60.21037616309582</v>
+        <v>60.2065255882144</v>
       </c>
       <c r="O15" t="n">
-        <v>7.759534532631182</v>
+        <v>7.759286409729596</v>
       </c>
       <c r="P15" t="n">
-        <v>333.5655243577366</v>
+        <v>333.6124228596141</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34727,28 +34802,28 @@
         <v>0.0533</v>
       </c>
       <c r="I16" t="n">
-        <v>7.257363842364591e-05</v>
+        <v>-0.004615319248375999</v>
       </c>
       <c r="J16" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K16" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L16" t="n">
-        <v>4.746980919456689e-09</v>
+        <v>1.92767713037556e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>6.003866623604107</v>
+        <v>6.005974767354625</v>
       </c>
       <c r="N16" t="n">
-        <v>59.01355479076959</v>
+        <v>59.00922268845534</v>
       </c>
       <c r="O16" t="n">
-        <v>7.682028038921076</v>
+        <v>7.68174607029257</v>
       </c>
       <c r="P16" t="n">
-        <v>336.7606688859757</v>
+        <v>336.8070910499612</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34808,7 +34883,7 @@
         <v>0.04137109899697908</v>
       </c>
       <c r="J17" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K17" t="n">
         <v>350</v>
@@ -34886,7 +34961,7 @@
         <v>0.04748734258072149</v>
       </c>
       <c r="J18" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K18" t="n">
         <v>352</v>
@@ -34964,7 +35039,7 @@
         <v>0.07606062827930259</v>
       </c>
       <c r="J19" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K19" t="n">
         <v>329</v>
@@ -35042,7 +35117,7 @@
         <v>0.002343885114665039</v>
       </c>
       <c r="J20" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K20" t="n">
         <v>352</v>
@@ -35120,7 +35195,7 @@
         <v>0.04954440191894038</v>
       </c>
       <c r="J21" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K21" t="n">
         <v>344</v>
@@ -35198,7 +35273,7 @@
         <v>0.1192818279050921</v>
       </c>
       <c r="J22" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K22" t="n">
         <v>341</v>
@@ -35276,7 +35351,7 @@
         <v>0.03068440576675046</v>
       </c>
       <c r="J23" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K23" t="n">
         <v>344</v>
@@ -35354,7 +35429,7 @@
         <v>0.02611745496098841</v>
       </c>
       <c r="J24" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K24" t="n">
         <v>347</v>
@@ -35410,7 +35485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y381"/>
+  <dimension ref="A1:Y382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80365,6 +80440,101 @@
         </is>
       </c>
     </row>
+    <row r="382">
+      <c r="A382" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-25 21:53:45+00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>-38.333510582005935,178.32542009009958</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>-38.3341551418264,178.32503829552937</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>-38.33481497566797,178.32471974001453</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>-38.335591673118216,178.32473433105284</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>-38.33641960713793,178.32470248897351</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>-38.33721344633641,178.3246959357471</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>-38.33791413512515,178.32478420306185</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>-38.33863701080159,178.32481075929013</t>
+        </is>
+      </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>-38.33936779552997,178.32487077257412</t>
+        </is>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>-38.34008928945787,178.32489168276985</t>
+        </is>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>-38.34073350695292,178.3254323431999</t>
+        </is>
+      </c>
+      <c r="M382" t="inlineStr">
+        <is>
+          <t>-38.34140928101706,178.32575369110523</t>
+        </is>
+      </c>
+      <c r="N382" t="inlineStr">
+        <is>
+          <t>-38.34210029801395,178.32594902165943</t>
+        </is>
+      </c>
+      <c r="O382" t="inlineStr">
+        <is>
+          <t>-38.342805300043764,178.32606972654722</t>
+        </is>
+      </c>
+      <c r="P382" t="inlineStr">
+        <is>
+          <t>-38.34348967998843,178.32635953314505</t>
+        </is>
+      </c>
+      <c r="Q382" t="inlineStr"/>
+      <c r="R382" t="inlineStr"/>
+      <c r="S382" t="inlineStr"/>
+      <c r="T382" t="inlineStr"/>
+      <c r="U382" t="inlineStr"/>
+      <c r="V382" t="inlineStr"/>
+      <c r="W382" t="inlineStr"/>
+      <c r="X382" t="inlineStr"/>
+      <c r="Y382" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0255/nzd0255.xlsx
+++ b/data/nzd0255/nzd0255.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y382"/>
+  <dimension ref="A1:Y385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29688,6 +29688,249 @@
         </is>
       </c>
     </row>
+    <row r="383">
+      <c r="A383" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:53:26+00:00</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>255.0633333333334</v>
+      </c>
+      <c r="C383" t="n">
+        <v>254.0633333333333</v>
+      </c>
+      <c r="D383" t="n">
+        <v>258.35</v>
+      </c>
+      <c r="E383" t="n">
+        <v>282.5514285714286</v>
+      </c>
+      <c r="F383" t="n">
+        <v>290.7914285714286</v>
+      </c>
+      <c r="G383" t="n">
+        <v>287.6614285714285</v>
+      </c>
+      <c r="H383" t="n">
+        <v>294.7514285714286</v>
+      </c>
+      <c r="I383" t="n">
+        <v>298.0333333333333</v>
+      </c>
+      <c r="J383" t="n">
+        <v>288.61</v>
+      </c>
+      <c r="K383" t="n">
+        <v>301.6488888888889</v>
+      </c>
+      <c r="L383" t="n">
+        <v>319.0014285714286</v>
+      </c>
+      <c r="M383" t="n">
+        <v>324.2514285714286</v>
+      </c>
+      <c r="N383" t="n">
+        <v>323.7309090909091</v>
+      </c>
+      <c r="O383" t="n">
+        <v>324.4266666666667</v>
+      </c>
+      <c r="P383" t="n">
+        <v>335.37</v>
+      </c>
+      <c r="Q383" t="n">
+        <v>338.94</v>
+      </c>
+      <c r="R383" t="n">
+        <v>340.67</v>
+      </c>
+      <c r="S383" t="n">
+        <v>336.2566666666667</v>
+      </c>
+      <c r="T383" t="n">
+        <v>331.5266666666667</v>
+      </c>
+      <c r="U383" t="n">
+        <v>334.9807692307692</v>
+      </c>
+      <c r="V383" t="n">
+        <v>343.2566666666667</v>
+      </c>
+      <c r="W383" t="n">
+        <v>339.8666666666667</v>
+      </c>
+      <c r="X383" t="n">
+        <v>334.04</v>
+      </c>
+      <c r="Y383" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-19 21:53:56+00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>255.9866666666667</v>
+      </c>
+      <c r="C384" t="n">
+        <v>242.5066666666666</v>
+      </c>
+      <c r="D384" t="n">
+        <v>244.81</v>
+      </c>
+      <c r="E384" t="n">
+        <v>262.1914285714286</v>
+      </c>
+      <c r="F384" t="n">
+        <v>278.5214285714285</v>
+      </c>
+      <c r="G384" t="n">
+        <v>278.8814285714286</v>
+      </c>
+      <c r="H384" t="n">
+        <v>290.8814285714286</v>
+      </c>
+      <c r="I384" t="n">
+        <v>291.5766666666667</v>
+      </c>
+      <c r="J384" t="n">
+        <v>289.62</v>
+      </c>
+      <c r="K384" t="n">
+        <v>286.3077777777777</v>
+      </c>
+      <c r="L384" t="n">
+        <v>319.3014285714286</v>
+      </c>
+      <c r="M384" t="n">
+        <v>335.5014285714286</v>
+      </c>
+      <c r="N384" t="n">
+        <v>329.6054545454546</v>
+      </c>
+      <c r="O384" t="n">
+        <v>335.4633333333333</v>
+      </c>
+      <c r="P384" t="n">
+        <v>338.89</v>
+      </c>
+      <c r="Q384" t="n">
+        <v>340.53</v>
+      </c>
+      <c r="R384" t="n">
+        <v>342.42</v>
+      </c>
+      <c r="S384" t="n">
+        <v>335.1333333333333</v>
+      </c>
+      <c r="T384" t="n">
+        <v>327.5633333333333</v>
+      </c>
+      <c r="U384" t="n">
+        <v>331.4869230769231</v>
+      </c>
+      <c r="V384" t="n">
+        <v>328.1733333333333</v>
+      </c>
+      <c r="W384" t="n">
+        <v>328.9033333333333</v>
+      </c>
+      <c r="X384" t="n">
+        <v>323.66</v>
+      </c>
+      <c r="Y384" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>255.0966666666666</v>
+      </c>
+      <c r="C385" t="n">
+        <v>246.9066666666667</v>
+      </c>
+      <c r="D385" t="n">
+        <v>250.2</v>
+      </c>
+      <c r="E385" t="n">
+        <v>261.5114285714285</v>
+      </c>
+      <c r="F385" t="n">
+        <v>290.4614285714285</v>
+      </c>
+      <c r="G385" t="n">
+        <v>285.7114285714285</v>
+      </c>
+      <c r="H385" t="n">
+        <v>283.0314285714285</v>
+      </c>
+      <c r="I385" t="n">
+        <v>294.9166666666667</v>
+      </c>
+      <c r="J385" t="n">
+        <v>288.38</v>
+      </c>
+      <c r="K385" t="n">
+        <v>291.6377777777778</v>
+      </c>
+      <c r="L385" t="n">
+        <v>315.6514285714285</v>
+      </c>
+      <c r="M385" t="n">
+        <v>330.1214285714286</v>
+      </c>
+      <c r="N385" t="n">
+        <v>317.29</v>
+      </c>
+      <c r="O385" t="n">
+        <v>322.9733333333333</v>
+      </c>
+      <c r="P385" t="n">
+        <v>329.58</v>
+      </c>
+      <c r="Q385" t="n">
+        <v>335.19</v>
+      </c>
+      <c r="R385" t="n">
+        <v>335.61</v>
+      </c>
+      <c r="S385" t="n">
+        <v>331.8033333333333</v>
+      </c>
+      <c r="T385" t="n">
+        <v>331.1533333333333</v>
+      </c>
+      <c r="U385" t="n">
+        <v>335.9092307692308</v>
+      </c>
+      <c r="V385" t="n">
+        <v>332.9333333333333</v>
+      </c>
+      <c r="W385" t="n">
+        <v>331.2633333333333</v>
+      </c>
+      <c r="X385" t="n">
+        <v>328.47</v>
+      </c>
+      <c r="Y385" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29699,7 +29942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B383"/>
+  <dimension ref="A1:B386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33537,6 +33780,36 @@
       </c>
       <c r="B383" t="n">
         <v>-0.32</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2025-07-19 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -33710,28 +33983,28 @@
         <v>0.0307</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09528901871866143</v>
+        <v>0.09416242778890908</v>
       </c>
       <c r="J2" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K2" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003149464978801086</v>
+        <v>0.003140244621962829</v>
       </c>
       <c r="M2" t="n">
-        <v>9.727769592470015</v>
+        <v>9.649131303496327</v>
       </c>
       <c r="N2" t="n">
-        <v>152.9258380608718</v>
+        <v>151.608532313069</v>
       </c>
       <c r="O2" t="n">
-        <v>12.36631869478026</v>
+        <v>12.31294165961445</v>
       </c>
       <c r="P2" t="n">
-        <v>253.5312725753179</v>
+        <v>253.5424046235891</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33788,28 +34061,28 @@
         <v>0.0305</v>
       </c>
       <c r="I3" t="n">
-        <v>0.187344460118998</v>
+        <v>0.1855493826407561</v>
       </c>
       <c r="J3" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K3" t="n">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01148746261654288</v>
+        <v>0.01148999940442441</v>
       </c>
       <c r="M3" t="n">
-        <v>9.996425473558398</v>
+        <v>9.949433901243797</v>
       </c>
       <c r="N3" t="n">
-        <v>159.9460153572801</v>
+        <v>158.7468043787713</v>
       </c>
       <c r="O3" t="n">
-        <v>12.64697653027316</v>
+        <v>12.59947635335577</v>
       </c>
       <c r="P3" t="n">
-        <v>243.9367360191159</v>
+        <v>243.9547513107958</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33866,28 +34139,28 @@
         <v>0.0271</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3481487597013423</v>
+        <v>0.3523223756580802</v>
       </c>
       <c r="J4" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K4" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03233629838971508</v>
+        <v>0.03371899862437988</v>
       </c>
       <c r="M4" t="n">
-        <v>10.75029419590639</v>
+        <v>10.69842242051324</v>
       </c>
       <c r="N4" t="n">
-        <v>191.2438104414699</v>
+        <v>189.8825872939035</v>
       </c>
       <c r="O4" t="n">
-        <v>13.82909290016775</v>
+        <v>13.77978908742451</v>
       </c>
       <c r="P4" t="n">
-        <v>239.8150843474864</v>
+        <v>239.7735889324265</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33944,28 +34217,28 @@
         <v>0.0376</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3990332856513927</v>
+        <v>0.3935057392052846</v>
       </c>
       <c r="J5" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K5" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08822780097348504</v>
+        <v>0.08684436293305242</v>
       </c>
       <c r="M5" t="n">
-        <v>7.285806862267098</v>
+        <v>7.311119648813686</v>
       </c>
       <c r="N5" t="n">
-        <v>86.54789852801592</v>
+        <v>86.70021735434024</v>
       </c>
       <c r="O5" t="n">
-        <v>9.30311230331097</v>
+        <v>9.311295149136892</v>
       </c>
       <c r="P5" t="n">
-        <v>261.420327346439</v>
+        <v>261.4754103240801</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34022,28 +34295,28 @@
         <v>0.0357</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3278286751590448</v>
+        <v>0.3247656536954088</v>
       </c>
       <c r="J6" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K6" t="n">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05132830398512278</v>
+        <v>0.05127811630713286</v>
       </c>
       <c r="M6" t="n">
-        <v>8.099619309431674</v>
+        <v>8.072779514577869</v>
       </c>
       <c r="N6" t="n">
-        <v>106.0414562547796</v>
+        <v>105.4415933492745</v>
       </c>
       <c r="O6" t="n">
-        <v>10.29764323788602</v>
+        <v>10.268475707196</v>
       </c>
       <c r="P6" t="n">
-        <v>279.7996875473722</v>
+        <v>279.8298631429631</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34100,28 +34373,28 @@
         <v>0.0377</v>
       </c>
       <c r="I7" t="n">
-        <v>0.151598122838358</v>
+        <v>0.1492838477719928</v>
       </c>
       <c r="J7" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K7" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01188515303793658</v>
+        <v>0.01175312449571175</v>
       </c>
       <c r="M7" t="n">
-        <v>7.956129056250006</v>
+        <v>7.915317216572845</v>
       </c>
       <c r="N7" t="n">
-        <v>101.9858315054004</v>
+        <v>101.2512113778988</v>
       </c>
       <c r="O7" t="n">
-        <v>10.09880346899574</v>
+        <v>10.06236609242075</v>
       </c>
       <c r="P7" t="n">
-        <v>281.4376825961363</v>
+        <v>281.4604468754101</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34178,28 +34451,28 @@
         <v>0.0367</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0261226007124732</v>
+        <v>0.02882823986611374</v>
       </c>
       <c r="J8" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K8" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004043442069625591</v>
+        <v>0.0005015267316768046</v>
       </c>
       <c r="M8" t="n">
-        <v>7.528523849146806</v>
+        <v>7.504470561869359</v>
       </c>
       <c r="N8" t="n">
-        <v>91.3983880344347</v>
+        <v>90.82800114260802</v>
       </c>
       <c r="O8" t="n">
-        <v>9.560250416931279</v>
+        <v>9.530372560535502</v>
       </c>
       <c r="P8" t="n">
-        <v>287.3668447770531</v>
+        <v>287.3405145648613</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34256,28 +34529,28 @@
         <v>0.0322</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.08382572330081128</v>
+        <v>-0.07806526044709564</v>
       </c>
       <c r="J9" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K9" t="n">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003272183517967098</v>
+        <v>0.002896026162914289</v>
       </c>
       <c r="M9" t="n">
-        <v>8.654966235953982</v>
+        <v>8.607067883960113</v>
       </c>
       <c r="N9" t="n">
-        <v>115.3777667601361</v>
+        <v>114.5142385458717</v>
       </c>
       <c r="O9" t="n">
-        <v>10.74140431974033</v>
+        <v>10.7011325823892</v>
       </c>
       <c r="P9" t="n">
-        <v>293.8551607351258</v>
+        <v>293.7989126339014</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34334,28 +34607,28 @@
         <v>0.054</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04062946038963464</v>
+        <v>-0.04120721909902219</v>
       </c>
       <c r="J10" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K10" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001279335104746981</v>
+        <v>0.001343666584759706</v>
       </c>
       <c r="M10" t="n">
-        <v>6.552292446911865</v>
+        <v>6.500699878641862</v>
       </c>
       <c r="N10" t="n">
-        <v>68.00287098268701</v>
+        <v>67.41660887333356</v>
       </c>
       <c r="O10" t="n">
-        <v>8.246385328293059</v>
+        <v>8.21076177180495</v>
       </c>
       <c r="P10" t="n">
-        <v>290.2406938757222</v>
+        <v>290.2464422811652</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34412,28 +34685,28 @@
         <v>0.0484</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.08216827197500325</v>
+        <v>-0.08643085529342238</v>
       </c>
       <c r="J11" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K11" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004850719877028786</v>
+        <v>0.005446013930272997</v>
       </c>
       <c r="M11" t="n">
-        <v>6.763291071218561</v>
+        <v>6.76083081375782</v>
       </c>
       <c r="N11" t="n">
-        <v>74.89341203149141</v>
+        <v>74.6401027509251</v>
       </c>
       <c r="O11" t="n">
-        <v>8.654097990633767</v>
+        <v>8.639450373196498</v>
       </c>
       <c r="P11" t="n">
-        <v>297.6944955609738</v>
+        <v>297.73650973326</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34490,28 +34763,28 @@
         <v>0.0361</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1336900072717448</v>
+        <v>-0.1326233701065655</v>
       </c>
       <c r="J12" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K12" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01312429595955011</v>
+        <v>0.01318091691320666</v>
       </c>
       <c r="M12" t="n">
-        <v>6.799877628232335</v>
+        <v>6.756244182427097</v>
       </c>
       <c r="N12" t="n">
-        <v>71.82946433934357</v>
+        <v>71.23155110300831</v>
       </c>
       <c r="O12" t="n">
-        <v>8.475226506668927</v>
+        <v>8.439878618973635</v>
       </c>
       <c r="P12" t="n">
-        <v>320.8613529647199</v>
+        <v>320.8508326023247</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34568,28 +34841,28 @@
         <v>0.0407</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1818691541109256</v>
+        <v>-0.183987742768762</v>
       </c>
       <c r="J13" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K13" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02356790107361872</v>
+        <v>0.02453350683028355</v>
       </c>
       <c r="M13" t="n">
-        <v>6.725191053762107</v>
+        <v>6.70239951952331</v>
       </c>
       <c r="N13" t="n">
-        <v>72.39728348533136</v>
+        <v>71.9539164503619</v>
       </c>
       <c r="O13" t="n">
-        <v>8.508659323614465</v>
+        <v>8.482565440381931</v>
       </c>
       <c r="P13" t="n">
-        <v>335.837200879569</v>
+        <v>335.8584178227841</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34646,28 +34919,28 @@
         <v>0.0579</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2010904369970845</v>
+        <v>-0.2107156412096639</v>
       </c>
       <c r="J14" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K14" t="n">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03667020686477296</v>
+        <v>0.04062507253427206</v>
       </c>
       <c r="M14" t="n">
-        <v>5.812304187042543</v>
+        <v>5.807929300820033</v>
       </c>
       <c r="N14" t="n">
-        <v>55.73521285939235</v>
+        <v>55.69683536647933</v>
       </c>
       <c r="O14" t="n">
-        <v>7.465601975687718</v>
+        <v>7.463031245176408</v>
       </c>
       <c r="P14" t="n">
-        <v>333.9456831941286</v>
+        <v>334.0420347896207</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34724,28 +34997,28 @@
         <v>0.0636</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1869807904908804</v>
+        <v>-0.1890428868561507</v>
       </c>
       <c r="J15" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K15" t="n">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0299665920845108</v>
+        <v>0.03109827566795031</v>
       </c>
       <c r="M15" t="n">
-        <v>5.997593810279491</v>
+        <v>5.994196848627496</v>
       </c>
       <c r="N15" t="n">
-        <v>60.2065255882144</v>
+        <v>59.96722567185213</v>
       </c>
       <c r="O15" t="n">
-        <v>7.759286409729596</v>
+        <v>7.743850829648782</v>
       </c>
       <c r="P15" t="n">
-        <v>333.6124228596141</v>
+        <v>333.6327315347597</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34802,28 +35075,28 @@
         <v>0.0533</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.004615319248375999</v>
+        <v>-0.008358476089934161</v>
       </c>
       <c r="J16" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K16" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L16" t="n">
-        <v>1.92767713037556e-05</v>
+        <v>6.435302997964687e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>6.005974767354625</v>
+        <v>5.982634067338155</v>
       </c>
       <c r="N16" t="n">
-        <v>59.00922268845534</v>
+        <v>58.66052385966839</v>
       </c>
       <c r="O16" t="n">
-        <v>7.68174607029257</v>
+        <v>7.659015854512145</v>
       </c>
       <c r="P16" t="n">
-        <v>336.8070910499612</v>
+        <v>336.8442870971533</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34880,28 +35153,28 @@
         <v>0.0561</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04137109899697908</v>
+        <v>0.03869592731229057</v>
       </c>
       <c r="J17" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K17" t="n">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001551565586786929</v>
+        <v>0.001384357993595486</v>
       </c>
       <c r="M17" t="n">
-        <v>5.832601064080686</v>
+        <v>5.799699227280953</v>
       </c>
       <c r="N17" t="n">
-        <v>57.62384991428726</v>
+        <v>57.19491091991137</v>
       </c>
       <c r="O17" t="n">
-        <v>7.591037472854897</v>
+        <v>7.562731710163423</v>
       </c>
       <c r="P17" t="n">
-        <v>338.6300385294881</v>
+        <v>338.6568470239762</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34958,28 +35231,28 @@
         <v>0.0538</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04748734258072149</v>
+        <v>0.04734953510615324</v>
       </c>
       <c r="J18" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K18" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001878158142059716</v>
+        <v>0.001903643967399171</v>
       </c>
       <c r="M18" t="n">
-        <v>6.082917605700086</v>
+        <v>6.053562924186842</v>
       </c>
       <c r="N18" t="n">
-        <v>63.00875217905914</v>
+        <v>62.5468260139498</v>
       </c>
       <c r="O18" t="n">
-        <v>7.937805249504371</v>
+        <v>7.908655133077293</v>
       </c>
       <c r="P18" t="n">
-        <v>338.4076762316196</v>
+        <v>338.4090845024132</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35036,28 +35309,28 @@
         <v>0.0653</v>
       </c>
       <c r="I19" t="n">
-        <v>0.07606062827930259</v>
+        <v>0.07700213915271321</v>
       </c>
       <c r="J19" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K19" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L19" t="n">
-        <v>0.004540905151860342</v>
+        <v>0.004753014065342898</v>
       </c>
       <c r="M19" t="n">
-        <v>6.278748340108532</v>
+        <v>6.239458191532069</v>
       </c>
       <c r="N19" t="n">
-        <v>68.69860336967423</v>
+        <v>68.11245475550169</v>
       </c>
       <c r="O19" t="n">
-        <v>8.288462062993004</v>
+        <v>8.253027005620526</v>
       </c>
       <c r="P19" t="n">
-        <v>331.9179428950742</v>
+        <v>331.9088040768119</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35114,28 +35387,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>0.002343885114665039</v>
+        <v>0.00379410365048142</v>
       </c>
       <c r="J20" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K20" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L20" t="n">
-        <v>4.939822387917125e-06</v>
+        <v>1.321462789161121e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>5.918200835055971</v>
+        <v>5.884808875968156</v>
       </c>
       <c r="N20" t="n">
-        <v>58.9074899883443</v>
+        <v>58.44192435252797</v>
       </c>
       <c r="O20" t="n">
-        <v>7.67512149665035</v>
+        <v>7.644731803832491</v>
       </c>
       <c r="P20" t="n">
-        <v>329.2193970554827</v>
+        <v>329.2052307745614</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -35192,28 +35465,28 @@
         <v>0.07190000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>0.04954440191894038</v>
+        <v>0.05579247070904506</v>
       </c>
       <c r="J21" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K21" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L21" t="n">
-        <v>0.002415949410781271</v>
+        <v>0.003118372095739952</v>
       </c>
       <c r="M21" t="n">
-        <v>5.687035635382714</v>
+        <v>5.667667996172666</v>
       </c>
       <c r="N21" t="n">
-        <v>54.16158779990142</v>
+        <v>53.82497771669551</v>
       </c>
       <c r="O21" t="n">
-        <v>7.359455672799546</v>
+        <v>7.336550805160114</v>
       </c>
       <c r="P21" t="n">
-        <v>329.3832767617346</v>
+        <v>329.3216946561691</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35270,28 +35543,28 @@
         <v>0.0636</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1192818279050921</v>
+        <v>0.123686516218103</v>
       </c>
       <c r="J22" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K22" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01159900925217294</v>
+        <v>0.01264593895644683</v>
       </c>
       <c r="M22" t="n">
-        <v>6.239936074553809</v>
+        <v>6.228811917747502</v>
       </c>
       <c r="N22" t="n">
-        <v>65.41546140307372</v>
+        <v>65.2412684081595</v>
       </c>
       <c r="O22" t="n">
-        <v>8.087982529844741</v>
+        <v>8.077206720652846</v>
       </c>
       <c r="P22" t="n">
-        <v>329.2545465081939</v>
+        <v>329.2116048269143</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35348,28 +35621,28 @@
         <v>0.0649</v>
       </c>
       <c r="I23" t="n">
-        <v>0.03068440576675046</v>
+        <v>0.03923847631592026</v>
       </c>
       <c r="J23" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K23" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0007457869029658948</v>
+        <v>0.001237405894494059</v>
       </c>
       <c r="M23" t="n">
-        <v>6.238744892107133</v>
+        <v>6.224355977581546</v>
       </c>
       <c r="N23" t="n">
-        <v>67.09516666882118</v>
+        <v>66.8959319657405</v>
       </c>
       <c r="O23" t="n">
-        <v>8.191163938587799</v>
+        <v>8.178993334496642</v>
       </c>
       <c r="P23" t="n">
-        <v>327.8052969110746</v>
+        <v>327.7206017079919</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35426,28 +35699,28 @@
         <v>0.0515</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02611745496098841</v>
+        <v>0.02512605481903091</v>
       </c>
       <c r="J24" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K24" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0006043216266751195</v>
+        <v>0.0005696026468359205</v>
       </c>
       <c r="M24" t="n">
-        <v>5.96065480480058</v>
+        <v>5.941125512895061</v>
       </c>
       <c r="N24" t="n">
-        <v>59.27232948137211</v>
+        <v>58.92092770294141</v>
       </c>
       <c r="O24" t="n">
-        <v>7.698852478218563</v>
+        <v>7.675996854021073</v>
       </c>
       <c r="P24" t="n">
-        <v>328.5845402714051</v>
+        <v>328.5944734578999</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -35485,7 +35758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y382"/>
+  <dimension ref="A1:Y385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80535,6 +80808,387 @@
         </is>
       </c>
     </row>
+    <row r="383">
+      <c r="A383" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:53:26+00:00</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>-38.33350939579377,178.32541518076764</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>-38.33417201251351,178.3251081177511</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>-38.334848559030334,178.32485873114163</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>-38.33560782846356,178.32481453380055</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>-38.336418226328384,178.3246670903841</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>-38.33721407803496,178.32468803687993</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>-38.33791083519069,178.3248254657031</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>-38.33862573171192,178.3249212179744</t>
+        </is>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>-38.3393604913055,178.3249249925492</t>
+        </is>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>-38.34004426125755,178.32520213012614</t>
+        </is>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>-38.34071854595207,178.32552717232835</t>
+        </is>
+      </c>
+      <c r="M383" t="inlineStr">
+        <is>
+          <t>-38.34141094250394,178.32574450669935</t>
+        </is>
+      </c>
+      <c r="N383" t="inlineStr">
+        <is>
+          <t>-38.34210611261887,178.3259186241102</t>
+        </is>
+      </c>
+      <c r="O383" t="inlineStr">
+        <is>
+          <t>-38.34279802602384,178.32610612115732</t>
+        </is>
+      </c>
+      <c r="P383" t="inlineStr">
+        <is>
+          <t>-38.34347252590155,178.32642721745188</t>
+        </is>
+      </c>
+      <c r="Q383" t="inlineStr">
+        <is>
+          <t>-38.34413838679819,178.3267566857945</t>
+        </is>
+      </c>
+      <c r="R383" t="inlineStr">
+        <is>
+          <t>-38.344800204016984,178.32706314752863</t>
+        </is>
+      </c>
+      <c r="S383" t="inlineStr">
+        <is>
+          <t>-38.345481353456464,178.32730396781258</t>
+        </is>
+      </c>
+      <c r="T383" t="inlineStr">
+        <is>
+          <t>-38.346163246193214,178.32753804575668</t>
+        </is>
+      </c>
+      <c r="U383" t="inlineStr">
+        <is>
+          <t>-38.346821546617306,178.3278528262882</t>
+        </is>
+      </c>
+      <c r="V383" t="inlineStr">
+        <is>
+          <t>-38.34747165834006,178.32822159399493</t>
+        </is>
+      </c>
+      <c r="W383" t="inlineStr">
+        <is>
+          <t>-38.3481374965116,178.32854961755442</t>
+        </is>
+      </c>
+      <c r="X383" t="inlineStr">
+        <is>
+          <t>-38.34880013721843,178.3288780994234</t>
+        </is>
+      </c>
+      <c r="Y383" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-19 21:53:56+00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>-38.333511829725154,178.32542525398958</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>-38.334141548589606,178.32498203774927</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>-38.33481286681677,178.32471101216098</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>-38.33556248645382,178.3245894354987</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>-38.336412770944946,178.32452723827637</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>-38.33722205010324,178.32458835218614</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>-38.33791434915343,178.32478152682904</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>-38.33863319333425,178.3248481447312</t>
+        </is>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>-38.33935896074915,178.32493635399453</t>
+        </is>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>-38.34006923542068,178.3250299462596</t>
+        </is>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>-38.34071801631313,178.32553052939372</t>
+        </is>
+      </c>
+      <c r="M384" t="inlineStr">
+        <is>
+          <t>-38.34138830540391,178.32586964021422</t>
+        </is>
+      </c>
+      <c r="N384" t="inlineStr">
+        <is>
+          <t>-38.34209365026232,178.32598377467133</t>
+        </is>
+      </c>
+      <c r="O384" t="inlineStr">
+        <is>
+          <t>-38.342773624445314,178.32622821081532</t>
+        </is>
+      </c>
+      <c r="P384" t="inlineStr">
+        <is>
+          <t>-38.343462833688434,178.32646545961242</t>
+        </is>
+      </c>
+      <c r="Q384" t="inlineStr">
+        <is>
+          <t>-38.34413330108778,178.32677364467503</t>
+        </is>
+      </c>
+      <c r="R384" t="inlineStr">
+        <is>
+          <t>-38.344794606495775,178.32708181310724</t>
+        </is>
+      </c>
+      <c r="S384" t="inlineStr">
+        <is>
+          <t>-38.34548493022028,178.327291978312</t>
+        </is>
+      </c>
+      <c r="T384" t="inlineStr">
+        <is>
+          <t>-38.34617567252168,178.32749565202445</t>
+        </is>
+      </c>
+      <c r="U384" t="inlineStr">
+        <is>
+          <t>-38.346832381338714,178.32781539791137</t>
+        </is>
+      </c>
+      <c r="V384" t="inlineStr">
+        <is>
+          <t>-38.347524565392575,178.32806308928969</t>
+        </is>
+      </c>
+      <c r="W384" t="inlineStr">
+        <is>
+          <t>-38.348181748424565,178.32843781243935</t>
+        </is>
+      </c>
+      <c r="X384" t="inlineStr">
+        <is>
+          <t>-38.348843369070956,178.32877311108786</t>
+        </is>
+      </c>
+      <c r="Y384" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>-38.333509483661345,178.32541554442184</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>-38.33415314721621,178.32503004050812</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>-38.3348270751884,178.32476981608278</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>-38.335560972076294,178.3245819174848</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>-38.336418079608805,178.32466332908047</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>-38.33721584860404,178.32466589734364</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>-38.33792147690908,178.32469240015337</t>
+        </is>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>-38.3386293334815,178.32488594514143</t>
+        </is>
+      </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>-38.33936083984789,178.3249224052893</t>
+        </is>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>-38.340060558613544,178.32508976854095</t>
+        </is>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>-38.34072446024737,178.32548968509434</t>
+        </is>
+      </c>
+      <c r="M385" t="inlineStr">
+        <is>
+          <t>-38.34139913098425,178.32580979859827</t>
+        </is>
+      </c>
+      <c r="N385" t="inlineStr">
+        <is>
+          <t>-38.342119776428504,178.32584719236738</t>
+        </is>
+      </c>
+      <c r="O385" t="inlineStr">
+        <is>
+          <t>-38.34280123927005,178.3260900441067</t>
+        </is>
+      </c>
+      <c r="P385" t="inlineStr">
+        <is>
+          <t>-38.343488468465054,178.3263643134183</t>
+        </is>
+      </c>
+      <c r="Q385" t="inlineStr">
+        <is>
+          <t>-38.34415038138914,178.32671668842428</t>
+        </is>
+      </c>
+      <c r="R385" t="inlineStr">
+        <is>
+          <t>-38.34481638883409,178.32700917732348</t>
+        </is>
+      </c>
+      <c r="S385" t="inlineStr">
+        <is>
+          <t>-38.34549553314243,178.32725643672828</t>
+        </is>
+      </c>
+      <c r="T385" t="inlineStr">
+        <is>
+          <t>-38.34616441671425,178.3275340524033</t>
+        </is>
+      </c>
+      <c r="U385" t="inlineStr">
+        <is>
+          <t>-38.346818667375274,178.32786277257648</t>
+        </is>
+      </c>
+      <c r="V385" t="inlineStr">
+        <is>
+          <t>-38.34750786900057,178.32811311024935</t>
+        </is>
+      </c>
+      <c r="W385" t="inlineStr">
+        <is>
+          <t>-38.34817222263336,178.3284618799559</t>
+        </is>
+      </c>
+      <c r="X385" t="inlineStr">
+        <is>
+          <t>-38.34882333582431,178.3288217617686</t>
+        </is>
+      </c>
+      <c r="Y385" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0255/nzd0255.xlsx
+++ b/data/nzd0255/nzd0255.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y385"/>
+  <dimension ref="A1:Y387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29931,6 +29931,156 @@
         </is>
       </c>
     </row>
+    <row r="386">
+      <c r="A386" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-12 21:53:43+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr"/>
+      <c r="C386" t="inlineStr"/>
+      <c r="D386" t="inlineStr"/>
+      <c r="E386" t="n">
+        <v>246.3357142857143</v>
+      </c>
+      <c r="F386" t="n">
+        <v>286.5357142857143</v>
+      </c>
+      <c r="G386" t="n">
+        <v>242.4957142857143</v>
+      </c>
+      <c r="H386" t="inlineStr"/>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="n">
+        <v>278.0066666666667</v>
+      </c>
+      <c r="L386" t="n">
+        <v>316.2857142857143</v>
+      </c>
+      <c r="M386" t="n">
+        <v>324.2557142857143</v>
+      </c>
+      <c r="N386" t="n">
+        <v>318.4336363636364</v>
+      </c>
+      <c r="O386" t="n">
+        <v>321.76</v>
+      </c>
+      <c r="P386" t="n">
+        <v>337.1</v>
+      </c>
+      <c r="Q386" t="n">
+        <v>337.51</v>
+      </c>
+      <c r="R386" t="n">
+        <v>340.52</v>
+      </c>
+      <c r="S386" t="n">
+        <v>335.79</v>
+      </c>
+      <c r="T386" t="n">
+        <v>335.81</v>
+      </c>
+      <c r="U386" t="n">
+        <v>335.5492307692307</v>
+      </c>
+      <c r="V386" t="n">
+        <v>332.07</v>
+      </c>
+      <c r="W386" t="n">
+        <v>329.39</v>
+      </c>
+      <c r="X386" t="n">
+        <v>329.05</v>
+      </c>
+      <c r="Y386" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:54:11+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>254.87</v>
+      </c>
+      <c r="C387" t="n">
+        <v>243.07</v>
+      </c>
+      <c r="D387" t="n">
+        <v>251.46</v>
+      </c>
+      <c r="E387" t="n">
+        <v>270.0257142857143</v>
+      </c>
+      <c r="F387" t="n">
+        <v>285.0857142857143</v>
+      </c>
+      <c r="G387" t="n">
+        <v>279.6757142857143</v>
+      </c>
+      <c r="H387" t="n">
+        <v>283.4157142857143</v>
+      </c>
+      <c r="I387" t="n">
+        <v>285.94</v>
+      </c>
+      <c r="J387" t="n">
+        <v>275.2</v>
+      </c>
+      <c r="K387" t="n">
+        <v>288.8066666666667</v>
+      </c>
+      <c r="L387" t="n">
+        <v>314.1957142857143</v>
+      </c>
+      <c r="M387" t="n">
+        <v>329.1957142857143</v>
+      </c>
+      <c r="N387" t="n">
+        <v>319.6136363636364</v>
+      </c>
+      <c r="O387" t="n">
+        <v>322.16</v>
+      </c>
+      <c r="P387" t="n">
+        <v>327.25</v>
+      </c>
+      <c r="Q387" t="n">
+        <v>331.9</v>
+      </c>
+      <c r="R387" t="n">
+        <v>332.01</v>
+      </c>
+      <c r="S387" t="n">
+        <v>333.43</v>
+      </c>
+      <c r="T387" t="n">
+        <v>314.77</v>
+      </c>
+      <c r="U387" t="n">
+        <v>307.0192307692308</v>
+      </c>
+      <c r="V387" t="n">
+        <v>316.44</v>
+      </c>
+      <c r="W387" t="n">
+        <v>320.13</v>
+      </c>
+      <c r="X387" t="n">
+        <v>321.78</v>
+      </c>
+      <c r="Y387" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29942,7 +30092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B386"/>
+  <dimension ref="A1:B388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33810,6 +33960,26 @@
       </c>
       <c r="B386" t="n">
         <v>0.44</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2025-08-12 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
@@ -33983,28 +34153,28 @@
         <v>0.0307</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09416242778890908</v>
+        <v>0.09348114569051345</v>
       </c>
       <c r="J2" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K2" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003140244621962829</v>
+        <v>0.003116476205033192</v>
       </c>
       <c r="M2" t="n">
-        <v>9.649131303496327</v>
+        <v>9.624747496118561</v>
       </c>
       <c r="N2" t="n">
-        <v>151.608532313069</v>
+        <v>151.1764877900555</v>
       </c>
       <c r="O2" t="n">
-        <v>12.31294165961445</v>
+        <v>12.29538481667229</v>
       </c>
       <c r="P2" t="n">
-        <v>253.5424046235891</v>
+        <v>253.5491709008339</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34061,28 +34231,28 @@
         <v>0.0305</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1855493826407561</v>
+        <v>0.1820581158274838</v>
       </c>
       <c r="J3" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K3" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01148999940442441</v>
+        <v>0.01113556386342796</v>
       </c>
       <c r="M3" t="n">
-        <v>9.949433901243797</v>
+        <v>9.939928068395828</v>
       </c>
       <c r="N3" t="n">
-        <v>158.7468043787713</v>
+        <v>158.3773971450893</v>
       </c>
       <c r="O3" t="n">
-        <v>12.59947635335577</v>
+        <v>12.5848081886491</v>
       </c>
       <c r="P3" t="n">
-        <v>243.9547513107958</v>
+        <v>243.9898132306733</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34139,28 +34309,28 @@
         <v>0.0271</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3523223756580802</v>
+        <v>0.3538631492434455</v>
       </c>
       <c r="J4" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K4" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03371899862437988</v>
+        <v>0.03423234525630292</v>
       </c>
       <c r="M4" t="n">
-        <v>10.69842242051324</v>
+        <v>10.67404354490594</v>
       </c>
       <c r="N4" t="n">
-        <v>189.8825872939035</v>
+        <v>189.347083838425</v>
       </c>
       <c r="O4" t="n">
-        <v>13.77978908742451</v>
+        <v>13.76034461190653</v>
       </c>
       <c r="P4" t="n">
-        <v>239.7735889324265</v>
+        <v>239.7581622428989</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34217,28 +34387,28 @@
         <v>0.0376</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3935057392052846</v>
+        <v>0.3773262095530687</v>
       </c>
       <c r="J5" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K5" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08684436293305242</v>
+        <v>0.07989088195289695</v>
       </c>
       <c r="M5" t="n">
-        <v>7.311119648813686</v>
+        <v>7.346069714886204</v>
       </c>
       <c r="N5" t="n">
-        <v>86.70021735434024</v>
+        <v>88.02192208703741</v>
       </c>
       <c r="O5" t="n">
-        <v>9.311295149136892</v>
+        <v>9.381999898051449</v>
       </c>
       <c r="P5" t="n">
-        <v>261.4754103240801</v>
+        <v>261.6365833835426</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34295,28 +34465,28 @@
         <v>0.0357</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3247656536954088</v>
+        <v>0.321851021535302</v>
       </c>
       <c r="J6" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K6" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05127811630713286</v>
+        <v>0.05104296674405995</v>
       </c>
       <c r="M6" t="n">
-        <v>8.072779514577869</v>
+        <v>8.042218070229733</v>
       </c>
       <c r="N6" t="n">
-        <v>105.4415933492745</v>
+        <v>104.8844803287295</v>
       </c>
       <c r="O6" t="n">
-        <v>10.268475707196</v>
+        <v>10.24131243194589</v>
       </c>
       <c r="P6" t="n">
-        <v>279.8298631429631</v>
+        <v>279.858676351815</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34373,28 +34543,28 @@
         <v>0.0377</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1492838477719928</v>
+        <v>0.1206274785388424</v>
       </c>
       <c r="J7" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K7" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01175312449571175</v>
+        <v>0.007428811605786345</v>
       </c>
       <c r="M7" t="n">
-        <v>7.915317216572845</v>
+        <v>8.021963521679316</v>
       </c>
       <c r="N7" t="n">
-        <v>101.2512113778988</v>
+        <v>105.8932402728871</v>
       </c>
       <c r="O7" t="n">
-        <v>10.06236609242075</v>
+        <v>10.2904441241808</v>
       </c>
       <c r="P7" t="n">
-        <v>281.4604468754101</v>
+        <v>281.7428737622477</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34451,28 +34621,28 @@
         <v>0.0367</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02882823986611374</v>
+        <v>0.02601402982016119</v>
       </c>
       <c r="J8" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K8" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0005015267316768046</v>
+        <v>0.0004109780285245224</v>
       </c>
       <c r="M8" t="n">
-        <v>7.504470561869359</v>
+        <v>7.496879369197132</v>
       </c>
       <c r="N8" t="n">
-        <v>90.82800114260802</v>
+        <v>90.62749366367723</v>
       </c>
       <c r="O8" t="n">
-        <v>9.530372560535502</v>
+        <v>9.519847355061804</v>
       </c>
       <c r="P8" t="n">
-        <v>287.3405145648613</v>
+        <v>287.3681386377067</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34529,28 +34699,28 @@
         <v>0.0322</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.07806526044709564</v>
+        <v>-0.08160743311456094</v>
       </c>
       <c r="J9" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K9" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002896026162914289</v>
+        <v>0.003183447512898341</v>
       </c>
       <c r="M9" t="n">
-        <v>8.607067883960113</v>
+        <v>8.599088473006335</v>
       </c>
       <c r="N9" t="n">
-        <v>114.5142385458717</v>
+        <v>114.278982292675</v>
       </c>
       <c r="O9" t="n">
-        <v>10.7011325823892</v>
+        <v>10.69013481171659</v>
       </c>
       <c r="P9" t="n">
-        <v>293.7989126339014</v>
+        <v>293.8336944990926</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34607,28 +34777,28 @@
         <v>0.054</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04120721909902219</v>
+        <v>-0.0497151762132066</v>
       </c>
       <c r="J10" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K10" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001343666584759706</v>
+        <v>0.001952045118222889</v>
       </c>
       <c r="M10" t="n">
-        <v>6.500699878641862</v>
+        <v>6.521355536762851</v>
       </c>
       <c r="N10" t="n">
-        <v>67.41660887333356</v>
+        <v>67.77943771837568</v>
       </c>
       <c r="O10" t="n">
-        <v>8.21076177180495</v>
+        <v>8.232826836413825</v>
       </c>
       <c r="P10" t="n">
-        <v>290.2464422811652</v>
+        <v>290.3315102149058</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34685,28 +34855,28 @@
         <v>0.0484</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.08643085529342238</v>
+        <v>-0.1007066821303211</v>
       </c>
       <c r="J11" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K11" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005446013930272997</v>
+        <v>0.007380606755874486</v>
       </c>
       <c r="M11" t="n">
-        <v>6.76083081375782</v>
+        <v>6.792462882189126</v>
       </c>
       <c r="N11" t="n">
-        <v>74.6401027509251</v>
+        <v>75.20458032420559</v>
       </c>
       <c r="O11" t="n">
-        <v>8.639450373196498</v>
+        <v>8.672057444701666</v>
       </c>
       <c r="P11" t="n">
-        <v>297.73650973326</v>
+        <v>297.8773896499468</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34763,28 +34933,28 @@
         <v>0.0361</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1326233701065655</v>
+        <v>-0.135198282332682</v>
       </c>
       <c r="J12" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K12" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01318091691320666</v>
+        <v>0.0138696732130259</v>
       </c>
       <c r="M12" t="n">
-        <v>6.756244182427097</v>
+        <v>6.728832600103808</v>
       </c>
       <c r="N12" t="n">
-        <v>71.23155110300831</v>
+        <v>70.85353641556117</v>
       </c>
       <c r="O12" t="n">
-        <v>8.439878618973635</v>
+        <v>8.417454271664395</v>
       </c>
       <c r="P12" t="n">
-        <v>320.8508326023247</v>
+        <v>320.8764036591501</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34841,28 +35011,28 @@
         <v>0.0407</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.183987742768762</v>
+        <v>-0.1892442539388099</v>
       </c>
       <c r="J13" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K13" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02453350683028355</v>
+        <v>0.02621322565248241</v>
       </c>
       <c r="M13" t="n">
-        <v>6.70239951952331</v>
+        <v>6.690043833428894</v>
       </c>
       <c r="N13" t="n">
-        <v>71.9539164503619</v>
+        <v>71.67538191474452</v>
       </c>
       <c r="O13" t="n">
-        <v>8.482565440381931</v>
+        <v>8.466131460988811</v>
       </c>
       <c r="P13" t="n">
-        <v>335.8584178227841</v>
+        <v>335.9114153264128</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34919,28 +35089,28 @@
         <v>0.0579</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2107156412096639</v>
+        <v>-0.2223652979875785</v>
       </c>
       <c r="J14" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K14" t="n">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04062507253427206</v>
+        <v>0.04522853477115241</v>
       </c>
       <c r="M14" t="n">
-        <v>5.807929300820033</v>
+        <v>5.824167314957505</v>
       </c>
       <c r="N14" t="n">
-        <v>55.69683536647933</v>
+        <v>55.89344086575847</v>
       </c>
       <c r="O14" t="n">
-        <v>7.463031245176408</v>
+        <v>7.476191601728682</v>
       </c>
       <c r="P14" t="n">
-        <v>334.0420347896207</v>
+        <v>334.1590636977276</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34997,28 +35167,28 @@
         <v>0.0636</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1890428868561507</v>
+        <v>-0.1971022476078239</v>
       </c>
       <c r="J15" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K15" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03109827566795031</v>
+        <v>0.0340257707929531</v>
       </c>
       <c r="M15" t="n">
-        <v>5.994196848627496</v>
+        <v>5.997838748922387</v>
       </c>
       <c r="N15" t="n">
-        <v>59.96722567185213</v>
+        <v>59.88034807826787</v>
       </c>
       <c r="O15" t="n">
-        <v>7.743850829648782</v>
+        <v>7.738239339686249</v>
       </c>
       <c r="P15" t="n">
-        <v>333.6327315347597</v>
+        <v>333.7124576588835</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35075,28 +35245,28 @@
         <v>0.0533</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.008358476089934161</v>
+        <v>-0.01365747019071689</v>
       </c>
       <c r="J16" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K16" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L16" t="n">
-        <v>6.435302997964687e-05</v>
+        <v>0.0001733799093597277</v>
       </c>
       <c r="M16" t="n">
-        <v>5.982634067338155</v>
+        <v>5.973958626939875</v>
       </c>
       <c r="N16" t="n">
-        <v>58.66052385966839</v>
+        <v>58.57424510322132</v>
       </c>
       <c r="O16" t="n">
-        <v>7.659015854512145</v>
+        <v>7.653381285629334</v>
       </c>
       <c r="P16" t="n">
-        <v>336.8442870971533</v>
+        <v>336.8971615817248</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35153,28 +35323,28 @@
         <v>0.0561</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03869592731229057</v>
+        <v>0.0328023713386297</v>
       </c>
       <c r="J17" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K17" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001384357993595486</v>
+        <v>0.001005512704172262</v>
       </c>
       <c r="M17" t="n">
-        <v>5.799699227280953</v>
+        <v>5.793498341879031</v>
       </c>
       <c r="N17" t="n">
-        <v>57.19491091991137</v>
+        <v>57.05298258640793</v>
       </c>
       <c r="O17" t="n">
-        <v>7.562731710163423</v>
+        <v>7.553342477764922</v>
       </c>
       <c r="P17" t="n">
-        <v>338.6568470239762</v>
+        <v>338.716117497877</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -35231,28 +35401,28 @@
         <v>0.0538</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04734953510615324</v>
+        <v>0.04336309555836498</v>
       </c>
       <c r="J18" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K18" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001903643967399171</v>
+        <v>0.001614401957744649</v>
       </c>
       <c r="M18" t="n">
-        <v>6.053562924186842</v>
+        <v>6.042237969789095</v>
       </c>
       <c r="N18" t="n">
-        <v>62.5468260139498</v>
+        <v>62.36058716240099</v>
       </c>
       <c r="O18" t="n">
-        <v>7.908655133077293</v>
+        <v>7.896871985944877</v>
       </c>
       <c r="P18" t="n">
-        <v>338.4090845024132</v>
+        <v>338.449047330836</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35309,28 +35479,28 @@
         <v>0.0653</v>
       </c>
       <c r="I19" t="n">
-        <v>0.07700213915271321</v>
+        <v>0.07785872438525643</v>
       </c>
       <c r="J19" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K19" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L19" t="n">
-        <v>0.004753014065342898</v>
+        <v>0.00492753635861698</v>
       </c>
       <c r="M19" t="n">
-        <v>6.239458191532069</v>
+        <v>6.20943634187069</v>
       </c>
       <c r="N19" t="n">
-        <v>68.11245475550169</v>
+        <v>67.71579900281931</v>
       </c>
       <c r="O19" t="n">
-        <v>8.253027005620526</v>
+        <v>8.228960991693867</v>
       </c>
       <c r="P19" t="n">
-        <v>331.9088040768119</v>
+        <v>331.900435709403</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35387,28 +35557,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>0.00379410365048142</v>
+        <v>-0.001027449652167361</v>
       </c>
       <c r="J20" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K20" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L20" t="n">
-        <v>1.321462789161121e-05</v>
+        <v>9.708841771649546e-07</v>
       </c>
       <c r="M20" t="n">
-        <v>5.884808875968156</v>
+        <v>5.910177692985686</v>
       </c>
       <c r="N20" t="n">
-        <v>58.44192435252797</v>
+        <v>58.82303341730649</v>
       </c>
       <c r="O20" t="n">
-        <v>7.644731803832491</v>
+        <v>7.669617553522893</v>
       </c>
       <c r="P20" t="n">
-        <v>329.2052307745614</v>
+        <v>329.2526575126513</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -35465,28 +35635,28 @@
         <v>0.07190000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>0.05579247070904506</v>
+        <v>0.04444991385798153</v>
       </c>
       <c r="J21" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K21" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L21" t="n">
-        <v>0.003118372095739952</v>
+        <v>0.001948073405480533</v>
       </c>
       <c r="M21" t="n">
-        <v>5.667667996172666</v>
+        <v>5.717456575453272</v>
       </c>
       <c r="N21" t="n">
-        <v>53.82497771669551</v>
+        <v>55.1890369451644</v>
       </c>
       <c r="O21" t="n">
-        <v>7.336550805160114</v>
+        <v>7.428932422977369</v>
       </c>
       <c r="P21" t="n">
-        <v>329.3216946561691</v>
+        <v>329.434097795007</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35543,28 +35713,28 @@
         <v>0.0636</v>
       </c>
       <c r="I22" t="n">
-        <v>0.123686516218103</v>
+        <v>0.1138817562105865</v>
       </c>
       <c r="J22" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K22" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01264593895644683</v>
+        <v>0.01076873415714252</v>
       </c>
       <c r="M22" t="n">
-        <v>6.228811917747502</v>
+        <v>6.244212972963104</v>
       </c>
       <c r="N22" t="n">
-        <v>65.2412684081595</v>
+        <v>65.59645836775589</v>
       </c>
       <c r="O22" t="n">
-        <v>8.077206720652846</v>
+        <v>8.099164053638862</v>
       </c>
       <c r="P22" t="n">
-        <v>329.2116048269143</v>
+        <v>329.3079033228296</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35621,28 +35791,28 @@
         <v>0.0649</v>
       </c>
       <c r="I23" t="n">
-        <v>0.03923847631592026</v>
+        <v>0.03448182055284506</v>
       </c>
       <c r="J23" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K23" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001237405894494059</v>
+        <v>0.000965866601851384</v>
       </c>
       <c r="M23" t="n">
-        <v>6.224355977581546</v>
+        <v>6.215793186508816</v>
       </c>
       <c r="N23" t="n">
-        <v>66.8959319657405</v>
+        <v>66.72460745660786</v>
       </c>
       <c r="O23" t="n">
-        <v>8.178993334496642</v>
+        <v>8.16851317294695</v>
       </c>
       <c r="P23" t="n">
-        <v>327.7206017079919</v>
+        <v>327.767987135545</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35699,28 +35869,28 @@
         <v>0.0515</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02512605481903091</v>
+        <v>0.0205271380095948</v>
       </c>
       <c r="J24" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K24" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0005696026468359205</v>
+        <v>0.0003844574802041034</v>
       </c>
       <c r="M24" t="n">
-        <v>5.941125512895061</v>
+        <v>5.927051957896646</v>
       </c>
       <c r="N24" t="n">
-        <v>58.92092770294141</v>
+        <v>58.74315128170576</v>
       </c>
       <c r="O24" t="n">
-        <v>7.675996854021073</v>
+        <v>7.664408084236235</v>
       </c>
       <c r="P24" t="n">
-        <v>328.5944734578999</v>
+        <v>328.6404924501977</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -35758,7 +35928,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y385"/>
+  <dimension ref="A1:Y387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81189,6 +81359,236 @@
         </is>
       </c>
     </row>
+    <row r="386">
+      <c r="A386" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-12 21:53:43+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr"/>
+      <c r="C386" t="inlineStr"/>
+      <c r="D386" t="inlineStr"/>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>-38.335527175237324,178.32441413633117</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>-38.33641633420792,178.32461858422153</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>-38.337255086729,178.32417524264574</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr"/>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>-38.34008274889636,178.3249367771051</t>
+        </is>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>-38.34072334044139,178.325496782891</t>
+        </is>
+      </c>
+      <c r="M386" t="inlineStr">
+        <is>
+          <t>-38.34141093388032,178.32574455436927</t>
+        </is>
+      </c>
+      <c r="N386" t="inlineStr">
+        <is>
+          <t>-38.34211735030982,178.3258598756629</t>
+        </is>
+      </c>
+      <c r="O386" t="inlineStr">
+        <is>
+          <t>-38.34280392188682,178.32607662198058</t>
+        </is>
+      </c>
+      <c r="P386" t="inlineStr">
+        <is>
+          <t>-38.34346776240055,178.32644601260608</t>
+        </is>
+      </c>
+      <c r="Q386" t="inlineStr">
+        <is>
+          <t>-38.344142960737045,178.3267414334657</t>
+        </is>
+      </c>
+      <c r="R386" t="inlineStr">
+        <is>
+          <t>-38.34480068380439,178.32706154762178</t>
+        </is>
+      </c>
+      <c r="S386" t="inlineStr">
+        <is>
+          <t>-38.34548283935255,178.32729898701132</t>
+        </is>
+      </c>
+      <c r="T386" t="inlineStr">
+        <is>
+          <t>-38.34614981654536,178.3275838623457</t>
+        </is>
+      </c>
+      <c r="U386" t="inlineStr">
+        <is>
+          <t>-38.34681978376748,178.32785891602072</t>
+        </is>
+      </c>
+      <c r="V386" t="inlineStr">
+        <is>
+          <t>-38.34751089726922,178.32810403782224</t>
+        </is>
+      </c>
+      <c r="W386" t="inlineStr">
+        <is>
+          <t>-38.348179784066865,178.32844277551536</t>
+        </is>
+      </c>
+      <c r="X386" t="inlineStr">
+        <is>
+          <t>-38.3488209201717,178.32882762816894</t>
+        </is>
+      </c>
+      <c r="Y386" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:54:11+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>-38.33350888616181,178.32541307157322</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>-38.33414303356644,178.32498818355631</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>-38.334830396621406,178.32478356245701</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>-38.335579933573456,178.3246760506188</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>-38.336415689523086,178.3246020572813</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>-38.33722132891078,178.3245973701975</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>-38.33792112798138,178.3246967632251</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>-38.338639707290135,178.32478435181093</t>
+        </is>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>-38.339380812749106,178.32477414399503</t>
+        </is>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>-38.3400651674362,178.32505799302248</t>
+        </is>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>-38.34072703025095,178.32547339533016</t>
+        </is>
+      </c>
+      <c r="M387" t="inlineStr">
+        <is>
+          <t>-38.34140099369398,178.32579950189745</t>
+        </is>
+      </c>
+      <c r="N387" t="inlineStr">
+        <is>
+          <t>-38.34211484704767,178.32587296224182</t>
+        </is>
+      </c>
+      <c r="O387" t="inlineStr">
+        <is>
+          <t>-38.342803037507835,178.32608104685747</t>
+        </is>
+      </c>
+      <c r="P387" t="inlineStr">
+        <is>
+          <t>-38.343494884029965,178.3263389996965</t>
+        </is>
+      </c>
+      <c r="Q387" t="inlineStr">
+        <is>
+          <t>-38.3441609046331,178.3266815973861</t>
+        </is>
+      </c>
+      <c r="R387" t="inlineStr">
+        <is>
+          <t>-38.344827903709586,178.32697077953284</t>
+        </is>
+      </c>
+      <c r="S387" t="inlineStr">
+        <is>
+          <t>-38.34549035373828,178.32727379838423</t>
+        </is>
+      </c>
+      <c r="T387" t="inlineStr">
+        <is>
+          <t>-38.34621578365043,178.32735880822716</t>
+        </is>
+      </c>
+      <c r="U387" t="inlineStr">
+        <is>
+          <t>-38.34690825747075,178.3275532835583</t>
+        </is>
+      </c>
+      <c r="V387" t="inlineStr">
+        <is>
+          <t>-38.34756572168045,178.32793978821726</t>
+        </is>
+      </c>
+      <c r="W387" t="inlineStr">
+        <is>
+          <t>-38.34821716064837,178.32834834104705</t>
+        </is>
+      </c>
+      <c r="X387" t="inlineStr">
+        <is>
+          <t>-38.3488511991083,178.32875409584517</t>
+        </is>
+      </c>
+      <c r="Y387" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0255/nzd0255.xlsx
+++ b/data/nzd0255/nzd0255.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y387"/>
+  <dimension ref="A1:Y388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30081,6 +30081,87 @@
         </is>
       </c>
     </row>
+    <row r="388">
+      <c r="A388" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:54:20+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>264.6833333333333</v>
+      </c>
+      <c r="C388" t="n">
+        <v>257.3033333333333</v>
+      </c>
+      <c r="D388" t="n">
+        <v>259.52</v>
+      </c>
+      <c r="E388" t="n">
+        <v>279.8771428571428</v>
+      </c>
+      <c r="F388" t="n">
+        <v>293.9271428571428</v>
+      </c>
+      <c r="G388" t="n">
+        <v>292.9171428571428</v>
+      </c>
+      <c r="H388" t="n">
+        <v>297.5871428571429</v>
+      </c>
+      <c r="I388" t="n">
+        <v>303.8633333333333</v>
+      </c>
+      <c r="J388" t="n">
+        <v>292.84</v>
+      </c>
+      <c r="K388" t="n">
+        <v>303.0588888888889</v>
+      </c>
+      <c r="L388" t="n">
+        <v>322.8271428571429</v>
+      </c>
+      <c r="M388" t="n">
+        <v>334.4271428571428</v>
+      </c>
+      <c r="N388" t="n">
+        <v>339.3363636363636</v>
+      </c>
+      <c r="O388" t="n">
+        <v>330.2066666666667</v>
+      </c>
+      <c r="P388" t="n">
+        <v>342.58</v>
+      </c>
+      <c r="Q388" t="n">
+        <v>345.41</v>
+      </c>
+      <c r="R388" t="n">
+        <v>344.27</v>
+      </c>
+      <c r="S388" t="n">
+        <v>336.6166666666667</v>
+      </c>
+      <c r="T388" t="n">
+        <v>332.1966666666667</v>
+      </c>
+      <c r="U388" t="n">
+        <v>337.1692307692308</v>
+      </c>
+      <c r="V388" t="n">
+        <v>339.5366666666667</v>
+      </c>
+      <c r="W388" t="n">
+        <v>331.4966666666667</v>
+      </c>
+      <c r="X388" t="n">
+        <v>332.8</v>
+      </c>
+      <c r="Y388" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30092,7 +30173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B388"/>
+  <dimension ref="A1:B389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33980,6 +34061,16 @@
       </c>
       <c r="B388" t="n">
         <v>0.57</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -35928,7 +36019,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y387"/>
+  <dimension ref="A1:Y388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81589,6 +81680,133 @@
         </is>
       </c>
     </row>
+    <row r="388">
+      <c r="A388" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:54:20+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>-38.333534754326344,178.32552013140491</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>-38.334180553282,178.32514346526156</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>-38.334851643207905,178.32487149563852</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>-38.335601872817165,178.32478496712838</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>-38.33641962047595,178.3247028309102</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>-38.337209305909184,178.3247477081938</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>-38.337908260349806,178.3248576615888</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>-38.338618994256166,178.32498719890813</t>
+        </is>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>-38.33935408114652,178.32497257562804</t>
+        </is>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>-38.340041965872366,178.32521795552083</t>
+        </is>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>-38.34071179178745,178.3255699829003</t>
+        </is>
+      </c>
+      <c r="M388" t="inlineStr">
+        <is>
+          <t>-38.341390467072856,178.32585769096067</t>
+        </is>
+      </c>
+      <c r="N388" t="inlineStr">
+        <is>
+          <t>-38.342073006876525,178.32609169346284</t>
+        </is>
+      </c>
+      <c r="O388" t="inlineStr">
+        <is>
+          <t>-38.342785246716446,178.32617006060363</t>
+        </is>
+      </c>
+      <c r="P388" t="inlineStr">
+        <is>
+          <t>-38.3434526733728,178.32650554868312</t>
+        </is>
+      </c>
+      <c r="Q388" t="inlineStr">
+        <is>
+          <t>-38.34411769210059,178.32682569455613</t>
+        </is>
+      </c>
+      <c r="R388" t="inlineStr">
+        <is>
+          <t>-38.34478868911318,178.32710154528687</t>
+        </is>
+      </c>
+      <c r="S388" t="inlineStr">
+        <is>
+          <t>-38.345480207193646,178.32730781014484</t>
+        </is>
+      </c>
+      <c r="T388" t="inlineStr">
+        <is>
+          <t>-38.34616114552566,178.32754521239946</t>
+        </is>
+      </c>
+      <c r="U388" t="inlineStr">
+        <is>
+          <t>-38.34681476000165,178.32787627052056</t>
+        </is>
+      </c>
+      <c r="V388" t="inlineStr">
+        <is>
+          <t>-38.347484706816125,178.3281825020292</t>
+        </is>
+      </c>
+      <c r="W388" t="inlineStr">
+        <is>
+          <t>-38.34817128081759,178.3284642595123</t>
+        </is>
+      </c>
+      <c r="X388" t="inlineStr">
+        <is>
+          <t>-38.3488053017217,178.32886555747126</t>
+        </is>
+      </c>
+      <c r="Y388" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0255/nzd0255.xlsx
+++ b/data/nzd0255/nzd0255.xlsx
@@ -34244,28 +34244,28 @@
         <v>0.0307</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09348114569051345</v>
+        <v>0.09872420804367005</v>
       </c>
       <c r="J2" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K2" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003116476205033192</v>
+        <v>0.003493795493519136</v>
       </c>
       <c r="M2" t="n">
-        <v>9.624747496118561</v>
+        <v>9.621566992111301</v>
       </c>
       <c r="N2" t="n">
-        <v>151.1764877900555</v>
+        <v>150.9575556709918</v>
       </c>
       <c r="O2" t="n">
-        <v>12.29538481667229</v>
+        <v>12.28647857081075</v>
       </c>
       <c r="P2" t="n">
-        <v>253.5491709008339</v>
+        <v>253.4969081225007</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34322,28 +34322,28 @@
         <v>0.0305</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1820581158274838</v>
+        <v>0.1872664821156307</v>
       </c>
       <c r="J3" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K3" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01113556386342796</v>
+        <v>0.01183931211891698</v>
       </c>
       <c r="M3" t="n">
-        <v>9.939928068395828</v>
+        <v>9.931464598670754</v>
       </c>
       <c r="N3" t="n">
-        <v>158.3773971450893</v>
+        <v>158.1268120131919</v>
       </c>
       <c r="O3" t="n">
-        <v>12.5848081886491</v>
+        <v>12.57484838927261</v>
       </c>
       <c r="P3" t="n">
-        <v>243.9898132306733</v>
+        <v>243.937313731266</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34400,28 +34400,28 @@
         <v>0.0271</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3538631492434455</v>
+        <v>0.3603160269520449</v>
       </c>
       <c r="J4" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K4" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03423234525630292</v>
+        <v>0.03563077900307443</v>
       </c>
       <c r="M4" t="n">
-        <v>10.67404354490594</v>
+        <v>10.67122788868608</v>
       </c>
       <c r="N4" t="n">
-        <v>189.347083838425</v>
+        <v>189.1144421257483</v>
       </c>
       <c r="O4" t="n">
-        <v>13.76034461190653</v>
+        <v>13.7518886748602</v>
       </c>
       <c r="P4" t="n">
-        <v>239.7581622428989</v>
+        <v>239.6933192352558</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34478,28 +34478,28 @@
         <v>0.0376</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3773262095530687</v>
+        <v>0.3823357540559987</v>
       </c>
       <c r="J5" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K5" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07989088195289695</v>
+        <v>0.08220098520369434</v>
       </c>
       <c r="M5" t="n">
-        <v>7.346069714886204</v>
+        <v>7.348613121431287</v>
       </c>
       <c r="N5" t="n">
-        <v>88.02192208703741</v>
+        <v>87.96939116831012</v>
       </c>
       <c r="O5" t="n">
-        <v>9.381999898051449</v>
+        <v>9.379199921545021</v>
       </c>
       <c r="P5" t="n">
-        <v>261.6365833835426</v>
+        <v>261.5864136105999</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34556,28 +34556,28 @@
         <v>0.0357</v>
       </c>
       <c r="I6" t="n">
-        <v>0.321851021535302</v>
+        <v>0.3251743092287269</v>
       </c>
       <c r="J6" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K6" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05104296674405995</v>
+        <v>0.05234039349590491</v>
       </c>
       <c r="M6" t="n">
-        <v>8.042218070229733</v>
+        <v>8.034266181062343</v>
       </c>
       <c r="N6" t="n">
-        <v>104.8844803287295</v>
+        <v>104.6787205993685</v>
       </c>
       <c r="O6" t="n">
-        <v>10.24131243194589</v>
+        <v>10.23126192604649</v>
       </c>
       <c r="P6" t="n">
-        <v>279.858676351815</v>
+        <v>279.8256804700258</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34634,28 +34634,28 @@
         <v>0.0377</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1206274785388424</v>
+        <v>0.1253699970720643</v>
       </c>
       <c r="J7" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K7" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007428811605786345</v>
+        <v>0.008060595824776473</v>
       </c>
       <c r="M7" t="n">
-        <v>8.021963521679316</v>
+        <v>8.019134428387714</v>
       </c>
       <c r="N7" t="n">
-        <v>105.8932402728871</v>
+        <v>105.7743764502799</v>
       </c>
       <c r="O7" t="n">
-        <v>10.2904441241808</v>
+        <v>10.28466705587886</v>
       </c>
       <c r="P7" t="n">
-        <v>281.7428737622477</v>
+        <v>281.6958843479164</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34712,28 +34712,28 @@
         <v>0.0367</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02601402982016119</v>
+        <v>0.03174194939153011</v>
       </c>
       <c r="J8" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K8" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004109780285245224</v>
+        <v>0.0006142529200211522</v>
       </c>
       <c r="M8" t="n">
-        <v>7.496879369197132</v>
+        <v>7.501337826169475</v>
       </c>
       <c r="N8" t="n">
-        <v>90.62749366367723</v>
+        <v>90.62595753915632</v>
       </c>
       <c r="O8" t="n">
-        <v>9.519847355061804</v>
+        <v>9.519766674617415</v>
       </c>
       <c r="P8" t="n">
-        <v>287.3681386377067</v>
+        <v>287.3117039997417</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34790,28 +34790,28 @@
         <v>0.0322</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.08160743311456094</v>
+        <v>-0.07422678179333869</v>
       </c>
       <c r="J9" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K9" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003183447512898341</v>
+        <v>0.002643834423860736</v>
       </c>
       <c r="M9" t="n">
-        <v>8.599088473006335</v>
+        <v>8.608844738304029</v>
       </c>
       <c r="N9" t="n">
-        <v>114.278982292675</v>
+        <v>114.3723643201249</v>
       </c>
       <c r="O9" t="n">
-        <v>10.69013481171659</v>
+        <v>10.69450159288056</v>
       </c>
       <c r="P9" t="n">
-        <v>293.8336944990926</v>
+        <v>293.7609537027781</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34868,28 +34868,28 @@
         <v>0.054</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0497151762132066</v>
+        <v>-0.04740101035080008</v>
       </c>
       <c r="J10" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K10" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001952045118222889</v>
+        <v>0.001786151487634058</v>
       </c>
       <c r="M10" t="n">
-        <v>6.521355536762851</v>
+        <v>6.513692161785659</v>
       </c>
       <c r="N10" t="n">
-        <v>67.77943771837568</v>
+        <v>67.62594414935843</v>
       </c>
       <c r="O10" t="n">
-        <v>8.232826836413825</v>
+        <v>8.223499507469946</v>
       </c>
       <c r="P10" t="n">
-        <v>290.3315102149058</v>
+        <v>290.3082877013988</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34946,28 +34946,28 @@
         <v>0.0484</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1007066821303211</v>
+        <v>-0.09608433650894795</v>
       </c>
       <c r="J11" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K11" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007380606755874486</v>
+        <v>0.006752788624227235</v>
       </c>
       <c r="M11" t="n">
-        <v>6.792462882189126</v>
+        <v>6.794903441919312</v>
       </c>
       <c r="N11" t="n">
-        <v>75.20458032420559</v>
+        <v>75.16217687631664</v>
       </c>
       <c r="O11" t="n">
-        <v>8.672057444701666</v>
+        <v>8.669612267934284</v>
       </c>
       <c r="P11" t="n">
-        <v>297.8773896499468</v>
+        <v>297.8315376304853</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35024,28 +35024,28 @@
         <v>0.0361</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.135198282332682</v>
+        <v>-0.1319256839660377</v>
       </c>
       <c r="J12" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K12" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0138696732130259</v>
+        <v>0.01328844205880375</v>
       </c>
       <c r="M12" t="n">
-        <v>6.728832600103808</v>
+        <v>6.726248265962665</v>
       </c>
       <c r="N12" t="n">
-        <v>70.85353641556117</v>
+        <v>70.73559667315268</v>
       </c>
       <c r="O12" t="n">
-        <v>8.417454271664395</v>
+        <v>8.410445688139998</v>
       </c>
       <c r="P12" t="n">
-        <v>320.8764036591501</v>
+        <v>320.8437668485222</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35102,28 +35102,28 @@
         <v>0.0407</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1892442539388099</v>
+        <v>-0.187144088801398</v>
       </c>
       <c r="J13" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K13" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02621322565248241</v>
+        <v>0.02580818838604304</v>
       </c>
       <c r="M13" t="n">
-        <v>6.690043833428894</v>
+        <v>6.679874845811126</v>
       </c>
       <c r="N13" t="n">
-        <v>71.67538191474452</v>
+        <v>71.50005388608496</v>
       </c>
       <c r="O13" t="n">
-        <v>8.466131460988811</v>
+        <v>8.455770448994281</v>
       </c>
       <c r="P13" t="n">
-        <v>335.9114153264128</v>
+        <v>335.8901299000607</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35180,28 +35180,28 @@
         <v>0.0579</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2223652979875785</v>
+        <v>-0.2156473468023598</v>
       </c>
       <c r="J14" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K14" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04522853477115241</v>
+        <v>0.04268161036008189</v>
       </c>
       <c r="M14" t="n">
-        <v>5.824167314957505</v>
+        <v>5.842015136007762</v>
       </c>
       <c r="N14" t="n">
-        <v>55.89344086575847</v>
+        <v>56.07878257587095</v>
       </c>
       <c r="O14" t="n">
-        <v>7.476191601728682</v>
+        <v>7.488576805766964</v>
       </c>
       <c r="P14" t="n">
-        <v>334.1590636977276</v>
+        <v>334.091263736645</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35258,28 +35258,28 @@
         <v>0.0636</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1971022476078239</v>
+        <v>-0.1961179492658043</v>
       </c>
       <c r="J15" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K15" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0340257707929531</v>
+        <v>0.03391880325019614</v>
       </c>
       <c r="M15" t="n">
-        <v>5.997838748922387</v>
+        <v>5.985517748351317</v>
       </c>
       <c r="N15" t="n">
-        <v>59.88034807826787</v>
+        <v>59.71788198866633</v>
       </c>
       <c r="O15" t="n">
-        <v>7.738239339686249</v>
+        <v>7.727734596158588</v>
       </c>
       <c r="P15" t="n">
-        <v>333.7124576588835</v>
+        <v>333.7026755729928</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35336,28 +35336,28 @@
         <v>0.0533</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.01365747019071689</v>
+        <v>-0.0100700529873765</v>
       </c>
       <c r="J16" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K16" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001733799093597277</v>
+        <v>9.473651870139932e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>5.973958626939875</v>
+        <v>5.975718572653135</v>
       </c>
       <c r="N16" t="n">
-        <v>58.57424510322132</v>
+        <v>58.5097559853054</v>
       </c>
       <c r="O16" t="n">
-        <v>7.653381285629334</v>
+        <v>7.649167012512239</v>
       </c>
       <c r="P16" t="n">
-        <v>336.8971615817248</v>
+        <v>336.861234844693</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35414,28 +35414,28 @@
         <v>0.0561</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0328023713386297</v>
+        <v>0.03626648919699967</v>
       </c>
       <c r="J17" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K17" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001005512704172262</v>
+        <v>0.001235100712768222</v>
       </c>
       <c r="M17" t="n">
-        <v>5.793498341879031</v>
+        <v>5.794194118813524</v>
       </c>
       <c r="N17" t="n">
-        <v>57.05298258640793</v>
+        <v>56.98748193690867</v>
       </c>
       <c r="O17" t="n">
-        <v>7.553342477764922</v>
+        <v>7.54900536076831</v>
       </c>
       <c r="P17" t="n">
-        <v>338.716117497877</v>
+        <v>338.6811389785883</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -35492,28 +35492,28 @@
         <v>0.0538</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04336309555836498</v>
+        <v>0.04612297661908103</v>
       </c>
       <c r="J18" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K18" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001614401957744649</v>
+        <v>0.001836560399208431</v>
       </c>
       <c r="M18" t="n">
-        <v>6.042237969789095</v>
+        <v>6.039190440371019</v>
       </c>
       <c r="N18" t="n">
-        <v>62.36058716240099</v>
+        <v>62.24717512712485</v>
       </c>
       <c r="O18" t="n">
-        <v>7.896871985944877</v>
+        <v>7.889687897954193</v>
       </c>
       <c r="P18" t="n">
-        <v>338.449047330836</v>
+        <v>338.4212861026954</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35570,28 +35570,28 @@
         <v>0.0653</v>
       </c>
       <c r="I19" t="n">
-        <v>0.07785872438525643</v>
+        <v>0.07951269748020284</v>
       </c>
       <c r="J19" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K19" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00492753635861698</v>
+        <v>0.005173001937125332</v>
       </c>
       <c r="M19" t="n">
-        <v>6.20943634187069</v>
+        <v>6.199384815693104</v>
       </c>
       <c r="N19" t="n">
-        <v>67.71579900281931</v>
+        <v>67.534887508572</v>
       </c>
       <c r="O19" t="n">
-        <v>8.228960991693867</v>
+        <v>8.217961274462906</v>
       </c>
       <c r="P19" t="n">
-        <v>331.900435709403</v>
+        <v>331.8841748178945</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35648,28 +35648,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.001027449652167361</v>
+        <v>0.0007473882475108944</v>
       </c>
       <c r="J20" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K20" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L20" t="n">
-        <v>9.708841771649546e-07</v>
+        <v>5.171207133614075e-07</v>
       </c>
       <c r="M20" t="n">
-        <v>5.910177692985686</v>
+        <v>5.902106806089106</v>
       </c>
       <c r="N20" t="n">
-        <v>58.82303341730649</v>
+        <v>58.68313724220755</v>
       </c>
       <c r="O20" t="n">
-        <v>7.669617553522893</v>
+        <v>7.660491971290587</v>
       </c>
       <c r="P20" t="n">
-        <v>329.2526575126513</v>
+        <v>329.2351624712565</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -35726,28 +35726,28 @@
         <v>0.07190000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>0.04444991385798153</v>
+        <v>0.04836587281195338</v>
       </c>
       <c r="J21" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K21" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001948073405480533</v>
+        <v>0.002316273235637434</v>
       </c>
       <c r="M21" t="n">
-        <v>5.717456575453272</v>
+        <v>5.719365646314342</v>
       </c>
       <c r="N21" t="n">
-        <v>55.1890369451644</v>
+        <v>55.15359088773621</v>
       </c>
       <c r="O21" t="n">
-        <v>7.428932422977369</v>
+        <v>7.426546363400433</v>
       </c>
       <c r="P21" t="n">
-        <v>329.434097795007</v>
+        <v>329.3951655658601</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35804,28 +35804,28 @@
         <v>0.0636</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1138817562105865</v>
+        <v>0.1182193301687901</v>
       </c>
       <c r="J22" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K22" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01076873415714252</v>
+        <v>0.01164803677121096</v>
       </c>
       <c r="M22" t="n">
-        <v>6.244212972963104</v>
+        <v>6.245048092408227</v>
       </c>
       <c r="N22" t="n">
-        <v>65.59645836775589</v>
+        <v>65.557442103708</v>
       </c>
       <c r="O22" t="n">
-        <v>8.099164053638862</v>
+        <v>8.096755035426723</v>
       </c>
       <c r="P22" t="n">
-        <v>329.3079033228296</v>
+        <v>329.2651404382444</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35882,28 +35882,28 @@
         <v>0.0649</v>
       </c>
       <c r="I23" t="n">
-        <v>0.03448182055284506</v>
+        <v>0.03616622802518773</v>
       </c>
       <c r="J23" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K23" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L23" t="n">
-        <v>0.000965866601851384</v>
+        <v>0.001069322409366524</v>
       </c>
       <c r="M23" t="n">
-        <v>6.215793186508816</v>
+        <v>6.205733088764048</v>
       </c>
       <c r="N23" t="n">
-        <v>66.72460745660786</v>
+        <v>66.55657861274925</v>
       </c>
       <c r="O23" t="n">
-        <v>8.16851317294695</v>
+        <v>8.158221534914901</v>
       </c>
       <c r="P23" t="n">
-        <v>327.767987135545</v>
+        <v>327.7511475791428</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35960,28 +35960,28 @@
         <v>0.0515</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0205271380095948</v>
+        <v>0.02269587748070825</v>
       </c>
       <c r="J24" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K24" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0003844574802041034</v>
+        <v>0.0004728795807541486</v>
       </c>
       <c r="M24" t="n">
-        <v>5.927051957896646</v>
+        <v>5.921409468153412</v>
       </c>
       <c r="N24" t="n">
-        <v>58.74315128170576</v>
+        <v>58.61355955321663</v>
       </c>
       <c r="O24" t="n">
-        <v>7.664408084236235</v>
+        <v>7.655949291447575</v>
       </c>
       <c r="P24" t="n">
-        <v>328.6404924501977</v>
+        <v>328.6187110876958</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">

--- a/data/nzd0255/nzd0255.xlsx
+++ b/data/nzd0255/nzd0255.xlsx
@@ -34235,13 +34235,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0294</v>
+        <v>0.0345</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0307</v>
+        <v>0.0363</v>
       </c>
       <c r="I2" t="n">
         <v>0.09872355323309934</v>
@@ -34313,13 +34313,13 @@
         <v>0.04549233591029182</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0284</v>
+        <v>0.0386</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0305</v>
+        <v>0.0409</v>
       </c>
       <c r="I3" t="n">
         <v>0.1872723236942178</v>
@@ -34391,13 +34391,13 @@
         <v>0.09098467182074239</v>
       </c>
       <c r="F4" t="n">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0247</v>
+        <v>0.0344</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0271</v>
+        <v>0.036</v>
       </c>
       <c r="I4" t="n">
         <v>0.360316026952045</v>
@@ -34469,13 +34469,13 @@
         <v>0.136477007731193</v>
       </c>
       <c r="F5" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0327</v>
+        <v>0.0427</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0376</v>
+        <v>0.0463</v>
       </c>
       <c r="I5" t="n">
         <v>0.3823543877350001</v>
@@ -34547,13 +34547,13 @@
         <v>0.1813091111001715</v>
       </c>
       <c r="F6" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0317</v>
+        <v>0.0479</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0357</v>
+        <v>0.0515</v>
       </c>
       <c r="I6" t="n">
         <v>0.3251860066433995</v>
@@ -34625,13 +34625,13 @@
         <v>0.2268014470106215</v>
       </c>
       <c r="F7" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0344</v>
+        <v>0.046</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0377</v>
+        <v>0.0522</v>
       </c>
       <c r="I7" t="n">
         <v>0.1253790435872241</v>
@@ -34703,13 +34703,13 @@
         <v>0.2722937829210715</v>
       </c>
       <c r="F8" t="n">
-        <v>0.035</v>
+        <v>0.055</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0345</v>
+        <v>0.0495</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0367</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="I8" t="n">
         <v>0.03175250901077789</v>
@@ -34781,13 +34781,13 @@
         <v>0.3177861188314141</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03</v>
+        <v>0.045</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0297</v>
+        <v>0.0392</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0322</v>
+        <v>0.053</v>
       </c>
       <c r="I9" t="n">
         <v>-0.07421908796536501</v>
@@ -34859,13 +34859,13 @@
         <v>0.3632462662896838</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0443</v>
+        <v>0.06619999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0.054</v>
+        <v>0.0902</v>
       </c>
       <c r="I10" t="n">
         <v>-0.0474010103507999</v>
@@ -34937,13 +34937,13 @@
         <v>0.4087386022001665</v>
       </c>
       <c r="F11" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0432</v>
+        <v>0.054</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0484</v>
+        <v>0.06560000000000001</v>
       </c>
       <c r="I11" t="n">
         <v>-0.09609011863012369</v>
@@ -35015,13 +35015,13 @@
         <v>0.4542309381105806</v>
       </c>
       <c r="F12" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0341</v>
+        <v>0.0442</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0361</v>
+        <v>0.0472</v>
       </c>
       <c r="I12" t="n">
         <v>-0.1319208588393092</v>
@@ -35093,13 +35093,13 @@
         <v>0.4997055255295554</v>
       </c>
       <c r="F13" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0345</v>
+        <v>0.0491</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0407</v>
+        <v>0.0546</v>
       </c>
       <c r="I13" t="n">
         <v>-0.1871406666853176</v>
@@ -35171,13 +35171,13 @@
         <v>0.5451978614398955</v>
       </c>
       <c r="F14" t="n">
-        <v>0.055</v>
+        <v>0.075</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0487</v>
+        <v>0.064</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0579</v>
+        <v>0.08409999999999999</v>
       </c>
       <c r="I14" t="n">
         <v>-0.2156277051182566</v>
@@ -35249,13 +35249,13 @@
         <v>0.5906901973502355</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0544</v>
+        <v>0.0687</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0636</v>
+        <v>0.0839</v>
       </c>
       <c r="I15" t="n">
         <v>-0.196117241925742</v>
@@ -35327,13 +35327,13 @@
         <v>0.6361333375027546</v>
       </c>
       <c r="F16" t="n">
-        <v>0.05</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0477</v>
+        <v>0.0796</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0533</v>
+        <v>0.0939</v>
       </c>
       <c r="I16" t="n">
         <v>-0.01007005298737661</v>
@@ -35405,13 +35405,13 @@
         <v>0.6816256734129988</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0481</v>
+        <v>0.07530000000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0561</v>
+        <v>0.2</v>
       </c>
       <c r="I17" t="n">
         <v>0.03626648919699965</v>
@@ -35483,13 +35483,13 @@
         <v>0.7271180093241877</v>
       </c>
       <c r="F18" t="n">
-        <v>0.05</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0487</v>
+        <v>0.0607</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0538</v>
+        <v>0.1444</v>
       </c>
       <c r="I18" t="n">
         <v>0.04612297661908087</v>
@@ -35561,13 +35561,13 @@
         <v>0.7726103452342901</v>
       </c>
       <c r="F19" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0525</v>
+        <v>0.0728</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0653</v>
+        <v>0.0882</v>
       </c>
       <c r="I19" t="n">
         <v>0.07950795643879388</v>
@@ -35639,13 +35639,13 @@
         <v>0.8181020399977985</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0538</v>
+        <v>0.09959999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06370000000000001</v>
+        <v>0.1204</v>
       </c>
       <c r="I20" t="n">
         <v>0.0007451123757561178</v>
@@ -35717,13 +35717,13 @@
         <v>0.8635943759083521</v>
       </c>
       <c r="F21" t="n">
-        <v>0.065</v>
+        <v>0.095</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0591</v>
+        <v>0.08790000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07190000000000001</v>
+        <v>0.109</v>
       </c>
       <c r="I21" t="n">
         <v>0.04835938787680913</v>
@@ -35795,13 +35795,13 @@
         <v>0.9090867118187838</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0544</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0636</v>
+        <v>0.098</v>
       </c>
       <c r="I22" t="n">
         <v>0.1182109484636657</v>
@@ -35873,13 +35873,13 @@
         <v>0.9545076640897687</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0547</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0649</v>
+        <v>0.0911</v>
       </c>
       <c r="I23" t="n">
         <v>0.03615802767041633</v>
@@ -35951,13 +35951,13 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0446</v>
+        <v>0.0648</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0515</v>
+        <v>0.0752</v>
       </c>
       <c r="I24" t="n">
         <v>0.02269587748070825</v>
